--- a/scripts/templates/ks2/template6.xlsx
+++ b/scripts/templates/ks2/template6.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22624"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22827"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\projects\report-generator\scripts\templates\ks2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D5FF794-1AC9-4BE9-92BE-57096A705372}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E1F7578-0626-4650-8927-151122EFA90E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="828" yWindow="-108" windowWidth="22320" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="198" uniqueCount="156">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="198" uniqueCount="161">
   <si>
     <t>Унифицированная форма № КС-2
 Утверждена постановлением Госкомстата России от 11.11.99 № 100</t>
@@ -311,9 +311,6 @@
     <t>${contractName}</t>
   </si>
   <si>
-    <t>Накладные и транспортные расходы 8%</t>
-  </si>
-  <si>
     <t>${tax}</t>
   </si>
   <si>
@@ -504,6 +501,24 @@
   </si>
   <si>
     <t>${section5_sumPrice}</t>
+  </si>
+  <si>
+    <t>Накладные и транспортные расходы {section0_relatedExpansesPerc}%</t>
+  </si>
+  <si>
+    <t>Накладные и транспортные расходы {section1_relatedExpansesPerc}%</t>
+  </si>
+  <si>
+    <t>Накладные и транспортные расходы {section2_relatedExpansesPerc}%</t>
+  </si>
+  <si>
+    <t>Накладные и транспортные расходы {section3_relatedExpansesPerc}%</t>
+  </si>
+  <si>
+    <t>Накладные и транспортные расходы {section4_relatedExpansesPerc}%</t>
+  </si>
+  <si>
+    <t>Накладные и транспортные расходы {section5_relatedExpansesPerc}%</t>
   </si>
 </sst>
 </file>
@@ -984,125 +999,76 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1158,70 +1124,119 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1529,8 +1544,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:ZZ69"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="ET56" sqref="ET56:FI56"/>
+    <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
+      <selection activeCell="R60" sqref="R60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="10.199999999999999" x14ac:dyDescent="0.2"/>
@@ -1548,353 +1563,353 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:682" x14ac:dyDescent="0.2">
-      <c r="DB1" s="41" t="s">
+      <c r="DB1" s="105" t="s">
         <v>0</v>
       </c>
-      <c r="DC1" s="41"/>
-      <c r="DD1" s="41"/>
-      <c r="DE1" s="41"/>
-      <c r="DF1" s="41"/>
-      <c r="DG1" s="41"/>
-      <c r="DH1" s="41"/>
-      <c r="DI1" s="41"/>
-      <c r="DJ1" s="41"/>
-      <c r="DK1" s="41"/>
-      <c r="DL1" s="41"/>
-      <c r="DM1" s="41"/>
-      <c r="DN1" s="41"/>
-      <c r="DO1" s="41"/>
-      <c r="DP1" s="41"/>
-      <c r="DQ1" s="41"/>
-      <c r="DR1" s="41"/>
-      <c r="DS1" s="41"/>
-      <c r="DT1" s="41"/>
-      <c r="DU1" s="41"/>
-      <c r="DV1" s="41"/>
-      <c r="DW1" s="41"/>
-      <c r="DX1" s="41"/>
-      <c r="DY1" s="41"/>
-      <c r="DZ1" s="41"/>
-      <c r="EA1" s="41"/>
-      <c r="EB1" s="41"/>
-      <c r="EC1" s="41"/>
-      <c r="ED1" s="41"/>
-      <c r="EE1" s="41"/>
-      <c r="EF1" s="41"/>
-      <c r="EG1" s="41"/>
-      <c r="EH1" s="41"/>
-      <c r="EI1" s="41"/>
-      <c r="EJ1" s="41"/>
-      <c r="EK1" s="41"/>
-      <c r="EL1" s="41"/>
-      <c r="EM1" s="41"/>
-      <c r="EN1" s="41"/>
-      <c r="EO1" s="41"/>
-      <c r="EP1" s="41"/>
-      <c r="EQ1" s="41"/>
-      <c r="ER1" s="41"/>
-      <c r="ES1" s="41"/>
-      <c r="ET1" s="41"/>
-      <c r="EU1" s="41"/>
-      <c r="EV1" s="41"/>
-      <c r="EW1" s="41"/>
-      <c r="EX1" s="41"/>
-      <c r="EY1" s="41"/>
-      <c r="EZ1" s="41"/>
-      <c r="FA1" s="41"/>
-      <c r="FB1" s="41"/>
-      <c r="FC1" s="41"/>
-      <c r="FD1" s="41"/>
-      <c r="FE1" s="41"/>
-      <c r="FF1" s="41"/>
-      <c r="FG1" s="41"/>
-      <c r="FH1" s="41"/>
-      <c r="FI1" s="41"/>
+      <c r="DC1" s="105"/>
+      <c r="DD1" s="105"/>
+      <c r="DE1" s="105"/>
+      <c r="DF1" s="105"/>
+      <c r="DG1" s="105"/>
+      <c r="DH1" s="105"/>
+      <c r="DI1" s="105"/>
+      <c r="DJ1" s="105"/>
+      <c r="DK1" s="105"/>
+      <c r="DL1" s="105"/>
+      <c r="DM1" s="105"/>
+      <c r="DN1" s="105"/>
+      <c r="DO1" s="105"/>
+      <c r="DP1" s="105"/>
+      <c r="DQ1" s="105"/>
+      <c r="DR1" s="105"/>
+      <c r="DS1" s="105"/>
+      <c r="DT1" s="105"/>
+      <c r="DU1" s="105"/>
+      <c r="DV1" s="105"/>
+      <c r="DW1" s="105"/>
+      <c r="DX1" s="105"/>
+      <c r="DY1" s="105"/>
+      <c r="DZ1" s="105"/>
+      <c r="EA1" s="105"/>
+      <c r="EB1" s="105"/>
+      <c r="EC1" s="105"/>
+      <c r="ED1" s="105"/>
+      <c r="EE1" s="105"/>
+      <c r="EF1" s="105"/>
+      <c r="EG1" s="105"/>
+      <c r="EH1" s="105"/>
+      <c r="EI1" s="105"/>
+      <c r="EJ1" s="105"/>
+      <c r="EK1" s="105"/>
+      <c r="EL1" s="105"/>
+      <c r="EM1" s="105"/>
+      <c r="EN1" s="105"/>
+      <c r="EO1" s="105"/>
+      <c r="EP1" s="105"/>
+      <c r="EQ1" s="105"/>
+      <c r="ER1" s="105"/>
+      <c r="ES1" s="105"/>
+      <c r="ET1" s="105"/>
+      <c r="EU1" s="105"/>
+      <c r="EV1" s="105"/>
+      <c r="EW1" s="105"/>
+      <c r="EX1" s="105"/>
+      <c r="EY1" s="105"/>
+      <c r="EZ1" s="105"/>
+      <c r="FA1" s="105"/>
+      <c r="FB1" s="105"/>
+      <c r="FC1" s="105"/>
+      <c r="FD1" s="105"/>
+      <c r="FE1" s="105"/>
+      <c r="FF1" s="105"/>
+      <c r="FG1" s="105"/>
+      <c r="FH1" s="105"/>
+      <c r="FI1" s="105"/>
     </row>
     <row r="2" spans="1:682" x14ac:dyDescent="0.2">
-      <c r="DB2" s="41"/>
-      <c r="DC2" s="41"/>
-      <c r="DD2" s="41"/>
-      <c r="DE2" s="41"/>
-      <c r="DF2" s="41"/>
-      <c r="DG2" s="41"/>
-      <c r="DH2" s="41"/>
-      <c r="DI2" s="41"/>
-      <c r="DJ2" s="41"/>
-      <c r="DK2" s="41"/>
-      <c r="DL2" s="41"/>
-      <c r="DM2" s="41"/>
-      <c r="DN2" s="41"/>
-      <c r="DO2" s="41"/>
-      <c r="DP2" s="41"/>
-      <c r="DQ2" s="41"/>
-      <c r="DR2" s="41"/>
-      <c r="DS2" s="41"/>
-      <c r="DT2" s="41"/>
-      <c r="DU2" s="41"/>
-      <c r="DV2" s="41"/>
-      <c r="DW2" s="41"/>
-      <c r="DX2" s="41"/>
-      <c r="DY2" s="41"/>
-      <c r="DZ2" s="41"/>
-      <c r="EA2" s="41"/>
-      <c r="EB2" s="41"/>
-      <c r="EC2" s="41"/>
-      <c r="ED2" s="41"/>
-      <c r="EE2" s="41"/>
-      <c r="EF2" s="41"/>
-      <c r="EG2" s="41"/>
-      <c r="EH2" s="41"/>
-      <c r="EI2" s="41"/>
-      <c r="EJ2" s="41"/>
-      <c r="EK2" s="41"/>
-      <c r="EL2" s="41"/>
-      <c r="EM2" s="41"/>
-      <c r="EN2" s="41"/>
-      <c r="EO2" s="41"/>
-      <c r="EP2" s="41"/>
-      <c r="EQ2" s="41"/>
-      <c r="ER2" s="41"/>
-      <c r="ES2" s="41"/>
-      <c r="ET2" s="41"/>
-      <c r="EU2" s="41"/>
-      <c r="EV2" s="41"/>
-      <c r="EW2" s="41"/>
-      <c r="EX2" s="41"/>
-      <c r="EY2" s="41"/>
-      <c r="EZ2" s="41"/>
-      <c r="FA2" s="41"/>
-      <c r="FB2" s="41"/>
-      <c r="FC2" s="41"/>
-      <c r="FD2" s="41"/>
-      <c r="FE2" s="41"/>
-      <c r="FF2" s="41"/>
-      <c r="FG2" s="41"/>
-      <c r="FH2" s="41"/>
-      <c r="FI2" s="41"/>
+      <c r="DB2" s="105"/>
+      <c r="DC2" s="105"/>
+      <c r="DD2" s="105"/>
+      <c r="DE2" s="105"/>
+      <c r="DF2" s="105"/>
+      <c r="DG2" s="105"/>
+      <c r="DH2" s="105"/>
+      <c r="DI2" s="105"/>
+      <c r="DJ2" s="105"/>
+      <c r="DK2" s="105"/>
+      <c r="DL2" s="105"/>
+      <c r="DM2" s="105"/>
+      <c r="DN2" s="105"/>
+      <c r="DO2" s="105"/>
+      <c r="DP2" s="105"/>
+      <c r="DQ2" s="105"/>
+      <c r="DR2" s="105"/>
+      <c r="DS2" s="105"/>
+      <c r="DT2" s="105"/>
+      <c r="DU2" s="105"/>
+      <c r="DV2" s="105"/>
+      <c r="DW2" s="105"/>
+      <c r="DX2" s="105"/>
+      <c r="DY2" s="105"/>
+      <c r="DZ2" s="105"/>
+      <c r="EA2" s="105"/>
+      <c r="EB2" s="105"/>
+      <c r="EC2" s="105"/>
+      <c r="ED2" s="105"/>
+      <c r="EE2" s="105"/>
+      <c r="EF2" s="105"/>
+      <c r="EG2" s="105"/>
+      <c r="EH2" s="105"/>
+      <c r="EI2" s="105"/>
+      <c r="EJ2" s="105"/>
+      <c r="EK2" s="105"/>
+      <c r="EL2" s="105"/>
+      <c r="EM2" s="105"/>
+      <c r="EN2" s="105"/>
+      <c r="EO2" s="105"/>
+      <c r="EP2" s="105"/>
+      <c r="EQ2" s="105"/>
+      <c r="ER2" s="105"/>
+      <c r="ES2" s="105"/>
+      <c r="ET2" s="105"/>
+      <c r="EU2" s="105"/>
+      <c r="EV2" s="105"/>
+      <c r="EW2" s="105"/>
+      <c r="EX2" s="105"/>
+      <c r="EY2" s="105"/>
+      <c r="EZ2" s="105"/>
+      <c r="FA2" s="105"/>
+      <c r="FB2" s="105"/>
+      <c r="FC2" s="105"/>
+      <c r="FD2" s="105"/>
+      <c r="FE2" s="105"/>
+      <c r="FF2" s="105"/>
+      <c r="FG2" s="105"/>
+      <c r="FH2" s="105"/>
+      <c r="FI2" s="105"/>
     </row>
     <row r="3" spans="1:682" x14ac:dyDescent="0.2">
-      <c r="EW3" s="42" t="s">
+      <c r="EW3" s="106" t="s">
         <v>1</v>
       </c>
-      <c r="EX3" s="43"/>
-      <c r="EY3" s="43"/>
-      <c r="EZ3" s="43"/>
-      <c r="FA3" s="43"/>
-      <c r="FB3" s="43"/>
-      <c r="FC3" s="43"/>
-      <c r="FD3" s="43"/>
-      <c r="FE3" s="43"/>
-      <c r="FF3" s="43"/>
-      <c r="FG3" s="43"/>
-      <c r="FH3" s="43"/>
-      <c r="FI3" s="44"/>
+      <c r="EX3" s="107"/>
+      <c r="EY3" s="107"/>
+      <c r="EZ3" s="107"/>
+      <c r="FA3" s="107"/>
+      <c r="FB3" s="107"/>
+      <c r="FC3" s="107"/>
+      <c r="FD3" s="107"/>
+      <c r="FE3" s="107"/>
+      <c r="FF3" s="107"/>
+      <c r="FG3" s="107"/>
+      <c r="FH3" s="107"/>
+      <c r="FI3" s="108"/>
     </row>
     <row r="4" spans="1:682" x14ac:dyDescent="0.2">
-      <c r="EG4" s="45" t="s">
+      <c r="EG4" s="39" t="s">
         <v>2</v>
       </c>
-      <c r="EH4" s="45"/>
-      <c r="EI4" s="45"/>
-      <c r="EJ4" s="45"/>
-      <c r="EK4" s="45"/>
-      <c r="EL4" s="45"/>
-      <c r="EM4" s="45"/>
-      <c r="EN4" s="45"/>
-      <c r="EO4" s="45"/>
-      <c r="EP4" s="45"/>
-      <c r="EQ4" s="45"/>
-      <c r="ER4" s="45"/>
-      <c r="ES4" s="45"/>
-      <c r="ET4" s="45"/>
-      <c r="EU4" s="45"/>
-      <c r="EV4" s="45"/>
-      <c r="EW4" s="46" t="s">
+      <c r="EH4" s="39"/>
+      <c r="EI4" s="39"/>
+      <c r="EJ4" s="39"/>
+      <c r="EK4" s="39"/>
+      <c r="EL4" s="39"/>
+      <c r="EM4" s="39"/>
+      <c r="EN4" s="39"/>
+      <c r="EO4" s="39"/>
+      <c r="EP4" s="39"/>
+      <c r="EQ4" s="39"/>
+      <c r="ER4" s="39"/>
+      <c r="ES4" s="39"/>
+      <c r="ET4" s="39"/>
+      <c r="EU4" s="39"/>
+      <c r="EV4" s="39"/>
+      <c r="EW4" s="109" t="s">
         <v>3</v>
       </c>
-      <c r="EX4" s="47"/>
-      <c r="EY4" s="47"/>
-      <c r="EZ4" s="47"/>
-      <c r="FA4" s="47"/>
-      <c r="FB4" s="47"/>
-      <c r="FC4" s="47"/>
-      <c r="FD4" s="47"/>
-      <c r="FE4" s="47"/>
-      <c r="FF4" s="47"/>
-      <c r="FG4" s="47"/>
-      <c r="FH4" s="47"/>
-      <c r="FI4" s="48"/>
+      <c r="EX4" s="44"/>
+      <c r="EY4" s="44"/>
+      <c r="EZ4" s="44"/>
+      <c r="FA4" s="44"/>
+      <c r="FB4" s="44"/>
+      <c r="FC4" s="44"/>
+      <c r="FD4" s="44"/>
+      <c r="FE4" s="44"/>
+      <c r="FF4" s="44"/>
+      <c r="FG4" s="44"/>
+      <c r="FH4" s="44"/>
+      <c r="FI4" s="110"/>
     </row>
     <row r="5" spans="1:682" x14ac:dyDescent="0.2">
-      <c r="A5" s="31" t="s">
+      <c r="A5" s="86" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="31"/>
-      <c r="C5" s="31"/>
-      <c r="D5" s="31"/>
-      <c r="E5" s="31"/>
-      <c r="F5" s="31"/>
-      <c r="G5" s="31"/>
-      <c r="H5" s="31"/>
-      <c r="I5" s="31"/>
-      <c r="J5" s="31"/>
-      <c r="K5" s="49"/>
-      <c r="L5" s="50"/>
-      <c r="M5" s="50"/>
-      <c r="N5" s="50"/>
-      <c r="O5" s="50"/>
-      <c r="P5" s="50"/>
-      <c r="Q5" s="50"/>
-      <c r="R5" s="50"/>
-      <c r="S5" s="50"/>
-      <c r="T5" s="50"/>
-      <c r="U5" s="50"/>
-      <c r="V5" s="50"/>
-      <c r="W5" s="50"/>
-      <c r="X5" s="50"/>
-      <c r="Y5" s="50"/>
-      <c r="Z5" s="50"/>
-      <c r="AA5" s="50"/>
-      <c r="AB5" s="50"/>
-      <c r="AC5" s="50"/>
-      <c r="AD5" s="50"/>
-      <c r="AE5" s="50"/>
-      <c r="AF5" s="50"/>
-      <c r="AG5" s="50"/>
-      <c r="AH5" s="50"/>
-      <c r="AI5" s="50"/>
-      <c r="AJ5" s="50"/>
-      <c r="AK5" s="50"/>
-      <c r="AL5" s="50"/>
-      <c r="AM5" s="50"/>
-      <c r="AN5" s="50"/>
-      <c r="AO5" s="50"/>
-      <c r="AP5" s="50"/>
-      <c r="AQ5" s="50"/>
-      <c r="AR5" s="50"/>
-      <c r="AS5" s="50"/>
-      <c r="AT5" s="50"/>
-      <c r="AU5" s="50"/>
-      <c r="AV5" s="50"/>
-      <c r="AW5" s="50"/>
-      <c r="AX5" s="50"/>
-      <c r="AY5" s="50"/>
-      <c r="AZ5" s="50"/>
-      <c r="BA5" s="50"/>
-      <c r="BB5" s="50"/>
-      <c r="BC5" s="50"/>
-      <c r="BD5" s="50"/>
-      <c r="BE5" s="50"/>
-      <c r="BF5" s="50"/>
-      <c r="BG5" s="50"/>
-      <c r="BH5" s="50"/>
-      <c r="BI5" s="50"/>
-      <c r="BJ5" s="50"/>
-      <c r="BK5" s="50"/>
-      <c r="BL5" s="50"/>
-      <c r="BM5" s="50"/>
-      <c r="BN5" s="50"/>
-      <c r="BO5" s="50"/>
-      <c r="BP5" s="50"/>
-      <c r="BQ5" s="50"/>
-      <c r="BR5" s="50"/>
-      <c r="BS5" s="50"/>
-      <c r="BT5" s="50"/>
-      <c r="BU5" s="50"/>
-      <c r="BV5" s="50"/>
-      <c r="BW5" s="50"/>
-      <c r="BX5" s="50"/>
-      <c r="BY5" s="50"/>
-      <c r="BZ5" s="50"/>
-      <c r="CA5" s="50"/>
-      <c r="CB5" s="50"/>
-      <c r="CC5" s="50"/>
-      <c r="CD5" s="50"/>
-      <c r="CE5" s="50"/>
-      <c r="CF5" s="50"/>
-      <c r="CG5" s="50"/>
-      <c r="CH5" s="50"/>
-      <c r="CI5" s="50"/>
-      <c r="CJ5" s="50"/>
-      <c r="CK5" s="50"/>
-      <c r="CL5" s="50"/>
-      <c r="CM5" s="50"/>
-      <c r="CN5" s="50"/>
-      <c r="CO5" s="50"/>
-      <c r="CP5" s="50"/>
-      <c r="CQ5" s="50"/>
-      <c r="CR5" s="50"/>
-      <c r="CS5" s="50"/>
-      <c r="CT5" s="50"/>
-      <c r="CU5" s="50"/>
-      <c r="CV5" s="50"/>
-      <c r="CW5" s="50"/>
-      <c r="CX5" s="50"/>
-      <c r="CY5" s="50"/>
-      <c r="CZ5" s="50"/>
-      <c r="DA5" s="50"/>
-      <c r="DB5" s="50"/>
-      <c r="DC5" s="50"/>
-      <c r="DD5" s="50"/>
-      <c r="DE5" s="50"/>
-      <c r="DF5" s="50"/>
-      <c r="DG5" s="50"/>
-      <c r="DH5" s="50"/>
-      <c r="DI5" s="50"/>
-      <c r="DJ5" s="50"/>
-      <c r="DK5" s="50"/>
-      <c r="DL5" s="50"/>
-      <c r="DM5" s="50"/>
-      <c r="DN5" s="50"/>
-      <c r="DO5" s="50"/>
-      <c r="DP5" s="50"/>
-      <c r="DQ5" s="50"/>
-      <c r="DR5" s="50"/>
-      <c r="DS5" s="50"/>
-      <c r="DT5" s="50"/>
-      <c r="DU5" s="50"/>
-      <c r="DV5" s="50"/>
-      <c r="DW5" s="50"/>
-      <c r="DX5" s="50"/>
-      <c r="DY5" s="50"/>
-      <c r="DZ5" s="50"/>
-      <c r="EA5" s="50"/>
-      <c r="EB5" s="50"/>
-      <c r="EC5" s="50"/>
-      <c r="ED5" s="50"/>
-      <c r="EE5" s="50"/>
-      <c r="EF5" s="50"/>
-      <c r="EG5" s="50"/>
-      <c r="EH5" s="50"/>
-      <c r="EI5" s="50"/>
-      <c r="EJ5" s="50"/>
-      <c r="EK5" s="50"/>
-      <c r="EL5" s="50"/>
-      <c r="EM5" s="34" t="s">
+      <c r="B5" s="86"/>
+      <c r="C5" s="86"/>
+      <c r="D5" s="86"/>
+      <c r="E5" s="86"/>
+      <c r="F5" s="86"/>
+      <c r="G5" s="86"/>
+      <c r="H5" s="86"/>
+      <c r="I5" s="86"/>
+      <c r="J5" s="86"/>
+      <c r="K5" s="96"/>
+      <c r="L5" s="97"/>
+      <c r="M5" s="97"/>
+      <c r="N5" s="97"/>
+      <c r="O5" s="97"/>
+      <c r="P5" s="97"/>
+      <c r="Q5" s="97"/>
+      <c r="R5" s="97"/>
+      <c r="S5" s="97"/>
+      <c r="T5" s="97"/>
+      <c r="U5" s="97"/>
+      <c r="V5" s="97"/>
+      <c r="W5" s="97"/>
+      <c r="X5" s="97"/>
+      <c r="Y5" s="97"/>
+      <c r="Z5" s="97"/>
+      <c r="AA5" s="97"/>
+      <c r="AB5" s="97"/>
+      <c r="AC5" s="97"/>
+      <c r="AD5" s="97"/>
+      <c r="AE5" s="97"/>
+      <c r="AF5" s="97"/>
+      <c r="AG5" s="97"/>
+      <c r="AH5" s="97"/>
+      <c r="AI5" s="97"/>
+      <c r="AJ5" s="97"/>
+      <c r="AK5" s="97"/>
+      <c r="AL5" s="97"/>
+      <c r="AM5" s="97"/>
+      <c r="AN5" s="97"/>
+      <c r="AO5" s="97"/>
+      <c r="AP5" s="97"/>
+      <c r="AQ5" s="97"/>
+      <c r="AR5" s="97"/>
+      <c r="AS5" s="97"/>
+      <c r="AT5" s="97"/>
+      <c r="AU5" s="97"/>
+      <c r="AV5" s="97"/>
+      <c r="AW5" s="97"/>
+      <c r="AX5" s="97"/>
+      <c r="AY5" s="97"/>
+      <c r="AZ5" s="97"/>
+      <c r="BA5" s="97"/>
+      <c r="BB5" s="97"/>
+      <c r="BC5" s="97"/>
+      <c r="BD5" s="97"/>
+      <c r="BE5" s="97"/>
+      <c r="BF5" s="97"/>
+      <c r="BG5" s="97"/>
+      <c r="BH5" s="97"/>
+      <c r="BI5" s="97"/>
+      <c r="BJ5" s="97"/>
+      <c r="BK5" s="97"/>
+      <c r="BL5" s="97"/>
+      <c r="BM5" s="97"/>
+      <c r="BN5" s="97"/>
+      <c r="BO5" s="97"/>
+      <c r="BP5" s="97"/>
+      <c r="BQ5" s="97"/>
+      <c r="BR5" s="97"/>
+      <c r="BS5" s="97"/>
+      <c r="BT5" s="97"/>
+      <c r="BU5" s="97"/>
+      <c r="BV5" s="97"/>
+      <c r="BW5" s="97"/>
+      <c r="BX5" s="97"/>
+      <c r="BY5" s="97"/>
+      <c r="BZ5" s="97"/>
+      <c r="CA5" s="97"/>
+      <c r="CB5" s="97"/>
+      <c r="CC5" s="97"/>
+      <c r="CD5" s="97"/>
+      <c r="CE5" s="97"/>
+      <c r="CF5" s="97"/>
+      <c r="CG5" s="97"/>
+      <c r="CH5" s="97"/>
+      <c r="CI5" s="97"/>
+      <c r="CJ5" s="97"/>
+      <c r="CK5" s="97"/>
+      <c r="CL5" s="97"/>
+      <c r="CM5" s="97"/>
+      <c r="CN5" s="97"/>
+      <c r="CO5" s="97"/>
+      <c r="CP5" s="97"/>
+      <c r="CQ5" s="97"/>
+      <c r="CR5" s="97"/>
+      <c r="CS5" s="97"/>
+      <c r="CT5" s="97"/>
+      <c r="CU5" s="97"/>
+      <c r="CV5" s="97"/>
+      <c r="CW5" s="97"/>
+      <c r="CX5" s="97"/>
+      <c r="CY5" s="97"/>
+      <c r="CZ5" s="97"/>
+      <c r="DA5" s="97"/>
+      <c r="DB5" s="97"/>
+      <c r="DC5" s="97"/>
+      <c r="DD5" s="97"/>
+      <c r="DE5" s="97"/>
+      <c r="DF5" s="97"/>
+      <c r="DG5" s="97"/>
+      <c r="DH5" s="97"/>
+      <c r="DI5" s="97"/>
+      <c r="DJ5" s="97"/>
+      <c r="DK5" s="97"/>
+      <c r="DL5" s="97"/>
+      <c r="DM5" s="97"/>
+      <c r="DN5" s="97"/>
+      <c r="DO5" s="97"/>
+      <c r="DP5" s="97"/>
+      <c r="DQ5" s="97"/>
+      <c r="DR5" s="97"/>
+      <c r="DS5" s="97"/>
+      <c r="DT5" s="97"/>
+      <c r="DU5" s="97"/>
+      <c r="DV5" s="97"/>
+      <c r="DW5" s="97"/>
+      <c r="DX5" s="97"/>
+      <c r="DY5" s="97"/>
+      <c r="DZ5" s="97"/>
+      <c r="EA5" s="97"/>
+      <c r="EB5" s="97"/>
+      <c r="EC5" s="97"/>
+      <c r="ED5" s="97"/>
+      <c r="EE5" s="97"/>
+      <c r="EF5" s="97"/>
+      <c r="EG5" s="97"/>
+      <c r="EH5" s="97"/>
+      <c r="EI5" s="97"/>
+      <c r="EJ5" s="97"/>
+      <c r="EK5" s="97"/>
+      <c r="EL5" s="97"/>
+      <c r="EM5" s="98" t="s">
         <v>5</v>
       </c>
-      <c r="EN5" s="34"/>
-      <c r="EO5" s="34"/>
-      <c r="EP5" s="34"/>
-      <c r="EQ5" s="34"/>
-      <c r="ER5" s="34"/>
-      <c r="ES5" s="34"/>
-      <c r="ET5" s="34"/>
-      <c r="EU5" s="34"/>
-      <c r="EV5" s="34"/>
-      <c r="EW5" s="51"/>
-      <c r="EX5" s="52"/>
-      <c r="EY5" s="52"/>
-      <c r="EZ5" s="52"/>
-      <c r="FA5" s="52"/>
-      <c r="FB5" s="52"/>
-      <c r="FC5" s="52"/>
-      <c r="FD5" s="52"/>
-      <c r="FE5" s="52"/>
-      <c r="FF5" s="52"/>
-      <c r="FG5" s="52"/>
-      <c r="FH5" s="52"/>
-      <c r="FI5" s="53"/>
+      <c r="EN5" s="98"/>
+      <c r="EO5" s="98"/>
+      <c r="EP5" s="98"/>
+      <c r="EQ5" s="98"/>
+      <c r="ER5" s="98"/>
+      <c r="ES5" s="98"/>
+      <c r="ET5" s="98"/>
+      <c r="EU5" s="98"/>
+      <c r="EV5" s="98"/>
+      <c r="EW5" s="111"/>
+      <c r="EX5" s="93"/>
+      <c r="EY5" s="93"/>
+      <c r="EZ5" s="93"/>
+      <c r="FA5" s="93"/>
+      <c r="FB5" s="93"/>
+      <c r="FC5" s="93"/>
+      <c r="FD5" s="93"/>
+      <c r="FE5" s="93"/>
+      <c r="FF5" s="93"/>
+      <c r="FG5" s="93"/>
+      <c r="FH5" s="93"/>
+      <c r="FI5" s="94"/>
       <c r="ZA5" s="1"/>
     </row>
     <row r="6" spans="1:682" ht="6.9" customHeight="1" x14ac:dyDescent="0.2">
@@ -2042,192 +2057,192 @@
       <c r="EJ6" s="30"/>
       <c r="EK6" s="30"/>
       <c r="EL6" s="30"/>
-      <c r="EW6" s="35"/>
-      <c r="EX6" s="36"/>
-      <c r="EY6" s="36"/>
-      <c r="EZ6" s="36"/>
-      <c r="FA6" s="36"/>
-      <c r="FB6" s="36"/>
-      <c r="FC6" s="36"/>
-      <c r="FD6" s="36"/>
-      <c r="FE6" s="36"/>
-      <c r="FF6" s="36"/>
-      <c r="FG6" s="36"/>
-      <c r="FH6" s="36"/>
-      <c r="FI6" s="37"/>
+      <c r="EW6" s="99"/>
+      <c r="EX6" s="100"/>
+      <c r="EY6" s="100"/>
+      <c r="EZ6" s="100"/>
+      <c r="FA6" s="100"/>
+      <c r="FB6" s="100"/>
+      <c r="FC6" s="100"/>
+      <c r="FD6" s="100"/>
+      <c r="FE6" s="100"/>
+      <c r="FF6" s="100"/>
+      <c r="FG6" s="100"/>
+      <c r="FH6" s="100"/>
+      <c r="FI6" s="101"/>
     </row>
     <row r="7" spans="1:682" x14ac:dyDescent="0.2">
-      <c r="A7" s="31" t="s">
+      <c r="A7" s="86" t="s">
         <v>7</v>
       </c>
-      <c r="B7" s="31"/>
-      <c r="C7" s="31"/>
-      <c r="D7" s="31"/>
-      <c r="E7" s="31"/>
-      <c r="F7" s="31"/>
-      <c r="G7" s="31"/>
-      <c r="H7" s="31"/>
-      <c r="I7" s="31"/>
-      <c r="J7" s="31"/>
-      <c r="K7" s="31"/>
-      <c r="L7" s="31"/>
-      <c r="M7" s="31"/>
-      <c r="N7" s="31"/>
-      <c r="O7" s="31"/>
-      <c r="P7" s="31"/>
-      <c r="Q7" s="31"/>
-      <c r="R7" s="31"/>
-      <c r="S7" s="31"/>
-      <c r="T7" s="31"/>
-      <c r="U7" s="31"/>
-      <c r="V7" s="31"/>
-      <c r="W7" s="31"/>
-      <c r="X7" s="31"/>
-      <c r="Y7" s="32" t="s">
+      <c r="B7" s="86"/>
+      <c r="C7" s="86"/>
+      <c r="D7" s="86"/>
+      <c r="E7" s="86"/>
+      <c r="F7" s="86"/>
+      <c r="G7" s="86"/>
+      <c r="H7" s="86"/>
+      <c r="I7" s="86"/>
+      <c r="J7" s="86"/>
+      <c r="K7" s="86"/>
+      <c r="L7" s="86"/>
+      <c r="M7" s="86"/>
+      <c r="N7" s="86"/>
+      <c r="O7" s="86"/>
+      <c r="P7" s="86"/>
+      <c r="Q7" s="86"/>
+      <c r="R7" s="86"/>
+      <c r="S7" s="86"/>
+      <c r="T7" s="86"/>
+      <c r="U7" s="86"/>
+      <c r="V7" s="86"/>
+      <c r="W7" s="86"/>
+      <c r="X7" s="86"/>
+      <c r="Y7" s="87" t="s">
         <v>58</v>
       </c>
-      <c r="Z7" s="33"/>
-      <c r="AA7" s="33"/>
-      <c r="AB7" s="33"/>
-      <c r="AC7" s="33"/>
-      <c r="AD7" s="33"/>
-      <c r="AE7" s="33"/>
-      <c r="AF7" s="33"/>
-      <c r="AG7" s="33"/>
-      <c r="AH7" s="33"/>
-      <c r="AI7" s="33"/>
-      <c r="AJ7" s="33"/>
-      <c r="AK7" s="33"/>
-      <c r="AL7" s="33"/>
-      <c r="AM7" s="33"/>
-      <c r="AN7" s="33"/>
-      <c r="AO7" s="33"/>
-      <c r="AP7" s="33"/>
-      <c r="AQ7" s="33"/>
-      <c r="AR7" s="33"/>
-      <c r="AS7" s="33"/>
-      <c r="AT7" s="33"/>
-      <c r="AU7" s="33"/>
-      <c r="AV7" s="33"/>
-      <c r="AW7" s="33"/>
-      <c r="AX7" s="33"/>
-      <c r="AY7" s="33"/>
-      <c r="AZ7" s="33"/>
-      <c r="BA7" s="33"/>
-      <c r="BB7" s="33"/>
-      <c r="BC7" s="33"/>
-      <c r="BD7" s="33"/>
-      <c r="BE7" s="33"/>
-      <c r="BF7" s="33"/>
-      <c r="BG7" s="33"/>
-      <c r="BH7" s="33"/>
-      <c r="BI7" s="33"/>
-      <c r="BJ7" s="33"/>
-      <c r="BK7" s="33"/>
-      <c r="BL7" s="33"/>
-      <c r="BM7" s="33"/>
-      <c r="BN7" s="33"/>
-      <c r="BO7" s="33"/>
-      <c r="BP7" s="33"/>
-      <c r="BQ7" s="33"/>
-      <c r="BR7" s="33"/>
-      <c r="BS7" s="33"/>
-      <c r="BT7" s="33"/>
-      <c r="BU7" s="33"/>
-      <c r="BV7" s="33"/>
-      <c r="BW7" s="33"/>
-      <c r="BX7" s="33"/>
-      <c r="BY7" s="33"/>
-      <c r="BZ7" s="33"/>
-      <c r="CA7" s="33"/>
-      <c r="CB7" s="33"/>
-      <c r="CC7" s="33"/>
-      <c r="CD7" s="33"/>
-      <c r="CE7" s="33"/>
-      <c r="CF7" s="33"/>
-      <c r="CG7" s="33"/>
-      <c r="CH7" s="33"/>
-      <c r="CI7" s="33"/>
-      <c r="CJ7" s="33"/>
-      <c r="CK7" s="33"/>
-      <c r="CL7" s="33"/>
-      <c r="CM7" s="33"/>
-      <c r="CN7" s="33"/>
-      <c r="CO7" s="33"/>
-      <c r="CP7" s="33"/>
-      <c r="CQ7" s="33"/>
-      <c r="CR7" s="33"/>
-      <c r="CS7" s="33"/>
-      <c r="CT7" s="33"/>
-      <c r="CU7" s="33"/>
-      <c r="CV7" s="33"/>
-      <c r="CW7" s="33"/>
-      <c r="CX7" s="33"/>
-      <c r="CY7" s="33"/>
-      <c r="CZ7" s="33"/>
-      <c r="DA7" s="33"/>
-      <c r="DB7" s="33"/>
-      <c r="DC7" s="33"/>
-      <c r="DD7" s="33"/>
-      <c r="DE7" s="33"/>
-      <c r="DF7" s="33"/>
-      <c r="DG7" s="33"/>
-      <c r="DH7" s="33"/>
-      <c r="DI7" s="33"/>
-      <c r="DJ7" s="33"/>
-      <c r="DK7" s="33"/>
-      <c r="DL7" s="33"/>
-      <c r="DM7" s="33"/>
-      <c r="DN7" s="33"/>
-      <c r="DO7" s="33"/>
-      <c r="DP7" s="33"/>
-      <c r="DQ7" s="33"/>
-      <c r="DR7" s="33"/>
-      <c r="DS7" s="33"/>
-      <c r="DT7" s="33"/>
-      <c r="DU7" s="33"/>
-      <c r="DV7" s="33"/>
-      <c r="DW7" s="33"/>
-      <c r="DX7" s="33"/>
-      <c r="DY7" s="33"/>
-      <c r="DZ7" s="33"/>
-      <c r="EA7" s="33"/>
-      <c r="EB7" s="33"/>
-      <c r="EC7" s="33"/>
-      <c r="ED7" s="33"/>
-      <c r="EE7" s="33"/>
-      <c r="EF7" s="33"/>
-      <c r="EG7" s="33"/>
-      <c r="EH7" s="33"/>
-      <c r="EI7" s="33"/>
-      <c r="EJ7" s="33"/>
-      <c r="EK7" s="33"/>
-      <c r="EL7" s="33"/>
-      <c r="EM7" s="34" t="s">
+      <c r="Z7" s="88"/>
+      <c r="AA7" s="88"/>
+      <c r="AB7" s="88"/>
+      <c r="AC7" s="88"/>
+      <c r="AD7" s="88"/>
+      <c r="AE7" s="88"/>
+      <c r="AF7" s="88"/>
+      <c r="AG7" s="88"/>
+      <c r="AH7" s="88"/>
+      <c r="AI7" s="88"/>
+      <c r="AJ7" s="88"/>
+      <c r="AK7" s="88"/>
+      <c r="AL7" s="88"/>
+      <c r="AM7" s="88"/>
+      <c r="AN7" s="88"/>
+      <c r="AO7" s="88"/>
+      <c r="AP7" s="88"/>
+      <c r="AQ7" s="88"/>
+      <c r="AR7" s="88"/>
+      <c r="AS7" s="88"/>
+      <c r="AT7" s="88"/>
+      <c r="AU7" s="88"/>
+      <c r="AV7" s="88"/>
+      <c r="AW7" s="88"/>
+      <c r="AX7" s="88"/>
+      <c r="AY7" s="88"/>
+      <c r="AZ7" s="88"/>
+      <c r="BA7" s="88"/>
+      <c r="BB7" s="88"/>
+      <c r="BC7" s="88"/>
+      <c r="BD7" s="88"/>
+      <c r="BE7" s="88"/>
+      <c r="BF7" s="88"/>
+      <c r="BG7" s="88"/>
+      <c r="BH7" s="88"/>
+      <c r="BI7" s="88"/>
+      <c r="BJ7" s="88"/>
+      <c r="BK7" s="88"/>
+      <c r="BL7" s="88"/>
+      <c r="BM7" s="88"/>
+      <c r="BN7" s="88"/>
+      <c r="BO7" s="88"/>
+      <c r="BP7" s="88"/>
+      <c r="BQ7" s="88"/>
+      <c r="BR7" s="88"/>
+      <c r="BS7" s="88"/>
+      <c r="BT7" s="88"/>
+      <c r="BU7" s="88"/>
+      <c r="BV7" s="88"/>
+      <c r="BW7" s="88"/>
+      <c r="BX7" s="88"/>
+      <c r="BY7" s="88"/>
+      <c r="BZ7" s="88"/>
+      <c r="CA7" s="88"/>
+      <c r="CB7" s="88"/>
+      <c r="CC7" s="88"/>
+      <c r="CD7" s="88"/>
+      <c r="CE7" s="88"/>
+      <c r="CF7" s="88"/>
+      <c r="CG7" s="88"/>
+      <c r="CH7" s="88"/>
+      <c r="CI7" s="88"/>
+      <c r="CJ7" s="88"/>
+      <c r="CK7" s="88"/>
+      <c r="CL7" s="88"/>
+      <c r="CM7" s="88"/>
+      <c r="CN7" s="88"/>
+      <c r="CO7" s="88"/>
+      <c r="CP7" s="88"/>
+      <c r="CQ7" s="88"/>
+      <c r="CR7" s="88"/>
+      <c r="CS7" s="88"/>
+      <c r="CT7" s="88"/>
+      <c r="CU7" s="88"/>
+      <c r="CV7" s="88"/>
+      <c r="CW7" s="88"/>
+      <c r="CX7" s="88"/>
+      <c r="CY7" s="88"/>
+      <c r="CZ7" s="88"/>
+      <c r="DA7" s="88"/>
+      <c r="DB7" s="88"/>
+      <c r="DC7" s="88"/>
+      <c r="DD7" s="88"/>
+      <c r="DE7" s="88"/>
+      <c r="DF7" s="88"/>
+      <c r="DG7" s="88"/>
+      <c r="DH7" s="88"/>
+      <c r="DI7" s="88"/>
+      <c r="DJ7" s="88"/>
+      <c r="DK7" s="88"/>
+      <c r="DL7" s="88"/>
+      <c r="DM7" s="88"/>
+      <c r="DN7" s="88"/>
+      <c r="DO7" s="88"/>
+      <c r="DP7" s="88"/>
+      <c r="DQ7" s="88"/>
+      <c r="DR7" s="88"/>
+      <c r="DS7" s="88"/>
+      <c r="DT7" s="88"/>
+      <c r="DU7" s="88"/>
+      <c r="DV7" s="88"/>
+      <c r="DW7" s="88"/>
+      <c r="DX7" s="88"/>
+      <c r="DY7" s="88"/>
+      <c r="DZ7" s="88"/>
+      <c r="EA7" s="88"/>
+      <c r="EB7" s="88"/>
+      <c r="EC7" s="88"/>
+      <c r="ED7" s="88"/>
+      <c r="EE7" s="88"/>
+      <c r="EF7" s="88"/>
+      <c r="EG7" s="88"/>
+      <c r="EH7" s="88"/>
+      <c r="EI7" s="88"/>
+      <c r="EJ7" s="88"/>
+      <c r="EK7" s="88"/>
+      <c r="EL7" s="88"/>
+      <c r="EM7" s="98" t="s">
         <v>5</v>
       </c>
-      <c r="EN7" s="34"/>
-      <c r="EO7" s="34"/>
-      <c r="EP7" s="34"/>
-      <c r="EQ7" s="34"/>
-      <c r="ER7" s="34"/>
-      <c r="ES7" s="34"/>
-      <c r="ET7" s="34"/>
-      <c r="EU7" s="34"/>
-      <c r="EV7" s="34"/>
-      <c r="EW7" s="38"/>
-      <c r="EX7" s="39"/>
-      <c r="EY7" s="39"/>
-      <c r="EZ7" s="39"/>
-      <c r="FA7" s="39"/>
-      <c r="FB7" s="39"/>
-      <c r="FC7" s="39"/>
-      <c r="FD7" s="39"/>
-      <c r="FE7" s="39"/>
-      <c r="FF7" s="39"/>
-      <c r="FG7" s="39"/>
-      <c r="FH7" s="39"/>
-      <c r="FI7" s="40"/>
+      <c r="EN7" s="98"/>
+      <c r="EO7" s="98"/>
+      <c r="EP7" s="98"/>
+      <c r="EQ7" s="98"/>
+      <c r="ER7" s="98"/>
+      <c r="ES7" s="98"/>
+      <c r="ET7" s="98"/>
+      <c r="EU7" s="98"/>
+      <c r="EV7" s="98"/>
+      <c r="EW7" s="102"/>
+      <c r="EX7" s="103"/>
+      <c r="EY7" s="103"/>
+      <c r="EZ7" s="103"/>
+      <c r="FA7" s="103"/>
+      <c r="FB7" s="103"/>
+      <c r="FC7" s="103"/>
+      <c r="FD7" s="103"/>
+      <c r="FE7" s="103"/>
+      <c r="FF7" s="103"/>
+      <c r="FG7" s="103"/>
+      <c r="FH7" s="103"/>
+      <c r="FI7" s="104"/>
       <c r="ZB7" s="1" t="s">
         <v>8</v>
       </c>
@@ -2377,194 +2392,194 @@
       <c r="EJ8" s="30"/>
       <c r="EK8" s="30"/>
       <c r="EL8" s="30"/>
-      <c r="EW8" s="54" t="s">
+      <c r="EW8" s="89" t="s">
         <v>9</v>
       </c>
-      <c r="EX8" s="55"/>
-      <c r="EY8" s="55"/>
-      <c r="EZ8" s="55"/>
-      <c r="FA8" s="55"/>
-      <c r="FB8" s="55"/>
-      <c r="FC8" s="55"/>
-      <c r="FD8" s="55"/>
-      <c r="FE8" s="55"/>
-      <c r="FF8" s="55"/>
-      <c r="FG8" s="55"/>
-      <c r="FH8" s="55"/>
-      <c r="FI8" s="56"/>
+      <c r="EX8" s="90"/>
+      <c r="EY8" s="90"/>
+      <c r="EZ8" s="90"/>
+      <c r="FA8" s="90"/>
+      <c r="FB8" s="90"/>
+      <c r="FC8" s="90"/>
+      <c r="FD8" s="90"/>
+      <c r="FE8" s="90"/>
+      <c r="FF8" s="90"/>
+      <c r="FG8" s="90"/>
+      <c r="FH8" s="90"/>
+      <c r="FI8" s="91"/>
     </row>
     <row r="9" spans="1:682" x14ac:dyDescent="0.2">
-      <c r="A9" s="31" t="s">
+      <c r="A9" s="86" t="s">
         <v>10</v>
       </c>
-      <c r="B9" s="31"/>
-      <c r="C9" s="31"/>
-      <c r="D9" s="31"/>
-      <c r="E9" s="31"/>
-      <c r="F9" s="31"/>
-      <c r="G9" s="31"/>
-      <c r="H9" s="31"/>
-      <c r="I9" s="31"/>
-      <c r="J9" s="31"/>
-      <c r="K9" s="31"/>
-      <c r="L9" s="31"/>
-      <c r="M9" s="31"/>
-      <c r="N9" s="31"/>
-      <c r="O9" s="31"/>
-      <c r="P9" s="31"/>
-      <c r="Q9" s="31"/>
-      <c r="R9" s="31"/>
-      <c r="S9" s="31"/>
-      <c r="T9" s="31"/>
-      <c r="U9" s="31"/>
-      <c r="V9" s="31"/>
-      <c r="W9" s="31"/>
-      <c r="X9" s="31"/>
-      <c r="Y9" s="49" t="s">
+      <c r="B9" s="86"/>
+      <c r="C9" s="86"/>
+      <c r="D9" s="86"/>
+      <c r="E9" s="86"/>
+      <c r="F9" s="86"/>
+      <c r="G9" s="86"/>
+      <c r="H9" s="86"/>
+      <c r="I9" s="86"/>
+      <c r="J9" s="86"/>
+      <c r="K9" s="86"/>
+      <c r="L9" s="86"/>
+      <c r="M9" s="86"/>
+      <c r="N9" s="86"/>
+      <c r="O9" s="86"/>
+      <c r="P9" s="86"/>
+      <c r="Q9" s="86"/>
+      <c r="R9" s="86"/>
+      <c r="S9" s="86"/>
+      <c r="T9" s="86"/>
+      <c r="U9" s="86"/>
+      <c r="V9" s="86"/>
+      <c r="W9" s="86"/>
+      <c r="X9" s="86"/>
+      <c r="Y9" s="96" t="s">
         <v>11</v>
       </c>
-      <c r="Z9" s="50"/>
-      <c r="AA9" s="50"/>
-      <c r="AB9" s="50"/>
-      <c r="AC9" s="50"/>
-      <c r="AD9" s="50"/>
-      <c r="AE9" s="50"/>
-      <c r="AF9" s="50"/>
-      <c r="AG9" s="50"/>
-      <c r="AH9" s="50"/>
-      <c r="AI9" s="50"/>
-      <c r="AJ9" s="50"/>
-      <c r="AK9" s="50"/>
-      <c r="AL9" s="50"/>
-      <c r="AM9" s="50"/>
-      <c r="AN9" s="50"/>
-      <c r="AO9" s="50"/>
-      <c r="AP9" s="50"/>
-      <c r="AQ9" s="50"/>
-      <c r="AR9" s="50"/>
-      <c r="AS9" s="50"/>
-      <c r="AT9" s="50"/>
-      <c r="AU9" s="50"/>
-      <c r="AV9" s="50"/>
-      <c r="AW9" s="50"/>
-      <c r="AX9" s="50"/>
-      <c r="AY9" s="50"/>
-      <c r="AZ9" s="50"/>
-      <c r="BA9" s="50"/>
-      <c r="BB9" s="50"/>
-      <c r="BC9" s="50"/>
-      <c r="BD9" s="50"/>
-      <c r="BE9" s="50"/>
-      <c r="BF9" s="50"/>
-      <c r="BG9" s="50"/>
-      <c r="BH9" s="50"/>
-      <c r="BI9" s="50"/>
-      <c r="BJ9" s="50"/>
-      <c r="BK9" s="50"/>
-      <c r="BL9" s="50"/>
-      <c r="BM9" s="50"/>
-      <c r="BN9" s="50"/>
-      <c r="BO9" s="50"/>
-      <c r="BP9" s="50"/>
-      <c r="BQ9" s="50"/>
-      <c r="BR9" s="50"/>
-      <c r="BS9" s="50"/>
-      <c r="BT9" s="50"/>
-      <c r="BU9" s="50"/>
-      <c r="BV9" s="50"/>
-      <c r="BW9" s="50"/>
-      <c r="BX9" s="50"/>
-      <c r="BY9" s="50"/>
-      <c r="BZ9" s="50"/>
-      <c r="CA9" s="50"/>
-      <c r="CB9" s="50"/>
-      <c r="CC9" s="50"/>
-      <c r="CD9" s="50"/>
-      <c r="CE9" s="50"/>
-      <c r="CF9" s="50"/>
-      <c r="CG9" s="50"/>
-      <c r="CH9" s="50"/>
-      <c r="CI9" s="50"/>
-      <c r="CJ9" s="50"/>
-      <c r="CK9" s="50"/>
-      <c r="CL9" s="50"/>
-      <c r="CM9" s="50"/>
-      <c r="CN9" s="50"/>
-      <c r="CO9" s="50"/>
-      <c r="CP9" s="50"/>
-      <c r="CQ9" s="50"/>
-      <c r="CR9" s="50"/>
-      <c r="CS9" s="50"/>
-      <c r="CT9" s="50"/>
-      <c r="CU9" s="50"/>
-      <c r="CV9" s="50"/>
-      <c r="CW9" s="50"/>
-      <c r="CX9" s="50"/>
-      <c r="CY9" s="50"/>
-      <c r="CZ9" s="50"/>
-      <c r="DA9" s="50"/>
-      <c r="DB9" s="50"/>
-      <c r="DC9" s="50"/>
-      <c r="DD9" s="50"/>
-      <c r="DE9" s="50"/>
-      <c r="DF9" s="50"/>
-      <c r="DG9" s="50"/>
-      <c r="DH9" s="50"/>
-      <c r="DI9" s="50"/>
-      <c r="DJ9" s="50"/>
-      <c r="DK9" s="50"/>
-      <c r="DL9" s="50"/>
-      <c r="DM9" s="50"/>
-      <c r="DN9" s="50"/>
-      <c r="DO9" s="50"/>
-      <c r="DP9" s="50"/>
-      <c r="DQ9" s="50"/>
-      <c r="DR9" s="50"/>
-      <c r="DS9" s="50"/>
-      <c r="DT9" s="50"/>
-      <c r="DU9" s="50"/>
-      <c r="DV9" s="50"/>
-      <c r="DW9" s="50"/>
-      <c r="DX9" s="50"/>
-      <c r="DY9" s="50"/>
-      <c r="DZ9" s="50"/>
-      <c r="EA9" s="50"/>
-      <c r="EB9" s="50"/>
-      <c r="EC9" s="50"/>
-      <c r="ED9" s="50"/>
-      <c r="EE9" s="50"/>
-      <c r="EF9" s="50"/>
-      <c r="EG9" s="50"/>
-      <c r="EH9" s="50"/>
-      <c r="EI9" s="50"/>
-      <c r="EJ9" s="50"/>
-      <c r="EK9" s="50"/>
-      <c r="EL9" s="50"/>
-      <c r="EM9" s="34" t="s">
+      <c r="Z9" s="97"/>
+      <c r="AA9" s="97"/>
+      <c r="AB9" s="97"/>
+      <c r="AC9" s="97"/>
+      <c r="AD9" s="97"/>
+      <c r="AE9" s="97"/>
+      <c r="AF9" s="97"/>
+      <c r="AG9" s="97"/>
+      <c r="AH9" s="97"/>
+      <c r="AI9" s="97"/>
+      <c r="AJ9" s="97"/>
+      <c r="AK9" s="97"/>
+      <c r="AL9" s="97"/>
+      <c r="AM9" s="97"/>
+      <c r="AN9" s="97"/>
+      <c r="AO9" s="97"/>
+      <c r="AP9" s="97"/>
+      <c r="AQ9" s="97"/>
+      <c r="AR9" s="97"/>
+      <c r="AS9" s="97"/>
+      <c r="AT9" s="97"/>
+      <c r="AU9" s="97"/>
+      <c r="AV9" s="97"/>
+      <c r="AW9" s="97"/>
+      <c r="AX9" s="97"/>
+      <c r="AY9" s="97"/>
+      <c r="AZ9" s="97"/>
+      <c r="BA9" s="97"/>
+      <c r="BB9" s="97"/>
+      <c r="BC9" s="97"/>
+      <c r="BD9" s="97"/>
+      <c r="BE9" s="97"/>
+      <c r="BF9" s="97"/>
+      <c r="BG9" s="97"/>
+      <c r="BH9" s="97"/>
+      <c r="BI9" s="97"/>
+      <c r="BJ9" s="97"/>
+      <c r="BK9" s="97"/>
+      <c r="BL9" s="97"/>
+      <c r="BM9" s="97"/>
+      <c r="BN9" s="97"/>
+      <c r="BO9" s="97"/>
+      <c r="BP9" s="97"/>
+      <c r="BQ9" s="97"/>
+      <c r="BR9" s="97"/>
+      <c r="BS9" s="97"/>
+      <c r="BT9" s="97"/>
+      <c r="BU9" s="97"/>
+      <c r="BV9" s="97"/>
+      <c r="BW9" s="97"/>
+      <c r="BX9" s="97"/>
+      <c r="BY9" s="97"/>
+      <c r="BZ9" s="97"/>
+      <c r="CA9" s="97"/>
+      <c r="CB9" s="97"/>
+      <c r="CC9" s="97"/>
+      <c r="CD9" s="97"/>
+      <c r="CE9" s="97"/>
+      <c r="CF9" s="97"/>
+      <c r="CG9" s="97"/>
+      <c r="CH9" s="97"/>
+      <c r="CI9" s="97"/>
+      <c r="CJ9" s="97"/>
+      <c r="CK9" s="97"/>
+      <c r="CL9" s="97"/>
+      <c r="CM9" s="97"/>
+      <c r="CN9" s="97"/>
+      <c r="CO9" s="97"/>
+      <c r="CP9" s="97"/>
+      <c r="CQ9" s="97"/>
+      <c r="CR9" s="97"/>
+      <c r="CS9" s="97"/>
+      <c r="CT9" s="97"/>
+      <c r="CU9" s="97"/>
+      <c r="CV9" s="97"/>
+      <c r="CW9" s="97"/>
+      <c r="CX9" s="97"/>
+      <c r="CY9" s="97"/>
+      <c r="CZ9" s="97"/>
+      <c r="DA9" s="97"/>
+      <c r="DB9" s="97"/>
+      <c r="DC9" s="97"/>
+      <c r="DD9" s="97"/>
+      <c r="DE9" s="97"/>
+      <c r="DF9" s="97"/>
+      <c r="DG9" s="97"/>
+      <c r="DH9" s="97"/>
+      <c r="DI9" s="97"/>
+      <c r="DJ9" s="97"/>
+      <c r="DK9" s="97"/>
+      <c r="DL9" s="97"/>
+      <c r="DM9" s="97"/>
+      <c r="DN9" s="97"/>
+      <c r="DO9" s="97"/>
+      <c r="DP9" s="97"/>
+      <c r="DQ9" s="97"/>
+      <c r="DR9" s="97"/>
+      <c r="DS9" s="97"/>
+      <c r="DT9" s="97"/>
+      <c r="DU9" s="97"/>
+      <c r="DV9" s="97"/>
+      <c r="DW9" s="97"/>
+      <c r="DX9" s="97"/>
+      <c r="DY9" s="97"/>
+      <c r="DZ9" s="97"/>
+      <c r="EA9" s="97"/>
+      <c r="EB9" s="97"/>
+      <c r="EC9" s="97"/>
+      <c r="ED9" s="97"/>
+      <c r="EE9" s="97"/>
+      <c r="EF9" s="97"/>
+      <c r="EG9" s="97"/>
+      <c r="EH9" s="97"/>
+      <c r="EI9" s="97"/>
+      <c r="EJ9" s="97"/>
+      <c r="EK9" s="97"/>
+      <c r="EL9" s="97"/>
+      <c r="EM9" s="98" t="s">
         <v>5</v>
       </c>
-      <c r="EN9" s="34"/>
-      <c r="EO9" s="34"/>
-      <c r="EP9" s="34"/>
-      <c r="EQ9" s="34"/>
-      <c r="ER9" s="34"/>
-      <c r="ES9" s="34"/>
-      <c r="ET9" s="34"/>
-      <c r="EU9" s="34"/>
-      <c r="EV9" s="34"/>
-      <c r="EW9" s="57"/>
-      <c r="EX9" s="52"/>
-      <c r="EY9" s="52"/>
-      <c r="EZ9" s="52"/>
-      <c r="FA9" s="52"/>
-      <c r="FB9" s="52"/>
-      <c r="FC9" s="52"/>
-      <c r="FD9" s="52"/>
-      <c r="FE9" s="52"/>
-      <c r="FF9" s="52"/>
-      <c r="FG9" s="52"/>
-      <c r="FH9" s="52"/>
-      <c r="FI9" s="53"/>
+      <c r="EN9" s="98"/>
+      <c r="EO9" s="98"/>
+      <c r="EP9" s="98"/>
+      <c r="EQ9" s="98"/>
+      <c r="ER9" s="98"/>
+      <c r="ES9" s="98"/>
+      <c r="ET9" s="98"/>
+      <c r="EU9" s="98"/>
+      <c r="EV9" s="98"/>
+      <c r="EW9" s="92"/>
+      <c r="EX9" s="93"/>
+      <c r="EY9" s="93"/>
+      <c r="EZ9" s="93"/>
+      <c r="FA9" s="93"/>
+      <c r="FB9" s="93"/>
+      <c r="FC9" s="93"/>
+      <c r="FD9" s="93"/>
+      <c r="FE9" s="93"/>
+      <c r="FF9" s="93"/>
+      <c r="FG9" s="93"/>
+      <c r="FH9" s="93"/>
+      <c r="FI9" s="94"/>
       <c r="ZC9" s="1" t="s">
         <v>11</v>
       </c>
@@ -2714,1919 +2729,1919 @@
       <c r="EJ10" s="30"/>
       <c r="EK10" s="30"/>
       <c r="EL10" s="30"/>
-      <c r="EW10" s="54"/>
-      <c r="EX10" s="55"/>
-      <c r="EY10" s="55"/>
-      <c r="EZ10" s="55"/>
-      <c r="FA10" s="55"/>
-      <c r="FB10" s="55"/>
-      <c r="FC10" s="55"/>
-      <c r="FD10" s="55"/>
-      <c r="FE10" s="55"/>
-      <c r="FF10" s="55"/>
-      <c r="FG10" s="55"/>
-      <c r="FH10" s="55"/>
-      <c r="FI10" s="56"/>
+      <c r="EW10" s="89"/>
+      <c r="EX10" s="90"/>
+      <c r="EY10" s="90"/>
+      <c r="EZ10" s="90"/>
+      <c r="FA10" s="90"/>
+      <c r="FB10" s="90"/>
+      <c r="FC10" s="90"/>
+      <c r="FD10" s="90"/>
+      <c r="FE10" s="90"/>
+      <c r="FF10" s="90"/>
+      <c r="FG10" s="90"/>
+      <c r="FH10" s="90"/>
+      <c r="FI10" s="91"/>
     </row>
     <row r="11" spans="1:682" x14ac:dyDescent="0.2">
-      <c r="A11" s="31" t="s">
+      <c r="A11" s="86" t="s">
         <v>12</v>
       </c>
-      <c r="B11" s="31"/>
-      <c r="C11" s="31"/>
-      <c r="D11" s="31"/>
-      <c r="E11" s="31"/>
-      <c r="F11" s="31"/>
-      <c r="G11" s="31"/>
-      <c r="H11" s="31"/>
-      <c r="I11" s="31"/>
-      <c r="J11" s="31"/>
-      <c r="K11" s="49"/>
-      <c r="L11" s="50"/>
-      <c r="M11" s="50"/>
-      <c r="N11" s="50"/>
-      <c r="O11" s="50"/>
-      <c r="P11" s="50"/>
-      <c r="Q11" s="50"/>
-      <c r="R11" s="50"/>
-      <c r="S11" s="50"/>
-      <c r="T11" s="50"/>
-      <c r="U11" s="50"/>
-      <c r="V11" s="50"/>
-      <c r="W11" s="50"/>
-      <c r="X11" s="50"/>
-      <c r="Y11" s="50"/>
-      <c r="Z11" s="50"/>
-      <c r="AA11" s="50"/>
-      <c r="AB11" s="50"/>
-      <c r="AC11" s="50"/>
-      <c r="AD11" s="50"/>
-      <c r="AE11" s="50"/>
-      <c r="AF11" s="50"/>
-      <c r="AG11" s="50"/>
-      <c r="AH11" s="50"/>
-      <c r="AI11" s="50"/>
-      <c r="AJ11" s="50"/>
-      <c r="AK11" s="50"/>
-      <c r="AL11" s="50"/>
-      <c r="AM11" s="50"/>
-      <c r="AN11" s="50"/>
-      <c r="AO11" s="50"/>
-      <c r="AP11" s="50"/>
-      <c r="AQ11" s="50"/>
-      <c r="AR11" s="50"/>
-      <c r="AS11" s="50"/>
-      <c r="AT11" s="50"/>
-      <c r="AU11" s="50"/>
-      <c r="AV11" s="50"/>
-      <c r="AW11" s="50"/>
-      <c r="AX11" s="50"/>
-      <c r="AY11" s="50"/>
-      <c r="AZ11" s="50"/>
-      <c r="BA11" s="50"/>
-      <c r="BB11" s="50"/>
-      <c r="BC11" s="50"/>
-      <c r="BD11" s="50"/>
-      <c r="BE11" s="50"/>
-      <c r="BF11" s="50"/>
-      <c r="BG11" s="50"/>
-      <c r="BH11" s="50"/>
-      <c r="BI11" s="50"/>
-      <c r="BJ11" s="50"/>
-      <c r="BK11" s="50"/>
-      <c r="BL11" s="50"/>
-      <c r="BM11" s="50"/>
-      <c r="BN11" s="50"/>
-      <c r="BO11" s="50"/>
-      <c r="BP11" s="50"/>
-      <c r="BQ11" s="50"/>
-      <c r="BR11" s="50"/>
-      <c r="BS11" s="50"/>
-      <c r="BT11" s="50"/>
-      <c r="BU11" s="50"/>
-      <c r="BV11" s="50"/>
-      <c r="BW11" s="50"/>
-      <c r="BX11" s="50"/>
-      <c r="BY11" s="50"/>
-      <c r="BZ11" s="50"/>
-      <c r="CA11" s="50"/>
-      <c r="CB11" s="50"/>
-      <c r="CC11" s="50"/>
-      <c r="CD11" s="50"/>
-      <c r="CE11" s="50"/>
-      <c r="CF11" s="50"/>
-      <c r="CG11" s="50"/>
-      <c r="CH11" s="50"/>
-      <c r="CI11" s="50"/>
-      <c r="CJ11" s="50"/>
-      <c r="CK11" s="50"/>
-      <c r="CL11" s="50"/>
-      <c r="CM11" s="50"/>
-      <c r="CN11" s="50"/>
-      <c r="CO11" s="50"/>
-      <c r="CP11" s="50"/>
-      <c r="CQ11" s="50"/>
-      <c r="CR11" s="50"/>
-      <c r="CS11" s="50"/>
-      <c r="CT11" s="50"/>
-      <c r="CU11" s="50"/>
-      <c r="CV11" s="50"/>
-      <c r="CW11" s="50"/>
-      <c r="CX11" s="50"/>
-      <c r="CY11" s="50"/>
-      <c r="CZ11" s="50"/>
-      <c r="DA11" s="50"/>
-      <c r="DB11" s="50"/>
-      <c r="DC11" s="50"/>
-      <c r="DD11" s="50"/>
-      <c r="DE11" s="50"/>
-      <c r="DF11" s="50"/>
-      <c r="DG11" s="50"/>
-      <c r="DH11" s="50"/>
-      <c r="DI11" s="50"/>
-      <c r="DJ11" s="50"/>
-      <c r="DK11" s="50"/>
-      <c r="DL11" s="50"/>
-      <c r="DM11" s="50"/>
-      <c r="DN11" s="50"/>
-      <c r="DO11" s="50"/>
-      <c r="DP11" s="50"/>
-      <c r="DQ11" s="50"/>
-      <c r="DR11" s="50"/>
-      <c r="DS11" s="50"/>
-      <c r="DT11" s="50"/>
-      <c r="DU11" s="50"/>
-      <c r="DV11" s="50"/>
-      <c r="DW11" s="50"/>
-      <c r="DX11" s="50"/>
-      <c r="DY11" s="50"/>
-      <c r="DZ11" s="50"/>
-      <c r="EA11" s="50"/>
-      <c r="EB11" s="50"/>
-      <c r="EC11" s="50"/>
-      <c r="ED11" s="50"/>
-      <c r="EE11" s="50"/>
-      <c r="EF11" s="50"/>
-      <c r="EG11" s="50"/>
-      <c r="EH11" s="50"/>
-      <c r="EI11" s="50"/>
-      <c r="EJ11" s="50"/>
-      <c r="EK11" s="50"/>
-      <c r="EL11" s="50"/>
-      <c r="EM11" s="50"/>
-      <c r="EN11" s="50"/>
-      <c r="EO11" s="50"/>
-      <c r="EP11" s="50"/>
-      <c r="EQ11" s="50"/>
-      <c r="ER11" s="50"/>
-      <c r="ES11" s="50"/>
-      <c r="ET11" s="50"/>
-      <c r="EU11" s="50"/>
-      <c r="EV11" s="50"/>
-      <c r="EW11" s="57"/>
-      <c r="EX11" s="52"/>
-      <c r="EY11" s="52"/>
-      <c r="EZ11" s="52"/>
-      <c r="FA11" s="52"/>
-      <c r="FB11" s="52"/>
-      <c r="FC11" s="52"/>
-      <c r="FD11" s="52"/>
-      <c r="FE11" s="52"/>
-      <c r="FF11" s="52"/>
-      <c r="FG11" s="52"/>
-      <c r="FH11" s="52"/>
-      <c r="FI11" s="53"/>
+      <c r="B11" s="86"/>
+      <c r="C11" s="86"/>
+      <c r="D11" s="86"/>
+      <c r="E11" s="86"/>
+      <c r="F11" s="86"/>
+      <c r="G11" s="86"/>
+      <c r="H11" s="86"/>
+      <c r="I11" s="86"/>
+      <c r="J11" s="86"/>
+      <c r="K11" s="96"/>
+      <c r="L11" s="97"/>
+      <c r="M11" s="97"/>
+      <c r="N11" s="97"/>
+      <c r="O11" s="97"/>
+      <c r="P11" s="97"/>
+      <c r="Q11" s="97"/>
+      <c r="R11" s="97"/>
+      <c r="S11" s="97"/>
+      <c r="T11" s="97"/>
+      <c r="U11" s="97"/>
+      <c r="V11" s="97"/>
+      <c r="W11" s="97"/>
+      <c r="X11" s="97"/>
+      <c r="Y11" s="97"/>
+      <c r="Z11" s="97"/>
+      <c r="AA11" s="97"/>
+      <c r="AB11" s="97"/>
+      <c r="AC11" s="97"/>
+      <c r="AD11" s="97"/>
+      <c r="AE11" s="97"/>
+      <c r="AF11" s="97"/>
+      <c r="AG11" s="97"/>
+      <c r="AH11" s="97"/>
+      <c r="AI11" s="97"/>
+      <c r="AJ11" s="97"/>
+      <c r="AK11" s="97"/>
+      <c r="AL11" s="97"/>
+      <c r="AM11" s="97"/>
+      <c r="AN11" s="97"/>
+      <c r="AO11" s="97"/>
+      <c r="AP11" s="97"/>
+      <c r="AQ11" s="97"/>
+      <c r="AR11" s="97"/>
+      <c r="AS11" s="97"/>
+      <c r="AT11" s="97"/>
+      <c r="AU11" s="97"/>
+      <c r="AV11" s="97"/>
+      <c r="AW11" s="97"/>
+      <c r="AX11" s="97"/>
+      <c r="AY11" s="97"/>
+      <c r="AZ11" s="97"/>
+      <c r="BA11" s="97"/>
+      <c r="BB11" s="97"/>
+      <c r="BC11" s="97"/>
+      <c r="BD11" s="97"/>
+      <c r="BE11" s="97"/>
+      <c r="BF11" s="97"/>
+      <c r="BG11" s="97"/>
+      <c r="BH11" s="97"/>
+      <c r="BI11" s="97"/>
+      <c r="BJ11" s="97"/>
+      <c r="BK11" s="97"/>
+      <c r="BL11" s="97"/>
+      <c r="BM11" s="97"/>
+      <c r="BN11" s="97"/>
+      <c r="BO11" s="97"/>
+      <c r="BP11" s="97"/>
+      <c r="BQ11" s="97"/>
+      <c r="BR11" s="97"/>
+      <c r="BS11" s="97"/>
+      <c r="BT11" s="97"/>
+      <c r="BU11" s="97"/>
+      <c r="BV11" s="97"/>
+      <c r="BW11" s="97"/>
+      <c r="BX11" s="97"/>
+      <c r="BY11" s="97"/>
+      <c r="BZ11" s="97"/>
+      <c r="CA11" s="97"/>
+      <c r="CB11" s="97"/>
+      <c r="CC11" s="97"/>
+      <c r="CD11" s="97"/>
+      <c r="CE11" s="97"/>
+      <c r="CF11" s="97"/>
+      <c r="CG11" s="97"/>
+      <c r="CH11" s="97"/>
+      <c r="CI11" s="97"/>
+      <c r="CJ11" s="97"/>
+      <c r="CK11" s="97"/>
+      <c r="CL11" s="97"/>
+      <c r="CM11" s="97"/>
+      <c r="CN11" s="97"/>
+      <c r="CO11" s="97"/>
+      <c r="CP11" s="97"/>
+      <c r="CQ11" s="97"/>
+      <c r="CR11" s="97"/>
+      <c r="CS11" s="97"/>
+      <c r="CT11" s="97"/>
+      <c r="CU11" s="97"/>
+      <c r="CV11" s="97"/>
+      <c r="CW11" s="97"/>
+      <c r="CX11" s="97"/>
+      <c r="CY11" s="97"/>
+      <c r="CZ11" s="97"/>
+      <c r="DA11" s="97"/>
+      <c r="DB11" s="97"/>
+      <c r="DC11" s="97"/>
+      <c r="DD11" s="97"/>
+      <c r="DE11" s="97"/>
+      <c r="DF11" s="97"/>
+      <c r="DG11" s="97"/>
+      <c r="DH11" s="97"/>
+      <c r="DI11" s="97"/>
+      <c r="DJ11" s="97"/>
+      <c r="DK11" s="97"/>
+      <c r="DL11" s="97"/>
+      <c r="DM11" s="97"/>
+      <c r="DN11" s="97"/>
+      <c r="DO11" s="97"/>
+      <c r="DP11" s="97"/>
+      <c r="DQ11" s="97"/>
+      <c r="DR11" s="97"/>
+      <c r="DS11" s="97"/>
+      <c r="DT11" s="97"/>
+      <c r="DU11" s="97"/>
+      <c r="DV11" s="97"/>
+      <c r="DW11" s="97"/>
+      <c r="DX11" s="97"/>
+      <c r="DY11" s="97"/>
+      <c r="DZ11" s="97"/>
+      <c r="EA11" s="97"/>
+      <c r="EB11" s="97"/>
+      <c r="EC11" s="97"/>
+      <c r="ED11" s="97"/>
+      <c r="EE11" s="97"/>
+      <c r="EF11" s="97"/>
+      <c r="EG11" s="97"/>
+      <c r="EH11" s="97"/>
+      <c r="EI11" s="97"/>
+      <c r="EJ11" s="97"/>
+      <c r="EK11" s="97"/>
+      <c r="EL11" s="97"/>
+      <c r="EM11" s="97"/>
+      <c r="EN11" s="97"/>
+      <c r="EO11" s="97"/>
+      <c r="EP11" s="97"/>
+      <c r="EQ11" s="97"/>
+      <c r="ER11" s="97"/>
+      <c r="ES11" s="97"/>
+      <c r="ET11" s="97"/>
+      <c r="EU11" s="97"/>
+      <c r="EV11" s="97"/>
+      <c r="EW11" s="92"/>
+      <c r="EX11" s="93"/>
+      <c r="EY11" s="93"/>
+      <c r="EZ11" s="93"/>
+      <c r="FA11" s="93"/>
+      <c r="FB11" s="93"/>
+      <c r="FC11" s="93"/>
+      <c r="FD11" s="93"/>
+      <c r="FE11" s="93"/>
+      <c r="FF11" s="93"/>
+      <c r="FG11" s="93"/>
+      <c r="FH11" s="93"/>
+      <c r="FI11" s="94"/>
       <c r="ZD11" s="1"/>
     </row>
     <row r="12" spans="1:682" ht="6.9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="58" t="s">
+      <c r="A12" s="95" t="s">
         <v>13</v>
       </c>
-      <c r="B12" s="58"/>
-      <c r="C12" s="58"/>
-      <c r="D12" s="58"/>
-      <c r="E12" s="58"/>
-      <c r="F12" s="58"/>
-      <c r="G12" s="58"/>
-      <c r="H12" s="58"/>
-      <c r="I12" s="58"/>
-      <c r="J12" s="58"/>
-      <c r="K12" s="58"/>
-      <c r="L12" s="58"/>
-      <c r="M12" s="58"/>
-      <c r="N12" s="58"/>
-      <c r="O12" s="58"/>
-      <c r="P12" s="58"/>
-      <c r="Q12" s="58"/>
-      <c r="R12" s="58"/>
-      <c r="S12" s="58"/>
-      <c r="T12" s="58"/>
-      <c r="U12" s="58"/>
-      <c r="V12" s="58"/>
-      <c r="W12" s="58"/>
-      <c r="X12" s="58"/>
-      <c r="Y12" s="58"/>
-      <c r="Z12" s="58"/>
-      <c r="AA12" s="58"/>
-      <c r="AB12" s="58"/>
-      <c r="AC12" s="58"/>
-      <c r="AD12" s="58"/>
-      <c r="AE12" s="58"/>
-      <c r="AF12" s="58"/>
-      <c r="AG12" s="58"/>
-      <c r="AH12" s="58"/>
-      <c r="AI12" s="58"/>
-      <c r="AJ12" s="58"/>
-      <c r="AK12" s="58"/>
-      <c r="AL12" s="58"/>
-      <c r="AM12" s="58"/>
-      <c r="AN12" s="58"/>
-      <c r="AO12" s="58"/>
-      <c r="AP12" s="58"/>
-      <c r="AQ12" s="58"/>
-      <c r="AR12" s="58"/>
-      <c r="AS12" s="58"/>
-      <c r="AT12" s="58"/>
-      <c r="AU12" s="58"/>
-      <c r="AV12" s="58"/>
-      <c r="AW12" s="58"/>
-      <c r="AX12" s="58"/>
-      <c r="AY12" s="58"/>
-      <c r="AZ12" s="58"/>
-      <c r="BA12" s="58"/>
-      <c r="BB12" s="58"/>
-      <c r="BC12" s="58"/>
-      <c r="BD12" s="58"/>
-      <c r="BE12" s="58"/>
-      <c r="BF12" s="58"/>
-      <c r="BG12" s="58"/>
-      <c r="BH12" s="58"/>
-      <c r="BI12" s="58"/>
-      <c r="BJ12" s="58"/>
-      <c r="BK12" s="58"/>
-      <c r="BL12" s="58"/>
-      <c r="BM12" s="58"/>
-      <c r="BN12" s="58"/>
-      <c r="BO12" s="58"/>
-      <c r="BP12" s="58"/>
-      <c r="BQ12" s="58"/>
-      <c r="BR12" s="58"/>
-      <c r="BS12" s="58"/>
-      <c r="BT12" s="58"/>
-      <c r="BU12" s="58"/>
-      <c r="BV12" s="58"/>
-      <c r="BW12" s="58"/>
-      <c r="BX12" s="58"/>
-      <c r="EW12" s="54"/>
-      <c r="EX12" s="55"/>
-      <c r="EY12" s="55"/>
-      <c r="EZ12" s="55"/>
-      <c r="FA12" s="55"/>
-      <c r="FB12" s="55"/>
-      <c r="FC12" s="55"/>
-      <c r="FD12" s="55"/>
-      <c r="FE12" s="55"/>
-      <c r="FF12" s="55"/>
-      <c r="FG12" s="55"/>
-      <c r="FH12" s="55"/>
-      <c r="FI12" s="56"/>
+      <c r="B12" s="95"/>
+      <c r="C12" s="95"/>
+      <c r="D12" s="95"/>
+      <c r="E12" s="95"/>
+      <c r="F12" s="95"/>
+      <c r="G12" s="95"/>
+      <c r="H12" s="95"/>
+      <c r="I12" s="95"/>
+      <c r="J12" s="95"/>
+      <c r="K12" s="95"/>
+      <c r="L12" s="95"/>
+      <c r="M12" s="95"/>
+      <c r="N12" s="95"/>
+      <c r="O12" s="95"/>
+      <c r="P12" s="95"/>
+      <c r="Q12" s="95"/>
+      <c r="R12" s="95"/>
+      <c r="S12" s="95"/>
+      <c r="T12" s="95"/>
+      <c r="U12" s="95"/>
+      <c r="V12" s="95"/>
+      <c r="W12" s="95"/>
+      <c r="X12" s="95"/>
+      <c r="Y12" s="95"/>
+      <c r="Z12" s="95"/>
+      <c r="AA12" s="95"/>
+      <c r="AB12" s="95"/>
+      <c r="AC12" s="95"/>
+      <c r="AD12" s="95"/>
+      <c r="AE12" s="95"/>
+      <c r="AF12" s="95"/>
+      <c r="AG12" s="95"/>
+      <c r="AH12" s="95"/>
+      <c r="AI12" s="95"/>
+      <c r="AJ12" s="95"/>
+      <c r="AK12" s="95"/>
+      <c r="AL12" s="95"/>
+      <c r="AM12" s="95"/>
+      <c r="AN12" s="95"/>
+      <c r="AO12" s="95"/>
+      <c r="AP12" s="95"/>
+      <c r="AQ12" s="95"/>
+      <c r="AR12" s="95"/>
+      <c r="AS12" s="95"/>
+      <c r="AT12" s="95"/>
+      <c r="AU12" s="95"/>
+      <c r="AV12" s="95"/>
+      <c r="AW12" s="95"/>
+      <c r="AX12" s="95"/>
+      <c r="AY12" s="95"/>
+      <c r="AZ12" s="95"/>
+      <c r="BA12" s="95"/>
+      <c r="BB12" s="95"/>
+      <c r="BC12" s="95"/>
+      <c r="BD12" s="95"/>
+      <c r="BE12" s="95"/>
+      <c r="BF12" s="95"/>
+      <c r="BG12" s="95"/>
+      <c r="BH12" s="95"/>
+      <c r="BI12" s="95"/>
+      <c r="BJ12" s="95"/>
+      <c r="BK12" s="95"/>
+      <c r="BL12" s="95"/>
+      <c r="BM12" s="95"/>
+      <c r="BN12" s="95"/>
+      <c r="BO12" s="95"/>
+      <c r="BP12" s="95"/>
+      <c r="BQ12" s="95"/>
+      <c r="BR12" s="95"/>
+      <c r="BS12" s="95"/>
+      <c r="BT12" s="95"/>
+      <c r="BU12" s="95"/>
+      <c r="BV12" s="95"/>
+      <c r="BW12" s="95"/>
+      <c r="BX12" s="95"/>
+      <c r="EW12" s="89"/>
+      <c r="EX12" s="90"/>
+      <c r="EY12" s="90"/>
+      <c r="EZ12" s="90"/>
+      <c r="FA12" s="90"/>
+      <c r="FB12" s="90"/>
+      <c r="FC12" s="90"/>
+      <c r="FD12" s="90"/>
+      <c r="FE12" s="90"/>
+      <c r="FF12" s="90"/>
+      <c r="FG12" s="90"/>
+      <c r="FH12" s="90"/>
+      <c r="FI12" s="91"/>
     </row>
     <row r="13" spans="1:682" x14ac:dyDescent="0.2">
-      <c r="A13" s="31" t="s">
+      <c r="A13" s="86" t="s">
         <v>14</v>
       </c>
-      <c r="B13" s="31"/>
-      <c r="C13" s="31"/>
-      <c r="D13" s="31"/>
-      <c r="E13" s="31"/>
-      <c r="F13" s="31"/>
-      <c r="G13" s="31"/>
-      <c r="H13" s="31"/>
-      <c r="I13" s="31"/>
-      <c r="J13" s="31"/>
-      <c r="K13" s="32" t="s">
+      <c r="B13" s="86"/>
+      <c r="C13" s="86"/>
+      <c r="D13" s="86"/>
+      <c r="E13" s="86"/>
+      <c r="F13" s="86"/>
+      <c r="G13" s="86"/>
+      <c r="H13" s="86"/>
+      <c r="I13" s="86"/>
+      <c r="J13" s="86"/>
+      <c r="K13" s="87" t="s">
         <v>59</v>
       </c>
-      <c r="L13" s="33"/>
-      <c r="M13" s="33"/>
-      <c r="N13" s="33"/>
-      <c r="O13" s="33"/>
-      <c r="P13" s="33"/>
-      <c r="Q13" s="33"/>
-      <c r="R13" s="33"/>
-      <c r="S13" s="33"/>
-      <c r="T13" s="33"/>
-      <c r="U13" s="33"/>
-      <c r="V13" s="33"/>
-      <c r="W13" s="33"/>
-      <c r="X13" s="33"/>
-      <c r="Y13" s="33"/>
-      <c r="Z13" s="33"/>
-      <c r="AA13" s="33"/>
-      <c r="AB13" s="33"/>
-      <c r="AC13" s="33"/>
-      <c r="AD13" s="33"/>
-      <c r="AE13" s="33"/>
-      <c r="AF13" s="33"/>
-      <c r="AG13" s="33"/>
-      <c r="AH13" s="33"/>
-      <c r="AI13" s="33"/>
-      <c r="AJ13" s="33"/>
-      <c r="AK13" s="33"/>
-      <c r="AL13" s="33"/>
-      <c r="AM13" s="33"/>
-      <c r="AN13" s="33"/>
-      <c r="AO13" s="33"/>
-      <c r="AP13" s="33"/>
-      <c r="AQ13" s="33"/>
-      <c r="AR13" s="33"/>
-      <c r="AS13" s="33"/>
-      <c r="AT13" s="33"/>
-      <c r="AU13" s="33"/>
-      <c r="AV13" s="33"/>
-      <c r="AW13" s="33"/>
-      <c r="AX13" s="33"/>
-      <c r="AY13" s="33"/>
-      <c r="AZ13" s="33"/>
-      <c r="BA13" s="33"/>
-      <c r="BB13" s="33"/>
-      <c r="BC13" s="33"/>
-      <c r="BD13" s="33"/>
-      <c r="BE13" s="33"/>
-      <c r="BF13" s="33"/>
-      <c r="BG13" s="33"/>
-      <c r="BH13" s="33"/>
-      <c r="BI13" s="33"/>
-      <c r="BJ13" s="33"/>
-      <c r="BK13" s="33"/>
-      <c r="BL13" s="33"/>
-      <c r="BM13" s="33"/>
-      <c r="BN13" s="33"/>
-      <c r="BO13" s="33"/>
-      <c r="BP13" s="33"/>
-      <c r="BQ13" s="33"/>
-      <c r="BR13" s="33"/>
-      <c r="BS13" s="33"/>
-      <c r="BT13" s="33"/>
-      <c r="BU13" s="33"/>
-      <c r="BV13" s="33"/>
-      <c r="BW13" s="33"/>
-      <c r="BX13" s="33"/>
-      <c r="BY13" s="33"/>
-      <c r="BZ13" s="33"/>
-      <c r="CA13" s="33"/>
-      <c r="CB13" s="33"/>
-      <c r="CC13" s="33"/>
-      <c r="CD13" s="33"/>
-      <c r="CE13" s="33"/>
-      <c r="CF13" s="33"/>
-      <c r="CG13" s="33"/>
-      <c r="CH13" s="33"/>
-      <c r="CI13" s="33"/>
-      <c r="CJ13" s="33"/>
-      <c r="CK13" s="33"/>
-      <c r="CL13" s="33"/>
-      <c r="CM13" s="33"/>
-      <c r="CN13" s="33"/>
-      <c r="CO13" s="33"/>
-      <c r="CP13" s="33"/>
-      <c r="CQ13" s="33"/>
-      <c r="CR13" s="33"/>
-      <c r="CS13" s="33"/>
-      <c r="CT13" s="33"/>
-      <c r="CU13" s="33"/>
-      <c r="CV13" s="33"/>
-      <c r="CW13" s="33"/>
-      <c r="CX13" s="33"/>
-      <c r="CY13" s="33"/>
-      <c r="CZ13" s="33"/>
-      <c r="DA13" s="33"/>
-      <c r="DB13" s="33"/>
-      <c r="DC13" s="33"/>
-      <c r="DD13" s="33"/>
-      <c r="DE13" s="33"/>
-      <c r="DF13" s="33"/>
-      <c r="DG13" s="33"/>
-      <c r="DH13" s="33"/>
-      <c r="DI13" s="33"/>
-      <c r="DJ13" s="33"/>
-      <c r="DK13" s="33"/>
-      <c r="DL13" s="33"/>
-      <c r="DM13" s="33"/>
-      <c r="DN13" s="33"/>
-      <c r="DO13" s="33"/>
-      <c r="DP13" s="33"/>
-      <c r="DQ13" s="33"/>
-      <c r="DR13" s="33"/>
-      <c r="DS13" s="33"/>
-      <c r="DT13" s="33"/>
-      <c r="DU13" s="33"/>
-      <c r="DV13" s="33"/>
-      <c r="DW13" s="33"/>
-      <c r="DX13" s="33"/>
-      <c r="DY13" s="33"/>
-      <c r="DZ13" s="33"/>
-      <c r="EA13" s="33"/>
-      <c r="EB13" s="33"/>
-      <c r="EC13" s="33"/>
-      <c r="ED13" s="33"/>
-      <c r="EE13" s="33"/>
-      <c r="EF13" s="33"/>
-      <c r="EG13" s="33"/>
-      <c r="EH13" s="33"/>
-      <c r="EI13" s="33"/>
-      <c r="EJ13" s="33"/>
-      <c r="EK13" s="33"/>
-      <c r="EL13" s="33"/>
-      <c r="EM13" s="33"/>
-      <c r="EN13" s="33"/>
-      <c r="EO13" s="33"/>
-      <c r="EP13" s="33"/>
-      <c r="EQ13" s="33"/>
-      <c r="ER13" s="33"/>
-      <c r="ES13" s="33"/>
-      <c r="ET13" s="33"/>
-      <c r="EU13" s="33"/>
-      <c r="EV13" s="33"/>
-      <c r="EW13" s="57"/>
-      <c r="EX13" s="52"/>
-      <c r="EY13" s="52"/>
-      <c r="EZ13" s="52"/>
-      <c r="FA13" s="52"/>
-      <c r="FB13" s="52"/>
-      <c r="FC13" s="52"/>
-      <c r="FD13" s="52"/>
-      <c r="FE13" s="52"/>
-      <c r="FF13" s="52"/>
-      <c r="FG13" s="52"/>
-      <c r="FH13" s="52"/>
-      <c r="FI13" s="53"/>
+      <c r="L13" s="88"/>
+      <c r="M13" s="88"/>
+      <c r="N13" s="88"/>
+      <c r="O13" s="88"/>
+      <c r="P13" s="88"/>
+      <c r="Q13" s="88"/>
+      <c r="R13" s="88"/>
+      <c r="S13" s="88"/>
+      <c r="T13" s="88"/>
+      <c r="U13" s="88"/>
+      <c r="V13" s="88"/>
+      <c r="W13" s="88"/>
+      <c r="X13" s="88"/>
+      <c r="Y13" s="88"/>
+      <c r="Z13" s="88"/>
+      <c r="AA13" s="88"/>
+      <c r="AB13" s="88"/>
+      <c r="AC13" s="88"/>
+      <c r="AD13" s="88"/>
+      <c r="AE13" s="88"/>
+      <c r="AF13" s="88"/>
+      <c r="AG13" s="88"/>
+      <c r="AH13" s="88"/>
+      <c r="AI13" s="88"/>
+      <c r="AJ13" s="88"/>
+      <c r="AK13" s="88"/>
+      <c r="AL13" s="88"/>
+      <c r="AM13" s="88"/>
+      <c r="AN13" s="88"/>
+      <c r="AO13" s="88"/>
+      <c r="AP13" s="88"/>
+      <c r="AQ13" s="88"/>
+      <c r="AR13" s="88"/>
+      <c r="AS13" s="88"/>
+      <c r="AT13" s="88"/>
+      <c r="AU13" s="88"/>
+      <c r="AV13" s="88"/>
+      <c r="AW13" s="88"/>
+      <c r="AX13" s="88"/>
+      <c r="AY13" s="88"/>
+      <c r="AZ13" s="88"/>
+      <c r="BA13" s="88"/>
+      <c r="BB13" s="88"/>
+      <c r="BC13" s="88"/>
+      <c r="BD13" s="88"/>
+      <c r="BE13" s="88"/>
+      <c r="BF13" s="88"/>
+      <c r="BG13" s="88"/>
+      <c r="BH13" s="88"/>
+      <c r="BI13" s="88"/>
+      <c r="BJ13" s="88"/>
+      <c r="BK13" s="88"/>
+      <c r="BL13" s="88"/>
+      <c r="BM13" s="88"/>
+      <c r="BN13" s="88"/>
+      <c r="BO13" s="88"/>
+      <c r="BP13" s="88"/>
+      <c r="BQ13" s="88"/>
+      <c r="BR13" s="88"/>
+      <c r="BS13" s="88"/>
+      <c r="BT13" s="88"/>
+      <c r="BU13" s="88"/>
+      <c r="BV13" s="88"/>
+      <c r="BW13" s="88"/>
+      <c r="BX13" s="88"/>
+      <c r="BY13" s="88"/>
+      <c r="BZ13" s="88"/>
+      <c r="CA13" s="88"/>
+      <c r="CB13" s="88"/>
+      <c r="CC13" s="88"/>
+      <c r="CD13" s="88"/>
+      <c r="CE13" s="88"/>
+      <c r="CF13" s="88"/>
+      <c r="CG13" s="88"/>
+      <c r="CH13" s="88"/>
+      <c r="CI13" s="88"/>
+      <c r="CJ13" s="88"/>
+      <c r="CK13" s="88"/>
+      <c r="CL13" s="88"/>
+      <c r="CM13" s="88"/>
+      <c r="CN13" s="88"/>
+      <c r="CO13" s="88"/>
+      <c r="CP13" s="88"/>
+      <c r="CQ13" s="88"/>
+      <c r="CR13" s="88"/>
+      <c r="CS13" s="88"/>
+      <c r="CT13" s="88"/>
+      <c r="CU13" s="88"/>
+      <c r="CV13" s="88"/>
+      <c r="CW13" s="88"/>
+      <c r="CX13" s="88"/>
+      <c r="CY13" s="88"/>
+      <c r="CZ13" s="88"/>
+      <c r="DA13" s="88"/>
+      <c r="DB13" s="88"/>
+      <c r="DC13" s="88"/>
+      <c r="DD13" s="88"/>
+      <c r="DE13" s="88"/>
+      <c r="DF13" s="88"/>
+      <c r="DG13" s="88"/>
+      <c r="DH13" s="88"/>
+      <c r="DI13" s="88"/>
+      <c r="DJ13" s="88"/>
+      <c r="DK13" s="88"/>
+      <c r="DL13" s="88"/>
+      <c r="DM13" s="88"/>
+      <c r="DN13" s="88"/>
+      <c r="DO13" s="88"/>
+      <c r="DP13" s="88"/>
+      <c r="DQ13" s="88"/>
+      <c r="DR13" s="88"/>
+      <c r="DS13" s="88"/>
+      <c r="DT13" s="88"/>
+      <c r="DU13" s="88"/>
+      <c r="DV13" s="88"/>
+      <c r="DW13" s="88"/>
+      <c r="DX13" s="88"/>
+      <c r="DY13" s="88"/>
+      <c r="DZ13" s="88"/>
+      <c r="EA13" s="88"/>
+      <c r="EB13" s="88"/>
+      <c r="EC13" s="88"/>
+      <c r="ED13" s="88"/>
+      <c r="EE13" s="88"/>
+      <c r="EF13" s="88"/>
+      <c r="EG13" s="88"/>
+      <c r="EH13" s="88"/>
+      <c r="EI13" s="88"/>
+      <c r="EJ13" s="88"/>
+      <c r="EK13" s="88"/>
+      <c r="EL13" s="88"/>
+      <c r="EM13" s="88"/>
+      <c r="EN13" s="88"/>
+      <c r="EO13" s="88"/>
+      <c r="EP13" s="88"/>
+      <c r="EQ13" s="88"/>
+      <c r="ER13" s="88"/>
+      <c r="ES13" s="88"/>
+      <c r="ET13" s="88"/>
+      <c r="EU13" s="88"/>
+      <c r="EV13" s="88"/>
+      <c r="EW13" s="92"/>
+      <c r="EX13" s="93"/>
+      <c r="EY13" s="93"/>
+      <c r="EZ13" s="93"/>
+      <c r="FA13" s="93"/>
+      <c r="FB13" s="93"/>
+      <c r="FC13" s="93"/>
+      <c r="FD13" s="93"/>
+      <c r="FE13" s="93"/>
+      <c r="FF13" s="93"/>
+      <c r="FG13" s="93"/>
+      <c r="FH13" s="93"/>
+      <c r="FI13" s="94"/>
       <c r="ZE13" s="1" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="14" spans="1:682" ht="6.9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="58" t="s">
+      <c r="A14" s="95" t="s">
         <v>16</v>
       </c>
-      <c r="B14" s="58"/>
-      <c r="C14" s="58"/>
-      <c r="D14" s="58"/>
-      <c r="E14" s="58"/>
-      <c r="F14" s="58"/>
-      <c r="G14" s="58"/>
-      <c r="H14" s="58"/>
-      <c r="I14" s="58"/>
-      <c r="J14" s="58"/>
-      <c r="K14" s="58"/>
-      <c r="L14" s="58"/>
-      <c r="M14" s="58"/>
-      <c r="N14" s="58"/>
-      <c r="O14" s="58"/>
-      <c r="P14" s="58"/>
-      <c r="Q14" s="58"/>
-      <c r="R14" s="58"/>
-      <c r="S14" s="58"/>
-      <c r="T14" s="58"/>
-      <c r="U14" s="58"/>
-      <c r="V14" s="58"/>
-      <c r="W14" s="58"/>
-      <c r="X14" s="58"/>
-      <c r="Y14" s="58"/>
-      <c r="Z14" s="58"/>
-      <c r="AA14" s="58"/>
-      <c r="AB14" s="58"/>
-      <c r="AC14" s="58"/>
-      <c r="AD14" s="58"/>
-      <c r="AE14" s="58"/>
-      <c r="AF14" s="58"/>
-      <c r="AG14" s="58"/>
-      <c r="AH14" s="58"/>
-      <c r="AI14" s="58"/>
-      <c r="AJ14" s="58"/>
-      <c r="AK14" s="58"/>
-      <c r="AL14" s="58"/>
-      <c r="AM14" s="58"/>
-      <c r="AN14" s="58"/>
-      <c r="AO14" s="58"/>
-      <c r="AP14" s="58"/>
-      <c r="AQ14" s="58"/>
-      <c r="AR14" s="58"/>
-      <c r="AS14" s="58"/>
-      <c r="AT14" s="58"/>
-      <c r="AU14" s="58"/>
-      <c r="AV14" s="58"/>
-      <c r="AW14" s="58"/>
-      <c r="AX14" s="58"/>
-      <c r="AY14" s="58"/>
-      <c r="AZ14" s="58"/>
-      <c r="BA14" s="58"/>
-      <c r="BB14" s="58"/>
-      <c r="BC14" s="58"/>
-      <c r="BD14" s="58"/>
-      <c r="BE14" s="58"/>
-      <c r="BF14" s="58"/>
-      <c r="BG14" s="58"/>
-      <c r="BH14" s="58"/>
-      <c r="BI14" s="58"/>
-      <c r="BJ14" s="58"/>
-      <c r="BK14" s="58"/>
-      <c r="BL14" s="58"/>
-      <c r="BM14" s="58"/>
-      <c r="BN14" s="58"/>
-      <c r="BO14" s="58"/>
-      <c r="BP14" s="58"/>
-      <c r="BQ14" s="58"/>
-      <c r="BR14" s="58"/>
-      <c r="BS14" s="58"/>
-      <c r="BT14" s="58"/>
-      <c r="BU14" s="58"/>
-      <c r="BV14" s="58"/>
-      <c r="DS14" s="45" t="s">
+      <c r="B14" s="95"/>
+      <c r="C14" s="95"/>
+      <c r="D14" s="95"/>
+      <c r="E14" s="95"/>
+      <c r="F14" s="95"/>
+      <c r="G14" s="95"/>
+      <c r="H14" s="95"/>
+      <c r="I14" s="95"/>
+      <c r="J14" s="95"/>
+      <c r="K14" s="95"/>
+      <c r="L14" s="95"/>
+      <c r="M14" s="95"/>
+      <c r="N14" s="95"/>
+      <c r="O14" s="95"/>
+      <c r="P14" s="95"/>
+      <c r="Q14" s="95"/>
+      <c r="R14" s="95"/>
+      <c r="S14" s="95"/>
+      <c r="T14" s="95"/>
+      <c r="U14" s="95"/>
+      <c r="V14" s="95"/>
+      <c r="W14" s="95"/>
+      <c r="X14" s="95"/>
+      <c r="Y14" s="95"/>
+      <c r="Z14" s="95"/>
+      <c r="AA14" s="95"/>
+      <c r="AB14" s="95"/>
+      <c r="AC14" s="95"/>
+      <c r="AD14" s="95"/>
+      <c r="AE14" s="95"/>
+      <c r="AF14" s="95"/>
+      <c r="AG14" s="95"/>
+      <c r="AH14" s="95"/>
+      <c r="AI14" s="95"/>
+      <c r="AJ14" s="95"/>
+      <c r="AK14" s="95"/>
+      <c r="AL14" s="95"/>
+      <c r="AM14" s="95"/>
+      <c r="AN14" s="95"/>
+      <c r="AO14" s="95"/>
+      <c r="AP14" s="95"/>
+      <c r="AQ14" s="95"/>
+      <c r="AR14" s="95"/>
+      <c r="AS14" s="95"/>
+      <c r="AT14" s="95"/>
+      <c r="AU14" s="95"/>
+      <c r="AV14" s="95"/>
+      <c r="AW14" s="95"/>
+      <c r="AX14" s="95"/>
+      <c r="AY14" s="95"/>
+      <c r="AZ14" s="95"/>
+      <c r="BA14" s="95"/>
+      <c r="BB14" s="95"/>
+      <c r="BC14" s="95"/>
+      <c r="BD14" s="95"/>
+      <c r="BE14" s="95"/>
+      <c r="BF14" s="95"/>
+      <c r="BG14" s="95"/>
+      <c r="BH14" s="95"/>
+      <c r="BI14" s="95"/>
+      <c r="BJ14" s="95"/>
+      <c r="BK14" s="95"/>
+      <c r="BL14" s="95"/>
+      <c r="BM14" s="95"/>
+      <c r="BN14" s="95"/>
+      <c r="BO14" s="95"/>
+      <c r="BP14" s="95"/>
+      <c r="BQ14" s="95"/>
+      <c r="BR14" s="95"/>
+      <c r="BS14" s="95"/>
+      <c r="BT14" s="95"/>
+      <c r="BU14" s="95"/>
+      <c r="BV14" s="95"/>
+      <c r="DS14" s="39" t="s">
         <v>17</v>
       </c>
-      <c r="DT14" s="45"/>
-      <c r="DU14" s="45"/>
-      <c r="DV14" s="45"/>
-      <c r="DW14" s="45"/>
-      <c r="DX14" s="45"/>
-      <c r="DY14" s="45"/>
-      <c r="DZ14" s="45"/>
-      <c r="EA14" s="45"/>
-      <c r="EB14" s="45"/>
-      <c r="EC14" s="45"/>
-      <c r="ED14" s="45"/>
-      <c r="EE14" s="45"/>
-      <c r="EF14" s="45"/>
-      <c r="EG14" s="45"/>
-      <c r="EH14" s="45"/>
-      <c r="EI14" s="45"/>
-      <c r="EJ14" s="45"/>
-      <c r="EK14" s="45"/>
-      <c r="EL14" s="45"/>
-      <c r="EM14" s="45"/>
-      <c r="EN14" s="45"/>
-      <c r="EO14" s="45"/>
-      <c r="EP14" s="45"/>
-      <c r="EQ14" s="45"/>
-      <c r="ER14" s="45"/>
-      <c r="ES14" s="45"/>
-      <c r="ET14" s="45"/>
-      <c r="EU14" s="45"/>
-      <c r="EV14" s="45"/>
-      <c r="EW14" s="54"/>
-      <c r="EX14" s="55"/>
-      <c r="EY14" s="55"/>
-      <c r="EZ14" s="55"/>
-      <c r="FA14" s="55"/>
-      <c r="FB14" s="55"/>
-      <c r="FC14" s="55"/>
-      <c r="FD14" s="55"/>
-      <c r="FE14" s="55"/>
-      <c r="FF14" s="55"/>
-      <c r="FG14" s="55"/>
-      <c r="FH14" s="55"/>
-      <c r="FI14" s="56"/>
+      <c r="DT14" s="39"/>
+      <c r="DU14" s="39"/>
+      <c r="DV14" s="39"/>
+      <c r="DW14" s="39"/>
+      <c r="DX14" s="39"/>
+      <c r="DY14" s="39"/>
+      <c r="DZ14" s="39"/>
+      <c r="EA14" s="39"/>
+      <c r="EB14" s="39"/>
+      <c r="EC14" s="39"/>
+      <c r="ED14" s="39"/>
+      <c r="EE14" s="39"/>
+      <c r="EF14" s="39"/>
+      <c r="EG14" s="39"/>
+      <c r="EH14" s="39"/>
+      <c r="EI14" s="39"/>
+      <c r="EJ14" s="39"/>
+      <c r="EK14" s="39"/>
+      <c r="EL14" s="39"/>
+      <c r="EM14" s="39"/>
+      <c r="EN14" s="39"/>
+      <c r="EO14" s="39"/>
+      <c r="EP14" s="39"/>
+      <c r="EQ14" s="39"/>
+      <c r="ER14" s="39"/>
+      <c r="ES14" s="39"/>
+      <c r="ET14" s="39"/>
+      <c r="EU14" s="39"/>
+      <c r="EV14" s="39"/>
+      <c r="EW14" s="89"/>
+      <c r="EX14" s="90"/>
+      <c r="EY14" s="90"/>
+      <c r="EZ14" s="90"/>
+      <c r="FA14" s="90"/>
+      <c r="FB14" s="90"/>
+      <c r="FC14" s="90"/>
+      <c r="FD14" s="90"/>
+      <c r="FE14" s="90"/>
+      <c r="FF14" s="90"/>
+      <c r="FG14" s="90"/>
+      <c r="FH14" s="90"/>
+      <c r="FI14" s="91"/>
     </row>
     <row r="15" spans="1:682" ht="6.9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="DS15" s="45"/>
-      <c r="DT15" s="45"/>
-      <c r="DU15" s="45"/>
-      <c r="DV15" s="45"/>
-      <c r="DW15" s="45"/>
-      <c r="DX15" s="45"/>
-      <c r="DY15" s="45"/>
-      <c r="DZ15" s="45"/>
-      <c r="EA15" s="45"/>
-      <c r="EB15" s="45"/>
-      <c r="EC15" s="45"/>
-      <c r="ED15" s="45"/>
-      <c r="EE15" s="45"/>
-      <c r="EF15" s="45"/>
-      <c r="EG15" s="45"/>
-      <c r="EH15" s="45"/>
-      <c r="EI15" s="45"/>
-      <c r="EJ15" s="45"/>
-      <c r="EK15" s="45"/>
-      <c r="EL15" s="45"/>
-      <c r="EM15" s="45"/>
-      <c r="EN15" s="45"/>
-      <c r="EO15" s="45"/>
-      <c r="EP15" s="45"/>
-      <c r="EQ15" s="45"/>
-      <c r="ER15" s="45"/>
-      <c r="ES15" s="45"/>
-      <c r="ET15" s="45"/>
-      <c r="EU15" s="45"/>
-      <c r="EV15" s="45"/>
-      <c r="EW15" s="57"/>
-      <c r="EX15" s="52"/>
-      <c r="EY15" s="52"/>
-      <c r="EZ15" s="52"/>
-      <c r="FA15" s="52"/>
-      <c r="FB15" s="52"/>
-      <c r="FC15" s="52"/>
-      <c r="FD15" s="52"/>
-      <c r="FE15" s="52"/>
-      <c r="FF15" s="52"/>
-      <c r="FG15" s="52"/>
-      <c r="FH15" s="52"/>
-      <c r="FI15" s="53"/>
+      <c r="DS15" s="39"/>
+      <c r="DT15" s="39"/>
+      <c r="DU15" s="39"/>
+      <c r="DV15" s="39"/>
+      <c r="DW15" s="39"/>
+      <c r="DX15" s="39"/>
+      <c r="DY15" s="39"/>
+      <c r="DZ15" s="39"/>
+      <c r="EA15" s="39"/>
+      <c r="EB15" s="39"/>
+      <c r="EC15" s="39"/>
+      <c r="ED15" s="39"/>
+      <c r="EE15" s="39"/>
+      <c r="EF15" s="39"/>
+      <c r="EG15" s="39"/>
+      <c r="EH15" s="39"/>
+      <c r="EI15" s="39"/>
+      <c r="EJ15" s="39"/>
+      <c r="EK15" s="39"/>
+      <c r="EL15" s="39"/>
+      <c r="EM15" s="39"/>
+      <c r="EN15" s="39"/>
+      <c r="EO15" s="39"/>
+      <c r="EP15" s="39"/>
+      <c r="EQ15" s="39"/>
+      <c r="ER15" s="39"/>
+      <c r="ES15" s="39"/>
+      <c r="ET15" s="39"/>
+      <c r="EU15" s="39"/>
+      <c r="EV15" s="39"/>
+      <c r="EW15" s="92"/>
+      <c r="EX15" s="93"/>
+      <c r="EY15" s="93"/>
+      <c r="EZ15" s="93"/>
+      <c r="FA15" s="93"/>
+      <c r="FB15" s="93"/>
+      <c r="FC15" s="93"/>
+      <c r="FD15" s="93"/>
+      <c r="FE15" s="93"/>
+      <c r="FF15" s="93"/>
+      <c r="FG15" s="93"/>
+      <c r="FH15" s="93"/>
+      <c r="FI15" s="94"/>
     </row>
     <row r="16" spans="1:682" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="DH16" s="59"/>
-      <c r="DI16" s="59"/>
-      <c r="DJ16" s="59"/>
-      <c r="DK16" s="59"/>
-      <c r="DL16" s="59"/>
-      <c r="DM16" s="59"/>
-      <c r="DN16" s="59"/>
-      <c r="DO16" s="59"/>
-      <c r="DP16" s="59"/>
-      <c r="DQ16" s="59"/>
-      <c r="DR16" s="59"/>
-      <c r="DS16" s="59"/>
-      <c r="DT16" s="59"/>
-      <c r="DU16" s="59"/>
-      <c r="DV16" s="59"/>
-      <c r="DW16" s="59"/>
-      <c r="DX16" s="59"/>
-      <c r="DY16" s="59"/>
-      <c r="DZ16" s="59"/>
-      <c r="EA16" s="59"/>
-      <c r="EB16" s="59"/>
-      <c r="EC16" s="59"/>
-      <c r="ED16" s="59"/>
-      <c r="EE16" s="59"/>
-      <c r="EF16" s="59"/>
-      <c r="EG16" s="59"/>
-      <c r="EH16" s="59"/>
-      <c r="EI16" s="59"/>
-      <c r="EJ16" s="59"/>
-      <c r="EK16" s="59"/>
-      <c r="EL16" s="59"/>
-      <c r="EM16" s="60" t="s">
+      <c r="DH16" s="74"/>
+      <c r="DI16" s="74"/>
+      <c r="DJ16" s="74"/>
+      <c r="DK16" s="74"/>
+      <c r="DL16" s="74"/>
+      <c r="DM16" s="74"/>
+      <c r="DN16" s="74"/>
+      <c r="DO16" s="74"/>
+      <c r="DP16" s="74"/>
+      <c r="DQ16" s="74"/>
+      <c r="DR16" s="74"/>
+      <c r="DS16" s="74"/>
+      <c r="DT16" s="74"/>
+      <c r="DU16" s="74"/>
+      <c r="DV16" s="74"/>
+      <c r="DW16" s="74"/>
+      <c r="DX16" s="74"/>
+      <c r="DY16" s="74"/>
+      <c r="DZ16" s="74"/>
+      <c r="EA16" s="74"/>
+      <c r="EB16" s="74"/>
+      <c r="EC16" s="74"/>
+      <c r="ED16" s="74"/>
+      <c r="EE16" s="74"/>
+      <c r="EF16" s="74"/>
+      <c r="EG16" s="74"/>
+      <c r="EH16" s="74"/>
+      <c r="EI16" s="74"/>
+      <c r="EJ16" s="74"/>
+      <c r="EK16" s="74"/>
+      <c r="EL16" s="74"/>
+      <c r="EM16" s="75" t="s">
         <v>18</v>
       </c>
-      <c r="EN16" s="61"/>
-      <c r="EO16" s="61"/>
-      <c r="EP16" s="61"/>
-      <c r="EQ16" s="61"/>
-      <c r="ER16" s="61"/>
-      <c r="ES16" s="61"/>
-      <c r="ET16" s="61"/>
-      <c r="EU16" s="61"/>
-      <c r="EV16" s="62"/>
-      <c r="EW16" s="63" t="s">
+      <c r="EN16" s="76"/>
+      <c r="EO16" s="76"/>
+      <c r="EP16" s="76"/>
+      <c r="EQ16" s="76"/>
+      <c r="ER16" s="76"/>
+      <c r="ES16" s="76"/>
+      <c r="ET16" s="76"/>
+      <c r="EU16" s="76"/>
+      <c r="EV16" s="77"/>
+      <c r="EW16" s="78" t="s">
         <v>90</v>
       </c>
-      <c r="EX16" s="64"/>
-      <c r="EY16" s="64"/>
-      <c r="EZ16" s="64"/>
-      <c r="FA16" s="64"/>
-      <c r="FB16" s="64"/>
-      <c r="FC16" s="64"/>
-      <c r="FD16" s="64"/>
-      <c r="FE16" s="64"/>
-      <c r="FF16" s="64"/>
-      <c r="FG16" s="64"/>
-      <c r="FH16" s="64"/>
-      <c r="FI16" s="65"/>
+      <c r="EX16" s="79"/>
+      <c r="EY16" s="79"/>
+      <c r="EZ16" s="79"/>
+      <c r="FA16" s="79"/>
+      <c r="FB16" s="79"/>
+      <c r="FC16" s="79"/>
+      <c r="FD16" s="79"/>
+      <c r="FE16" s="79"/>
+      <c r="FF16" s="79"/>
+      <c r="FG16" s="79"/>
+      <c r="FH16" s="79"/>
+      <c r="FI16" s="80"/>
       <c r="ZF16" s="1" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="17" spans="1:702" x14ac:dyDescent="0.2">
-      <c r="EM17" s="60" t="s">
+      <c r="EM17" s="75" t="s">
         <v>20</v>
       </c>
-      <c r="EN17" s="61"/>
-      <c r="EO17" s="61"/>
-      <c r="EP17" s="61"/>
-      <c r="EQ17" s="61"/>
-      <c r="ER17" s="61"/>
-      <c r="ES17" s="61"/>
-      <c r="ET17" s="61"/>
-      <c r="EU17" s="61"/>
-      <c r="EV17" s="62"/>
-      <c r="EW17" s="66"/>
-      <c r="EX17" s="67"/>
-      <c r="EY17" s="67"/>
-      <c r="EZ17" s="67"/>
-      <c r="FA17" s="68"/>
-      <c r="FB17" s="67"/>
-      <c r="FC17" s="67"/>
-      <c r="FD17" s="67"/>
-      <c r="FE17" s="69"/>
-      <c r="FF17" s="68"/>
-      <c r="FG17" s="67"/>
-      <c r="FH17" s="67"/>
-      <c r="FI17" s="70"/>
+      <c r="EN17" s="76"/>
+      <c r="EO17" s="76"/>
+      <c r="EP17" s="76"/>
+      <c r="EQ17" s="76"/>
+      <c r="ER17" s="76"/>
+      <c r="ES17" s="76"/>
+      <c r="ET17" s="76"/>
+      <c r="EU17" s="76"/>
+      <c r="EV17" s="77"/>
+      <c r="EW17" s="81"/>
+      <c r="EX17" s="82"/>
+      <c r="EY17" s="82"/>
+      <c r="EZ17" s="82"/>
+      <c r="FA17" s="83"/>
+      <c r="FB17" s="82"/>
+      <c r="FC17" s="82"/>
+      <c r="FD17" s="82"/>
+      <c r="FE17" s="84"/>
+      <c r="FF17" s="83"/>
+      <c r="FG17" s="82"/>
+      <c r="FH17" s="82"/>
+      <c r="FI17" s="85"/>
     </row>
     <row r="18" spans="1:702" x14ac:dyDescent="0.2">
-      <c r="BJ18" s="89" t="s">
+      <c r="BJ18" s="46" t="s">
         <v>21</v>
       </c>
-      <c r="BK18" s="90"/>
-      <c r="BL18" s="90"/>
-      <c r="BM18" s="90"/>
-      <c r="BN18" s="90"/>
-      <c r="BO18" s="90"/>
-      <c r="BP18" s="90"/>
-      <c r="BQ18" s="90"/>
-      <c r="BR18" s="90"/>
-      <c r="BS18" s="90"/>
-      <c r="BT18" s="90"/>
-      <c r="BU18" s="90"/>
-      <c r="BV18" s="90"/>
-      <c r="BW18" s="90"/>
-      <c r="BX18" s="90"/>
-      <c r="BY18" s="90"/>
-      <c r="BZ18" s="90"/>
-      <c r="CA18" s="91"/>
-      <c r="CB18" s="89" t="s">
+      <c r="BK18" s="47"/>
+      <c r="BL18" s="47"/>
+      <c r="BM18" s="47"/>
+      <c r="BN18" s="47"/>
+      <c r="BO18" s="47"/>
+      <c r="BP18" s="47"/>
+      <c r="BQ18" s="47"/>
+      <c r="BR18" s="47"/>
+      <c r="BS18" s="47"/>
+      <c r="BT18" s="47"/>
+      <c r="BU18" s="47"/>
+      <c r="BV18" s="47"/>
+      <c r="BW18" s="47"/>
+      <c r="BX18" s="47"/>
+      <c r="BY18" s="47"/>
+      <c r="BZ18" s="47"/>
+      <c r="CA18" s="48"/>
+      <c r="CB18" s="46" t="s">
         <v>22</v>
       </c>
-      <c r="CC18" s="90"/>
-      <c r="CD18" s="90"/>
-      <c r="CE18" s="90"/>
-      <c r="CF18" s="90"/>
-      <c r="CG18" s="90"/>
-      <c r="CH18" s="90"/>
-      <c r="CI18" s="90"/>
-      <c r="CJ18" s="90"/>
-      <c r="CK18" s="90"/>
-      <c r="CL18" s="90"/>
-      <c r="CM18" s="90"/>
-      <c r="CN18" s="90"/>
-      <c r="CO18" s="90"/>
-      <c r="CP18" s="90"/>
-      <c r="CQ18" s="90"/>
-      <c r="CR18" s="90"/>
-      <c r="CS18" s="90"/>
-      <c r="CT18" s="91"/>
-      <c r="DA18" s="75" t="s">
+      <c r="CC18" s="47"/>
+      <c r="CD18" s="47"/>
+      <c r="CE18" s="47"/>
+      <c r="CF18" s="47"/>
+      <c r="CG18" s="47"/>
+      <c r="CH18" s="47"/>
+      <c r="CI18" s="47"/>
+      <c r="CJ18" s="47"/>
+      <c r="CK18" s="47"/>
+      <c r="CL18" s="47"/>
+      <c r="CM18" s="47"/>
+      <c r="CN18" s="47"/>
+      <c r="CO18" s="47"/>
+      <c r="CP18" s="47"/>
+      <c r="CQ18" s="47"/>
+      <c r="CR18" s="47"/>
+      <c r="CS18" s="47"/>
+      <c r="CT18" s="48"/>
+      <c r="DA18" s="60" t="s">
         <v>23</v>
       </c>
-      <c r="DB18" s="76"/>
-      <c r="DC18" s="76"/>
-      <c r="DD18" s="76"/>
-      <c r="DE18" s="76"/>
-      <c r="DF18" s="76"/>
-      <c r="DG18" s="76"/>
-      <c r="DH18" s="76"/>
-      <c r="DI18" s="76"/>
-      <c r="DJ18" s="76"/>
-      <c r="DK18" s="76"/>
-      <c r="DL18" s="76"/>
-      <c r="DM18" s="76"/>
-      <c r="DN18" s="76"/>
-      <c r="DO18" s="76"/>
-      <c r="DP18" s="76"/>
-      <c r="DQ18" s="76"/>
-      <c r="DR18" s="76"/>
-      <c r="DS18" s="76"/>
-      <c r="DT18" s="76"/>
-      <c r="DU18" s="76"/>
-      <c r="DV18" s="76"/>
-      <c r="DW18" s="76"/>
-      <c r="DX18" s="76"/>
-      <c r="DY18" s="76"/>
-      <c r="DZ18" s="77"/>
-      <c r="EI18" s="45" t="s">
+      <c r="DB18" s="61"/>
+      <c r="DC18" s="61"/>
+      <c r="DD18" s="61"/>
+      <c r="DE18" s="61"/>
+      <c r="DF18" s="61"/>
+      <c r="DG18" s="61"/>
+      <c r="DH18" s="61"/>
+      <c r="DI18" s="61"/>
+      <c r="DJ18" s="61"/>
+      <c r="DK18" s="61"/>
+      <c r="DL18" s="61"/>
+      <c r="DM18" s="61"/>
+      <c r="DN18" s="61"/>
+      <c r="DO18" s="61"/>
+      <c r="DP18" s="61"/>
+      <c r="DQ18" s="61"/>
+      <c r="DR18" s="61"/>
+      <c r="DS18" s="61"/>
+      <c r="DT18" s="61"/>
+      <c r="DU18" s="61"/>
+      <c r="DV18" s="61"/>
+      <c r="DW18" s="61"/>
+      <c r="DX18" s="61"/>
+      <c r="DY18" s="61"/>
+      <c r="DZ18" s="62"/>
+      <c r="EI18" s="39" t="s">
         <v>24</v>
       </c>
-      <c r="EJ18" s="45"/>
-      <c r="EK18" s="45"/>
-      <c r="EL18" s="45"/>
-      <c r="EM18" s="45"/>
-      <c r="EN18" s="45"/>
-      <c r="EO18" s="45"/>
-      <c r="EP18" s="45"/>
-      <c r="EQ18" s="45"/>
-      <c r="ER18" s="45"/>
-      <c r="ES18" s="45"/>
-      <c r="ET18" s="45"/>
-      <c r="EU18" s="45"/>
-      <c r="EV18" s="45"/>
-      <c r="EW18" s="78"/>
-      <c r="EX18" s="79"/>
-      <c r="EY18" s="79"/>
-      <c r="EZ18" s="79"/>
-      <c r="FA18" s="79"/>
-      <c r="FB18" s="79"/>
-      <c r="FC18" s="79"/>
-      <c r="FD18" s="79"/>
-      <c r="FE18" s="79"/>
-      <c r="FF18" s="79"/>
-      <c r="FG18" s="79"/>
-      <c r="FH18" s="79"/>
-      <c r="FI18" s="80"/>
+      <c r="EJ18" s="39"/>
+      <c r="EK18" s="39"/>
+      <c r="EL18" s="39"/>
+      <c r="EM18" s="39"/>
+      <c r="EN18" s="39"/>
+      <c r="EO18" s="39"/>
+      <c r="EP18" s="39"/>
+      <c r="EQ18" s="39"/>
+      <c r="ER18" s="39"/>
+      <c r="ES18" s="39"/>
+      <c r="ET18" s="39"/>
+      <c r="EU18" s="39"/>
+      <c r="EV18" s="39"/>
+      <c r="EW18" s="63"/>
+      <c r="EX18" s="64"/>
+      <c r="EY18" s="64"/>
+      <c r="EZ18" s="64"/>
+      <c r="FA18" s="64"/>
+      <c r="FB18" s="64"/>
+      <c r="FC18" s="64"/>
+      <c r="FD18" s="64"/>
+      <c r="FE18" s="64"/>
+      <c r="FF18" s="64"/>
+      <c r="FG18" s="64"/>
+      <c r="FH18" s="64"/>
+      <c r="FI18" s="65"/>
     </row>
     <row r="19" spans="1:702" x14ac:dyDescent="0.2">
-      <c r="BJ19" s="92"/>
-      <c r="BK19" s="47"/>
-      <c r="BL19" s="47"/>
-      <c r="BM19" s="47"/>
-      <c r="BN19" s="47"/>
-      <c r="BO19" s="47"/>
-      <c r="BP19" s="47"/>
-      <c r="BQ19" s="47"/>
-      <c r="BR19" s="47"/>
-      <c r="BS19" s="47"/>
-      <c r="BT19" s="47"/>
-      <c r="BU19" s="47"/>
-      <c r="BV19" s="47"/>
-      <c r="BW19" s="47"/>
-      <c r="BX19" s="47"/>
-      <c r="BY19" s="47"/>
-      <c r="BZ19" s="47"/>
-      <c r="CA19" s="93"/>
-      <c r="CB19" s="92"/>
-      <c r="CC19" s="47"/>
-      <c r="CD19" s="47"/>
-      <c r="CE19" s="47"/>
-      <c r="CF19" s="47"/>
-      <c r="CG19" s="47"/>
-      <c r="CH19" s="47"/>
-      <c r="CI19" s="47"/>
-      <c r="CJ19" s="47"/>
-      <c r="CK19" s="47"/>
-      <c r="CL19" s="47"/>
-      <c r="CM19" s="47"/>
-      <c r="CN19" s="47"/>
-      <c r="CO19" s="47"/>
-      <c r="CP19" s="47"/>
-      <c r="CQ19" s="47"/>
-      <c r="CR19" s="47"/>
-      <c r="CS19" s="47"/>
-      <c r="CT19" s="93"/>
-      <c r="DA19" s="75" t="s">
+      <c r="BJ19" s="49"/>
+      <c r="BK19" s="44"/>
+      <c r="BL19" s="44"/>
+      <c r="BM19" s="44"/>
+      <c r="BN19" s="44"/>
+      <c r="BO19" s="44"/>
+      <c r="BP19" s="44"/>
+      <c r="BQ19" s="44"/>
+      <c r="BR19" s="44"/>
+      <c r="BS19" s="44"/>
+      <c r="BT19" s="44"/>
+      <c r="BU19" s="44"/>
+      <c r="BV19" s="44"/>
+      <c r="BW19" s="44"/>
+      <c r="BX19" s="44"/>
+      <c r="BY19" s="44"/>
+      <c r="BZ19" s="44"/>
+      <c r="CA19" s="50"/>
+      <c r="CB19" s="49"/>
+      <c r="CC19" s="44"/>
+      <c r="CD19" s="44"/>
+      <c r="CE19" s="44"/>
+      <c r="CF19" s="44"/>
+      <c r="CG19" s="44"/>
+      <c r="CH19" s="44"/>
+      <c r="CI19" s="44"/>
+      <c r="CJ19" s="44"/>
+      <c r="CK19" s="44"/>
+      <c r="CL19" s="44"/>
+      <c r="CM19" s="44"/>
+      <c r="CN19" s="44"/>
+      <c r="CO19" s="44"/>
+      <c r="CP19" s="44"/>
+      <c r="CQ19" s="44"/>
+      <c r="CR19" s="44"/>
+      <c r="CS19" s="44"/>
+      <c r="CT19" s="50"/>
+      <c r="DA19" s="60" t="s">
         <v>25</v>
       </c>
-      <c r="DB19" s="76"/>
-      <c r="DC19" s="76"/>
-      <c r="DD19" s="76"/>
-      <c r="DE19" s="76"/>
-      <c r="DF19" s="76"/>
-      <c r="DG19" s="76"/>
-      <c r="DH19" s="76"/>
-      <c r="DI19" s="76"/>
-      <c r="DJ19" s="76"/>
-      <c r="DK19" s="76"/>
-      <c r="DL19" s="76"/>
-      <c r="DM19" s="77"/>
-      <c r="DN19" s="75" t="s">
+      <c r="DB19" s="61"/>
+      <c r="DC19" s="61"/>
+      <c r="DD19" s="61"/>
+      <c r="DE19" s="61"/>
+      <c r="DF19" s="61"/>
+      <c r="DG19" s="61"/>
+      <c r="DH19" s="61"/>
+      <c r="DI19" s="61"/>
+      <c r="DJ19" s="61"/>
+      <c r="DK19" s="61"/>
+      <c r="DL19" s="61"/>
+      <c r="DM19" s="62"/>
+      <c r="DN19" s="60" t="s">
         <v>26</v>
       </c>
-      <c r="DO19" s="76"/>
-      <c r="DP19" s="76"/>
-      <c r="DQ19" s="76"/>
-      <c r="DR19" s="76"/>
-      <c r="DS19" s="76"/>
-      <c r="DT19" s="76"/>
-      <c r="DU19" s="76"/>
-      <c r="DV19" s="76"/>
-      <c r="DW19" s="76"/>
-      <c r="DX19" s="76"/>
-      <c r="DY19" s="76"/>
-      <c r="DZ19" s="77"/>
+      <c r="DO19" s="61"/>
+      <c r="DP19" s="61"/>
+      <c r="DQ19" s="61"/>
+      <c r="DR19" s="61"/>
+      <c r="DS19" s="61"/>
+      <c r="DT19" s="61"/>
+      <c r="DU19" s="61"/>
+      <c r="DV19" s="61"/>
+      <c r="DW19" s="61"/>
+      <c r="DX19" s="61"/>
+      <c r="DY19" s="61"/>
+      <c r="DZ19" s="62"/>
     </row>
     <row r="20" spans="1:702" ht="13.2" x14ac:dyDescent="0.2">
-      <c r="BD20" s="81" t="s">
+      <c r="BD20" s="66" t="s">
         <v>27</v>
       </c>
-      <c r="BE20" s="81"/>
-      <c r="BF20" s="81"/>
-      <c r="BG20" s="81"/>
-      <c r="BH20" s="81"/>
-      <c r="BI20" s="81"/>
-      <c r="BJ20" s="82"/>
-      <c r="BK20" s="83"/>
-      <c r="BL20" s="83"/>
-      <c r="BM20" s="83"/>
-      <c r="BN20" s="83"/>
-      <c r="BO20" s="83"/>
-      <c r="BP20" s="83"/>
-      <c r="BQ20" s="83"/>
-      <c r="BR20" s="83"/>
-      <c r="BS20" s="83"/>
-      <c r="BT20" s="83"/>
-      <c r="BU20" s="83"/>
-      <c r="BV20" s="83"/>
-      <c r="BW20" s="83"/>
-      <c r="BX20" s="83"/>
-      <c r="BY20" s="83"/>
-      <c r="BZ20" s="83"/>
-      <c r="CA20" s="84"/>
-      <c r="CB20" s="85"/>
-      <c r="CC20" s="85"/>
-      <c r="CD20" s="85"/>
-      <c r="CE20" s="85"/>
-      <c r="CF20" s="85"/>
-      <c r="CG20" s="85"/>
-      <c r="CH20" s="85"/>
-      <c r="CI20" s="85"/>
-      <c r="CJ20" s="85"/>
-      <c r="CK20" s="85"/>
-      <c r="CL20" s="85"/>
-      <c r="CM20" s="85"/>
-      <c r="CN20" s="85"/>
-      <c r="CO20" s="85"/>
-      <c r="CP20" s="85"/>
-      <c r="CQ20" s="85"/>
-      <c r="CR20" s="85"/>
-      <c r="CS20" s="85"/>
-      <c r="CT20" s="86"/>
-      <c r="DA20" s="87"/>
-      <c r="DB20" s="85"/>
-      <c r="DC20" s="85"/>
-      <c r="DD20" s="85"/>
-      <c r="DE20" s="85"/>
-      <c r="DF20" s="85"/>
-      <c r="DG20" s="85"/>
-      <c r="DH20" s="85"/>
-      <c r="DI20" s="85"/>
-      <c r="DJ20" s="85"/>
-      <c r="DK20" s="85"/>
-      <c r="DL20" s="85"/>
-      <c r="DM20" s="88"/>
-      <c r="DN20" s="85"/>
-      <c r="DO20" s="85"/>
-      <c r="DP20" s="85"/>
-      <c r="DQ20" s="85"/>
-      <c r="DR20" s="85"/>
-      <c r="DS20" s="85"/>
-      <c r="DT20" s="85"/>
-      <c r="DU20" s="85"/>
-      <c r="DV20" s="85"/>
-      <c r="DW20" s="85"/>
-      <c r="DX20" s="85"/>
-      <c r="DY20" s="85"/>
-      <c r="DZ20" s="86"/>
+      <c r="BE20" s="66"/>
+      <c r="BF20" s="66"/>
+      <c r="BG20" s="66"/>
+      <c r="BH20" s="66"/>
+      <c r="BI20" s="66"/>
+      <c r="BJ20" s="67"/>
+      <c r="BK20" s="68"/>
+      <c r="BL20" s="68"/>
+      <c r="BM20" s="68"/>
+      <c r="BN20" s="68"/>
+      <c r="BO20" s="68"/>
+      <c r="BP20" s="68"/>
+      <c r="BQ20" s="68"/>
+      <c r="BR20" s="68"/>
+      <c r="BS20" s="68"/>
+      <c r="BT20" s="68"/>
+      <c r="BU20" s="68"/>
+      <c r="BV20" s="68"/>
+      <c r="BW20" s="68"/>
+      <c r="BX20" s="68"/>
+      <c r="BY20" s="68"/>
+      <c r="BZ20" s="68"/>
+      <c r="CA20" s="69"/>
+      <c r="CB20" s="70"/>
+      <c r="CC20" s="70"/>
+      <c r="CD20" s="70"/>
+      <c r="CE20" s="70"/>
+      <c r="CF20" s="70"/>
+      <c r="CG20" s="70"/>
+      <c r="CH20" s="70"/>
+      <c r="CI20" s="70"/>
+      <c r="CJ20" s="70"/>
+      <c r="CK20" s="70"/>
+      <c r="CL20" s="70"/>
+      <c r="CM20" s="70"/>
+      <c r="CN20" s="70"/>
+      <c r="CO20" s="70"/>
+      <c r="CP20" s="70"/>
+      <c r="CQ20" s="70"/>
+      <c r="CR20" s="70"/>
+      <c r="CS20" s="70"/>
+      <c r="CT20" s="71"/>
+      <c r="DA20" s="72"/>
+      <c r="DB20" s="70"/>
+      <c r="DC20" s="70"/>
+      <c r="DD20" s="70"/>
+      <c r="DE20" s="70"/>
+      <c r="DF20" s="70"/>
+      <c r="DG20" s="70"/>
+      <c r="DH20" s="70"/>
+      <c r="DI20" s="70"/>
+      <c r="DJ20" s="70"/>
+      <c r="DK20" s="70"/>
+      <c r="DL20" s="70"/>
+      <c r="DM20" s="73"/>
+      <c r="DN20" s="70"/>
+      <c r="DO20" s="70"/>
+      <c r="DP20" s="70"/>
+      <c r="DQ20" s="70"/>
+      <c r="DR20" s="70"/>
+      <c r="DS20" s="70"/>
+      <c r="DT20" s="70"/>
+      <c r="DU20" s="70"/>
+      <c r="DV20" s="70"/>
+      <c r="DW20" s="70"/>
+      <c r="DX20" s="70"/>
+      <c r="DY20" s="70"/>
+      <c r="DZ20" s="71"/>
     </row>
     <row r="21" spans="1:702" ht="0.9" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="22" spans="1:702" ht="13.2" x14ac:dyDescent="0.2">
-      <c r="AB22" s="71" t="s">
+      <c r="AB22" s="56" t="s">
         <v>28</v>
       </c>
-      <c r="AC22" s="71"/>
-      <c r="AD22" s="71"/>
-      <c r="AE22" s="71"/>
-      <c r="AF22" s="71"/>
-      <c r="AG22" s="71"/>
-      <c r="AH22" s="71"/>
-      <c r="AI22" s="71"/>
-      <c r="AJ22" s="71"/>
-      <c r="AK22" s="71"/>
-      <c r="AL22" s="71"/>
-      <c r="AM22" s="71"/>
-      <c r="AN22" s="71"/>
-      <c r="AO22" s="71"/>
-      <c r="AP22" s="71"/>
-      <c r="AQ22" s="71"/>
-      <c r="AR22" s="71"/>
-      <c r="AS22" s="71"/>
-      <c r="AT22" s="71"/>
-      <c r="AU22" s="71"/>
-      <c r="AV22" s="71"/>
-      <c r="AW22" s="71"/>
-      <c r="AX22" s="71"/>
-      <c r="AY22" s="71"/>
-      <c r="AZ22" s="71"/>
-      <c r="BA22" s="71"/>
-      <c r="BB22" s="71"/>
-      <c r="BC22" s="71"/>
-      <c r="BD22" s="71"/>
-      <c r="BE22" s="71"/>
-      <c r="BF22" s="71"/>
-      <c r="BG22" s="71"/>
-      <c r="BH22" s="71"/>
-      <c r="BI22" s="71"/>
-      <c r="BJ22" s="71"/>
-      <c r="BK22" s="71"/>
-      <c r="BL22" s="71"/>
-      <c r="BM22" s="71"/>
-      <c r="BN22" s="71"/>
-      <c r="BO22" s="71"/>
-      <c r="BP22" s="71"/>
-      <c r="BQ22" s="71"/>
-      <c r="BR22" s="71"/>
-      <c r="BS22" s="71"/>
-      <c r="BT22" s="71"/>
-      <c r="BU22" s="71"/>
-      <c r="BV22" s="71"/>
-      <c r="BW22" s="71"/>
-      <c r="BX22" s="71"/>
-      <c r="BY22" s="71"/>
-      <c r="BZ22" s="71"/>
-      <c r="CA22" s="71"/>
-      <c r="CB22" s="71"/>
-      <c r="CC22" s="71"/>
-      <c r="CD22" s="71"/>
-      <c r="CE22" s="71"/>
-      <c r="CF22" s="71"/>
-      <c r="CG22" s="71"/>
-      <c r="CH22" s="71"/>
-      <c r="CI22" s="71"/>
-      <c r="CJ22" s="71"/>
-      <c r="CK22" s="71"/>
-      <c r="CL22" s="71"/>
-      <c r="CM22" s="71"/>
-      <c r="CN22" s="71"/>
-      <c r="CO22" s="71"/>
-      <c r="CP22" s="71"/>
-      <c r="CQ22" s="71"/>
-      <c r="CR22" s="71"/>
-      <c r="CS22" s="71"/>
-      <c r="CT22" s="71"/>
-      <c r="CU22" s="71"/>
-      <c r="CV22" s="71"/>
-      <c r="CW22" s="71"/>
-      <c r="CX22" s="71"/>
-      <c r="CY22" s="71"/>
-      <c r="CZ22" s="71"/>
-      <c r="DA22" s="71"/>
-      <c r="DB22" s="71"/>
+      <c r="AC22" s="56"/>
+      <c r="AD22" s="56"/>
+      <c r="AE22" s="56"/>
+      <c r="AF22" s="56"/>
+      <c r="AG22" s="56"/>
+      <c r="AH22" s="56"/>
+      <c r="AI22" s="56"/>
+      <c r="AJ22" s="56"/>
+      <c r="AK22" s="56"/>
+      <c r="AL22" s="56"/>
+      <c r="AM22" s="56"/>
+      <c r="AN22" s="56"/>
+      <c r="AO22" s="56"/>
+      <c r="AP22" s="56"/>
+      <c r="AQ22" s="56"/>
+      <c r="AR22" s="56"/>
+      <c r="AS22" s="56"/>
+      <c r="AT22" s="56"/>
+      <c r="AU22" s="56"/>
+      <c r="AV22" s="56"/>
+      <c r="AW22" s="56"/>
+      <c r="AX22" s="56"/>
+      <c r="AY22" s="56"/>
+      <c r="AZ22" s="56"/>
+      <c r="BA22" s="56"/>
+      <c r="BB22" s="56"/>
+      <c r="BC22" s="56"/>
+      <c r="BD22" s="56"/>
+      <c r="BE22" s="56"/>
+      <c r="BF22" s="56"/>
+      <c r="BG22" s="56"/>
+      <c r="BH22" s="56"/>
+      <c r="BI22" s="56"/>
+      <c r="BJ22" s="56"/>
+      <c r="BK22" s="56"/>
+      <c r="BL22" s="56"/>
+      <c r="BM22" s="56"/>
+      <c r="BN22" s="56"/>
+      <c r="BO22" s="56"/>
+      <c r="BP22" s="56"/>
+      <c r="BQ22" s="56"/>
+      <c r="BR22" s="56"/>
+      <c r="BS22" s="56"/>
+      <c r="BT22" s="56"/>
+      <c r="BU22" s="56"/>
+      <c r="BV22" s="56"/>
+      <c r="BW22" s="56"/>
+      <c r="BX22" s="56"/>
+      <c r="BY22" s="56"/>
+      <c r="BZ22" s="56"/>
+      <c r="CA22" s="56"/>
+      <c r="CB22" s="56"/>
+      <c r="CC22" s="56"/>
+      <c r="CD22" s="56"/>
+      <c r="CE22" s="56"/>
+      <c r="CF22" s="56"/>
+      <c r="CG22" s="56"/>
+      <c r="CH22" s="56"/>
+      <c r="CI22" s="56"/>
+      <c r="CJ22" s="56"/>
+      <c r="CK22" s="56"/>
+      <c r="CL22" s="56"/>
+      <c r="CM22" s="56"/>
+      <c r="CN22" s="56"/>
+      <c r="CO22" s="56"/>
+      <c r="CP22" s="56"/>
+      <c r="CQ22" s="56"/>
+      <c r="CR22" s="56"/>
+      <c r="CS22" s="56"/>
+      <c r="CT22" s="56"/>
+      <c r="CU22" s="56"/>
+      <c r="CV22" s="56"/>
+      <c r="CW22" s="56"/>
+      <c r="CX22" s="56"/>
+      <c r="CY22" s="56"/>
+      <c r="CZ22" s="56"/>
+      <c r="DA22" s="56"/>
+      <c r="DB22" s="56"/>
     </row>
     <row r="23" spans="1:702" ht="3" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="24" spans="1:702" x14ac:dyDescent="0.2">
-      <c r="A24" s="45" t="s">
+      <c r="A24" s="39" t="s">
         <v>29</v>
       </c>
-      <c r="B24" s="45"/>
-      <c r="C24" s="45"/>
-      <c r="D24" s="45"/>
-      <c r="E24" s="45"/>
-      <c r="F24" s="45"/>
-      <c r="G24" s="45"/>
-      <c r="H24" s="45"/>
-      <c r="I24" s="45"/>
-      <c r="J24" s="45"/>
-      <c r="K24" s="45"/>
-      <c r="L24" s="45"/>
-      <c r="M24" s="45"/>
-      <c r="N24" s="45"/>
-      <c r="O24" s="45"/>
-      <c r="P24" s="45"/>
-      <c r="Q24" s="45"/>
-      <c r="R24" s="45"/>
-      <c r="S24" s="45"/>
-      <c r="T24" s="45"/>
-      <c r="U24" s="45"/>
-      <c r="V24" s="45"/>
-      <c r="W24" s="45"/>
-      <c r="X24" s="45"/>
-      <c r="Y24" s="45"/>
-      <c r="Z24" s="45"/>
-      <c r="AA24" s="45"/>
-      <c r="AB24" s="45"/>
-      <c r="AC24" s="45"/>
-      <c r="AD24" s="45"/>
-      <c r="AE24" s="45"/>
-      <c r="AF24" s="45"/>
-      <c r="AG24" s="45"/>
-      <c r="AH24" s="45"/>
-      <c r="AI24" s="45"/>
-      <c r="AJ24" s="45"/>
-      <c r="AK24" s="45"/>
-      <c r="AL24" s="45"/>
-      <c r="AM24" s="45"/>
-      <c r="AN24" s="45"/>
-      <c r="AO24" s="45"/>
-      <c r="AP24" s="45"/>
-      <c r="AQ24" s="45"/>
-      <c r="AR24" s="45"/>
-      <c r="AS24" s="45"/>
-      <c r="AT24" s="45"/>
-      <c r="AU24" s="45"/>
-      <c r="AV24" s="45"/>
-      <c r="AW24" s="45"/>
-      <c r="AX24" s="45"/>
-      <c r="AY24" s="45"/>
-      <c r="AZ24" s="45"/>
-      <c r="BA24" s="45"/>
-      <c r="BB24" s="45"/>
-      <c r="BC24" s="45"/>
-      <c r="BD24" s="45"/>
-      <c r="BE24" s="45"/>
-      <c r="BF24" s="45"/>
-      <c r="BG24" s="45"/>
-      <c r="BH24" s="45"/>
-      <c r="BI24" s="45"/>
-      <c r="BJ24" s="45"/>
-      <c r="BK24" s="45"/>
-      <c r="BL24" s="45"/>
-      <c r="BM24" s="45"/>
-      <c r="BN24" s="45"/>
-      <c r="BO24" s="45"/>
-      <c r="BP24" s="45"/>
-      <c r="BQ24" s="45"/>
-      <c r="BR24" s="45"/>
-      <c r="BS24" s="45"/>
-      <c r="BT24" s="45"/>
-      <c r="BU24" s="45"/>
-      <c r="BV24" s="45"/>
-      <c r="BW24" s="45"/>
-      <c r="BX24" s="72" t="s">
+      <c r="B24" s="39"/>
+      <c r="C24" s="39"/>
+      <c r="D24" s="39"/>
+      <c r="E24" s="39"/>
+      <c r="F24" s="39"/>
+      <c r="G24" s="39"/>
+      <c r="H24" s="39"/>
+      <c r="I24" s="39"/>
+      <c r="J24" s="39"/>
+      <c r="K24" s="39"/>
+      <c r="L24" s="39"/>
+      <c r="M24" s="39"/>
+      <c r="N24" s="39"/>
+      <c r="O24" s="39"/>
+      <c r="P24" s="39"/>
+      <c r="Q24" s="39"/>
+      <c r="R24" s="39"/>
+      <c r="S24" s="39"/>
+      <c r="T24" s="39"/>
+      <c r="U24" s="39"/>
+      <c r="V24" s="39"/>
+      <c r="W24" s="39"/>
+      <c r="X24" s="39"/>
+      <c r="Y24" s="39"/>
+      <c r="Z24" s="39"/>
+      <c r="AA24" s="39"/>
+      <c r="AB24" s="39"/>
+      <c r="AC24" s="39"/>
+      <c r="AD24" s="39"/>
+      <c r="AE24" s="39"/>
+      <c r="AF24" s="39"/>
+      <c r="AG24" s="39"/>
+      <c r="AH24" s="39"/>
+      <c r="AI24" s="39"/>
+      <c r="AJ24" s="39"/>
+      <c r="AK24" s="39"/>
+      <c r="AL24" s="39"/>
+      <c r="AM24" s="39"/>
+      <c r="AN24" s="39"/>
+      <c r="AO24" s="39"/>
+      <c r="AP24" s="39"/>
+      <c r="AQ24" s="39"/>
+      <c r="AR24" s="39"/>
+      <c r="AS24" s="39"/>
+      <c r="AT24" s="39"/>
+      <c r="AU24" s="39"/>
+      <c r="AV24" s="39"/>
+      <c r="AW24" s="39"/>
+      <c r="AX24" s="39"/>
+      <c r="AY24" s="39"/>
+      <c r="AZ24" s="39"/>
+      <c r="BA24" s="39"/>
+      <c r="BB24" s="39"/>
+      <c r="BC24" s="39"/>
+      <c r="BD24" s="39"/>
+      <c r="BE24" s="39"/>
+      <c r="BF24" s="39"/>
+      <c r="BG24" s="39"/>
+      <c r="BH24" s="39"/>
+      <c r="BI24" s="39"/>
+      <c r="BJ24" s="39"/>
+      <c r="BK24" s="39"/>
+      <c r="BL24" s="39"/>
+      <c r="BM24" s="39"/>
+      <c r="BN24" s="39"/>
+      <c r="BO24" s="39"/>
+      <c r="BP24" s="39"/>
+      <c r="BQ24" s="39"/>
+      <c r="BR24" s="39"/>
+      <c r="BS24" s="39"/>
+      <c r="BT24" s="39"/>
+      <c r="BU24" s="39"/>
+      <c r="BV24" s="39"/>
+      <c r="BW24" s="39"/>
+      <c r="BX24" s="57" t="s">
         <v>74</v>
       </c>
-      <c r="BY24" s="73"/>
-      <c r="BZ24" s="73"/>
-      <c r="CA24" s="73"/>
-      <c r="CB24" s="73"/>
-      <c r="CC24" s="73"/>
-      <c r="CD24" s="73"/>
-      <c r="CE24" s="73"/>
-      <c r="CF24" s="73"/>
-      <c r="CG24" s="73"/>
-      <c r="CH24" s="73"/>
-      <c r="CI24" s="73"/>
-      <c r="CJ24" s="73"/>
-      <c r="CK24" s="73"/>
-      <c r="CL24" s="73"/>
-      <c r="CM24" s="73"/>
-      <c r="CN24" s="73"/>
-      <c r="CO24" s="73"/>
-      <c r="CP24" s="73"/>
-      <c r="CQ24" s="73"/>
-      <c r="CR24" s="73"/>
-      <c r="CS24" s="73"/>
-      <c r="CT24" s="73"/>
-      <c r="CU24" s="73"/>
-      <c r="CV24" s="73"/>
-      <c r="CW24" s="73"/>
-      <c r="CX24" s="73"/>
-      <c r="CY24" s="73"/>
-      <c r="CZ24" s="73"/>
-      <c r="DA24" s="73"/>
-      <c r="DB24" s="73"/>
-      <c r="DC24" s="73"/>
-      <c r="DD24" s="73"/>
-      <c r="DE24" s="73"/>
-      <c r="DF24" s="73"/>
-      <c r="DG24" s="73"/>
-      <c r="DH24" s="73"/>
-      <c r="DI24" s="73"/>
-      <c r="DJ24" s="73"/>
-      <c r="DK24" s="73"/>
-      <c r="DL24" s="73"/>
-      <c r="DM24" s="73"/>
-      <c r="DN24" s="73"/>
-      <c r="DO24" s="73"/>
-      <c r="DP24" s="73"/>
-      <c r="DQ24" s="73"/>
-      <c r="DR24" s="73"/>
-      <c r="DS24" s="73"/>
-      <c r="DT24" s="73"/>
-      <c r="DU24" s="73"/>
-      <c r="DV24" s="73"/>
-      <c r="DW24" s="73"/>
-      <c r="DX24" s="73"/>
-      <c r="DY24" s="73"/>
-      <c r="DZ24" s="73"/>
-      <c r="EA24" s="73"/>
-      <c r="EB24" s="73"/>
-      <c r="EC24" s="73"/>
-      <c r="ED24" s="73"/>
-      <c r="EE24" s="73"/>
-      <c r="EF24" s="73"/>
-      <c r="EG24" s="73"/>
-      <c r="EH24" s="73"/>
-      <c r="EI24" s="73"/>
-      <c r="EJ24" s="73"/>
-      <c r="EK24" s="73"/>
-      <c r="EL24" s="73"/>
-      <c r="EM24" s="73"/>
-      <c r="EN24" s="73"/>
-      <c r="EO24" s="73"/>
-      <c r="EP24" s="73"/>
-      <c r="EQ24" s="73"/>
-      <c r="ER24" s="73"/>
-      <c r="ES24" s="73"/>
-      <c r="ET24" s="73"/>
-      <c r="EU24" s="73"/>
-      <c r="EV24" s="73"/>
-      <c r="EW24" s="73"/>
-      <c r="EX24" s="73"/>
-      <c r="EY24" s="73"/>
-      <c r="EZ24" s="73"/>
-      <c r="FA24" s="73"/>
-      <c r="FB24" s="73"/>
-      <c r="FC24" s="74" t="s">
+      <c r="BY24" s="58"/>
+      <c r="BZ24" s="58"/>
+      <c r="CA24" s="58"/>
+      <c r="CB24" s="58"/>
+      <c r="CC24" s="58"/>
+      <c r="CD24" s="58"/>
+      <c r="CE24" s="58"/>
+      <c r="CF24" s="58"/>
+      <c r="CG24" s="58"/>
+      <c r="CH24" s="58"/>
+      <c r="CI24" s="58"/>
+      <c r="CJ24" s="58"/>
+      <c r="CK24" s="58"/>
+      <c r="CL24" s="58"/>
+      <c r="CM24" s="58"/>
+      <c r="CN24" s="58"/>
+      <c r="CO24" s="58"/>
+      <c r="CP24" s="58"/>
+      <c r="CQ24" s="58"/>
+      <c r="CR24" s="58"/>
+      <c r="CS24" s="58"/>
+      <c r="CT24" s="58"/>
+      <c r="CU24" s="58"/>
+      <c r="CV24" s="58"/>
+      <c r="CW24" s="58"/>
+      <c r="CX24" s="58"/>
+      <c r="CY24" s="58"/>
+      <c r="CZ24" s="58"/>
+      <c r="DA24" s="58"/>
+      <c r="DB24" s="58"/>
+      <c r="DC24" s="58"/>
+      <c r="DD24" s="58"/>
+      <c r="DE24" s="58"/>
+      <c r="DF24" s="58"/>
+      <c r="DG24" s="58"/>
+      <c r="DH24" s="58"/>
+      <c r="DI24" s="58"/>
+      <c r="DJ24" s="58"/>
+      <c r="DK24" s="58"/>
+      <c r="DL24" s="58"/>
+      <c r="DM24" s="58"/>
+      <c r="DN24" s="58"/>
+      <c r="DO24" s="58"/>
+      <c r="DP24" s="58"/>
+      <c r="DQ24" s="58"/>
+      <c r="DR24" s="58"/>
+      <c r="DS24" s="58"/>
+      <c r="DT24" s="58"/>
+      <c r="DU24" s="58"/>
+      <c r="DV24" s="58"/>
+      <c r="DW24" s="58"/>
+      <c r="DX24" s="58"/>
+      <c r="DY24" s="58"/>
+      <c r="DZ24" s="58"/>
+      <c r="EA24" s="58"/>
+      <c r="EB24" s="58"/>
+      <c r="EC24" s="58"/>
+      <c r="ED24" s="58"/>
+      <c r="EE24" s="58"/>
+      <c r="EF24" s="58"/>
+      <c r="EG24" s="58"/>
+      <c r="EH24" s="58"/>
+      <c r="EI24" s="58"/>
+      <c r="EJ24" s="58"/>
+      <c r="EK24" s="58"/>
+      <c r="EL24" s="58"/>
+      <c r="EM24" s="58"/>
+      <c r="EN24" s="58"/>
+      <c r="EO24" s="58"/>
+      <c r="EP24" s="58"/>
+      <c r="EQ24" s="58"/>
+      <c r="ER24" s="58"/>
+      <c r="ES24" s="58"/>
+      <c r="ET24" s="58"/>
+      <c r="EU24" s="58"/>
+      <c r="EV24" s="58"/>
+      <c r="EW24" s="58"/>
+      <c r="EX24" s="58"/>
+      <c r="EY24" s="58"/>
+      <c r="EZ24" s="58"/>
+      <c r="FA24" s="58"/>
+      <c r="FB24" s="58"/>
+      <c r="FC24" s="59" t="s">
         <v>30</v>
       </c>
-      <c r="FD24" s="74"/>
-      <c r="FE24" s="74"/>
-      <c r="FF24" s="74"/>
-      <c r="FG24" s="74"/>
-      <c r="FH24" s="74"/>
-      <c r="FI24" s="74"/>
+      <c r="FD24" s="59"/>
+      <c r="FE24" s="59"/>
+      <c r="FF24" s="59"/>
+      <c r="FG24" s="59"/>
+      <c r="FH24" s="59"/>
+      <c r="FI24" s="59"/>
     </row>
     <row r="25" spans="1:702" ht="3.9" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="26" spans="1:702" x14ac:dyDescent="0.2">
-      <c r="A26" s="75" t="s">
+      <c r="A26" s="60" t="s">
         <v>31</v>
       </c>
-      <c r="B26" s="76"/>
-      <c r="C26" s="76"/>
-      <c r="D26" s="76"/>
-      <c r="E26" s="76"/>
-      <c r="F26" s="76"/>
-      <c r="G26" s="76"/>
-      <c r="H26" s="76"/>
-      <c r="I26" s="76"/>
-      <c r="J26" s="76"/>
-      <c r="K26" s="76"/>
-      <c r="L26" s="76"/>
-      <c r="M26" s="76"/>
-      <c r="N26" s="76"/>
-      <c r="O26" s="76"/>
-      <c r="P26" s="76"/>
-      <c r="Q26" s="77"/>
-      <c r="R26" s="89" t="s">
+      <c r="B26" s="61"/>
+      <c r="C26" s="61"/>
+      <c r="D26" s="61"/>
+      <c r="E26" s="61"/>
+      <c r="F26" s="61"/>
+      <c r="G26" s="61"/>
+      <c r="H26" s="61"/>
+      <c r="I26" s="61"/>
+      <c r="J26" s="61"/>
+      <c r="K26" s="61"/>
+      <c r="L26" s="61"/>
+      <c r="M26" s="61"/>
+      <c r="N26" s="61"/>
+      <c r="O26" s="61"/>
+      <c r="P26" s="61"/>
+      <c r="Q26" s="62"/>
+      <c r="R26" s="46" t="s">
         <v>32</v>
       </c>
-      <c r="S26" s="90"/>
-      <c r="T26" s="90"/>
-      <c r="U26" s="90"/>
-      <c r="V26" s="90"/>
-      <c r="W26" s="90"/>
-      <c r="X26" s="90"/>
-      <c r="Y26" s="90"/>
-      <c r="Z26" s="90"/>
-      <c r="AA26" s="90"/>
-      <c r="AB26" s="90"/>
-      <c r="AC26" s="90"/>
-      <c r="AD26" s="90"/>
-      <c r="AE26" s="90"/>
-      <c r="AF26" s="90"/>
-      <c r="AG26" s="90"/>
-      <c r="AH26" s="90"/>
-      <c r="AI26" s="90"/>
-      <c r="AJ26" s="90"/>
-      <c r="AK26" s="90"/>
-      <c r="AL26" s="90"/>
-      <c r="AM26" s="90"/>
-      <c r="AN26" s="90"/>
-      <c r="AO26" s="90"/>
-      <c r="AP26" s="90"/>
-      <c r="AQ26" s="90"/>
-      <c r="AR26" s="90"/>
-      <c r="AS26" s="90"/>
-      <c r="AT26" s="90"/>
-      <c r="AU26" s="90"/>
-      <c r="AV26" s="90"/>
-      <c r="AW26" s="90"/>
-      <c r="AX26" s="90"/>
-      <c r="AY26" s="90"/>
-      <c r="AZ26" s="90"/>
-      <c r="BA26" s="90"/>
-      <c r="BB26" s="90"/>
-      <c r="BC26" s="90"/>
-      <c r="BD26" s="90"/>
-      <c r="BE26" s="90"/>
-      <c r="BF26" s="90"/>
-      <c r="BG26" s="90"/>
-      <c r="BH26" s="90"/>
-      <c r="BI26" s="90"/>
-      <c r="BJ26" s="90"/>
-      <c r="BK26" s="90"/>
-      <c r="BL26" s="90"/>
-      <c r="BM26" s="90"/>
-      <c r="BN26" s="90"/>
-      <c r="BO26" s="90"/>
-      <c r="BP26" s="90"/>
-      <c r="BQ26" s="90"/>
-      <c r="BR26" s="90"/>
-      <c r="BS26" s="90"/>
-      <c r="BT26" s="90"/>
-      <c r="BU26" s="90"/>
-      <c r="BV26" s="90"/>
-      <c r="BW26" s="90"/>
-      <c r="BX26" s="90"/>
-      <c r="BY26" s="90"/>
-      <c r="BZ26" s="90"/>
-      <c r="CA26" s="90"/>
-      <c r="CB26" s="90"/>
-      <c r="CC26" s="90"/>
-      <c r="CD26" s="90"/>
-      <c r="CE26" s="90"/>
-      <c r="CF26" s="90"/>
-      <c r="CG26" s="90"/>
-      <c r="CH26" s="90"/>
-      <c r="CI26" s="90"/>
-      <c r="CJ26" s="90"/>
-      <c r="CK26" s="90"/>
-      <c r="CL26" s="90"/>
-      <c r="CM26" s="90"/>
-      <c r="CN26" s="90"/>
-      <c r="CO26" s="91"/>
-      <c r="CP26" s="89" t="s">
+      <c r="S26" s="47"/>
+      <c r="T26" s="47"/>
+      <c r="U26" s="47"/>
+      <c r="V26" s="47"/>
+      <c r="W26" s="47"/>
+      <c r="X26" s="47"/>
+      <c r="Y26" s="47"/>
+      <c r="Z26" s="47"/>
+      <c r="AA26" s="47"/>
+      <c r="AB26" s="47"/>
+      <c r="AC26" s="47"/>
+      <c r="AD26" s="47"/>
+      <c r="AE26" s="47"/>
+      <c r="AF26" s="47"/>
+      <c r="AG26" s="47"/>
+      <c r="AH26" s="47"/>
+      <c r="AI26" s="47"/>
+      <c r="AJ26" s="47"/>
+      <c r="AK26" s="47"/>
+      <c r="AL26" s="47"/>
+      <c r="AM26" s="47"/>
+      <c r="AN26" s="47"/>
+      <c r="AO26" s="47"/>
+      <c r="AP26" s="47"/>
+      <c r="AQ26" s="47"/>
+      <c r="AR26" s="47"/>
+      <c r="AS26" s="47"/>
+      <c r="AT26" s="47"/>
+      <c r="AU26" s="47"/>
+      <c r="AV26" s="47"/>
+      <c r="AW26" s="47"/>
+      <c r="AX26" s="47"/>
+      <c r="AY26" s="47"/>
+      <c r="AZ26" s="47"/>
+      <c r="BA26" s="47"/>
+      <c r="BB26" s="47"/>
+      <c r="BC26" s="47"/>
+      <c r="BD26" s="47"/>
+      <c r="BE26" s="47"/>
+      <c r="BF26" s="47"/>
+      <c r="BG26" s="47"/>
+      <c r="BH26" s="47"/>
+      <c r="BI26" s="47"/>
+      <c r="BJ26" s="47"/>
+      <c r="BK26" s="47"/>
+      <c r="BL26" s="47"/>
+      <c r="BM26" s="47"/>
+      <c r="BN26" s="47"/>
+      <c r="BO26" s="47"/>
+      <c r="BP26" s="47"/>
+      <c r="BQ26" s="47"/>
+      <c r="BR26" s="47"/>
+      <c r="BS26" s="47"/>
+      <c r="BT26" s="47"/>
+      <c r="BU26" s="47"/>
+      <c r="BV26" s="47"/>
+      <c r="BW26" s="47"/>
+      <c r="BX26" s="47"/>
+      <c r="BY26" s="47"/>
+      <c r="BZ26" s="47"/>
+      <c r="CA26" s="47"/>
+      <c r="CB26" s="47"/>
+      <c r="CC26" s="47"/>
+      <c r="CD26" s="47"/>
+      <c r="CE26" s="47"/>
+      <c r="CF26" s="47"/>
+      <c r="CG26" s="47"/>
+      <c r="CH26" s="47"/>
+      <c r="CI26" s="47"/>
+      <c r="CJ26" s="47"/>
+      <c r="CK26" s="47"/>
+      <c r="CL26" s="47"/>
+      <c r="CM26" s="47"/>
+      <c r="CN26" s="47"/>
+      <c r="CO26" s="48"/>
+      <c r="CP26" s="46" t="s">
         <v>33</v>
       </c>
-      <c r="CQ26" s="90"/>
-      <c r="CR26" s="90"/>
-      <c r="CS26" s="90"/>
-      <c r="CT26" s="90"/>
-      <c r="CU26" s="90"/>
-      <c r="CV26" s="90"/>
-      <c r="CW26" s="90"/>
-      <c r="CX26" s="90"/>
-      <c r="CY26" s="90"/>
-      <c r="CZ26" s="90"/>
-      <c r="DA26" s="91"/>
-      <c r="DB26" s="89" t="s">
+      <c r="CQ26" s="47"/>
+      <c r="CR26" s="47"/>
+      <c r="CS26" s="47"/>
+      <c r="CT26" s="47"/>
+      <c r="CU26" s="47"/>
+      <c r="CV26" s="47"/>
+      <c r="CW26" s="47"/>
+      <c r="CX26" s="47"/>
+      <c r="CY26" s="47"/>
+      <c r="CZ26" s="47"/>
+      <c r="DA26" s="48"/>
+      <c r="DB26" s="46" t="s">
         <v>34</v>
       </c>
-      <c r="DC26" s="90"/>
-      <c r="DD26" s="90"/>
-      <c r="DE26" s="90"/>
-      <c r="DF26" s="90"/>
-      <c r="DG26" s="90"/>
-      <c r="DH26" s="90"/>
-      <c r="DI26" s="90"/>
-      <c r="DJ26" s="90"/>
-      <c r="DK26" s="90"/>
-      <c r="DL26" s="90"/>
-      <c r="DM26" s="91"/>
-      <c r="DN26" s="75" t="s">
+      <c r="DC26" s="47"/>
+      <c r="DD26" s="47"/>
+      <c r="DE26" s="47"/>
+      <c r="DF26" s="47"/>
+      <c r="DG26" s="47"/>
+      <c r="DH26" s="47"/>
+      <c r="DI26" s="47"/>
+      <c r="DJ26" s="47"/>
+      <c r="DK26" s="47"/>
+      <c r="DL26" s="47"/>
+      <c r="DM26" s="48"/>
+      <c r="DN26" s="60" t="s">
         <v>35</v>
       </c>
-      <c r="DO26" s="76"/>
-      <c r="DP26" s="76"/>
-      <c r="DQ26" s="76"/>
-      <c r="DR26" s="76"/>
-      <c r="DS26" s="76"/>
-      <c r="DT26" s="76"/>
-      <c r="DU26" s="76"/>
-      <c r="DV26" s="76"/>
-      <c r="DW26" s="76"/>
-      <c r="DX26" s="76"/>
-      <c r="DY26" s="76"/>
-      <c r="DZ26" s="76"/>
-      <c r="EA26" s="76"/>
-      <c r="EB26" s="76"/>
-      <c r="EC26" s="76"/>
-      <c r="ED26" s="76"/>
-      <c r="EE26" s="76"/>
-      <c r="EF26" s="76"/>
-      <c r="EG26" s="76"/>
-      <c r="EH26" s="76"/>
-      <c r="EI26" s="76"/>
-      <c r="EJ26" s="76"/>
-      <c r="EK26" s="76"/>
-      <c r="EL26" s="76"/>
-      <c r="EM26" s="76"/>
-      <c r="EN26" s="76"/>
-      <c r="EO26" s="76"/>
-      <c r="EP26" s="76"/>
-      <c r="EQ26" s="76"/>
-      <c r="ER26" s="76"/>
-      <c r="ES26" s="76"/>
-      <c r="ET26" s="76"/>
-      <c r="EU26" s="76"/>
-      <c r="EV26" s="76"/>
-      <c r="EW26" s="76"/>
-      <c r="EX26" s="76"/>
-      <c r="EY26" s="76"/>
-      <c r="EZ26" s="76"/>
-      <c r="FA26" s="76"/>
-      <c r="FB26" s="76"/>
-      <c r="FC26" s="76"/>
-      <c r="FD26" s="76"/>
-      <c r="FE26" s="76"/>
-      <c r="FF26" s="76"/>
-      <c r="FG26" s="76"/>
-      <c r="FH26" s="76"/>
-      <c r="FI26" s="77"/>
+      <c r="DO26" s="61"/>
+      <c r="DP26" s="61"/>
+      <c r="DQ26" s="61"/>
+      <c r="DR26" s="61"/>
+      <c r="DS26" s="61"/>
+      <c r="DT26" s="61"/>
+      <c r="DU26" s="61"/>
+      <c r="DV26" s="61"/>
+      <c r="DW26" s="61"/>
+      <c r="DX26" s="61"/>
+      <c r="DY26" s="61"/>
+      <c r="DZ26" s="61"/>
+      <c r="EA26" s="61"/>
+      <c r="EB26" s="61"/>
+      <c r="EC26" s="61"/>
+      <c r="ED26" s="61"/>
+      <c r="EE26" s="61"/>
+      <c r="EF26" s="61"/>
+      <c r="EG26" s="61"/>
+      <c r="EH26" s="61"/>
+      <c r="EI26" s="61"/>
+      <c r="EJ26" s="61"/>
+      <c r="EK26" s="61"/>
+      <c r="EL26" s="61"/>
+      <c r="EM26" s="61"/>
+      <c r="EN26" s="61"/>
+      <c r="EO26" s="61"/>
+      <c r="EP26" s="61"/>
+      <c r="EQ26" s="61"/>
+      <c r="ER26" s="61"/>
+      <c r="ES26" s="61"/>
+      <c r="ET26" s="61"/>
+      <c r="EU26" s="61"/>
+      <c r="EV26" s="61"/>
+      <c r="EW26" s="61"/>
+      <c r="EX26" s="61"/>
+      <c r="EY26" s="61"/>
+      <c r="EZ26" s="61"/>
+      <c r="FA26" s="61"/>
+      <c r="FB26" s="61"/>
+      <c r="FC26" s="61"/>
+      <c r="FD26" s="61"/>
+      <c r="FE26" s="61"/>
+      <c r="FF26" s="61"/>
+      <c r="FG26" s="61"/>
+      <c r="FH26" s="61"/>
+      <c r="FI26" s="62"/>
     </row>
     <row r="27" spans="1:702" x14ac:dyDescent="0.2">
-      <c r="A27" s="89" t="s">
+      <c r="A27" s="46" t="s">
         <v>36</v>
       </c>
-      <c r="B27" s="90"/>
-      <c r="C27" s="90"/>
-      <c r="D27" s="90"/>
-      <c r="E27" s="90"/>
-      <c r="F27" s="90"/>
-      <c r="G27" s="90"/>
-      <c r="H27" s="91"/>
-      <c r="I27" s="89" t="s">
+      <c r="B27" s="47"/>
+      <c r="C27" s="47"/>
+      <c r="D27" s="47"/>
+      <c r="E27" s="47"/>
+      <c r="F27" s="47"/>
+      <c r="G27" s="47"/>
+      <c r="H27" s="48"/>
+      <c r="I27" s="46" t="s">
         <v>37</v>
       </c>
-      <c r="J27" s="90"/>
-      <c r="K27" s="90"/>
-      <c r="L27" s="90"/>
-      <c r="M27" s="90"/>
-      <c r="N27" s="90"/>
-      <c r="O27" s="90"/>
-      <c r="P27" s="90"/>
-      <c r="Q27" s="91"/>
-      <c r="R27" s="97"/>
-      <c r="S27" s="98"/>
-      <c r="T27" s="98"/>
-      <c r="U27" s="98"/>
-      <c r="V27" s="98"/>
-      <c r="W27" s="98"/>
-      <c r="X27" s="98"/>
-      <c r="Y27" s="98"/>
-      <c r="Z27" s="98"/>
-      <c r="AA27" s="98"/>
-      <c r="AB27" s="98"/>
-      <c r="AC27" s="98"/>
-      <c r="AD27" s="98"/>
-      <c r="AE27" s="98"/>
-      <c r="AF27" s="98"/>
-      <c r="AG27" s="98"/>
-      <c r="AH27" s="98"/>
-      <c r="AI27" s="98"/>
-      <c r="AJ27" s="98"/>
-      <c r="AK27" s="98"/>
-      <c r="AL27" s="98"/>
-      <c r="AM27" s="98"/>
-      <c r="AN27" s="98"/>
-      <c r="AO27" s="98"/>
-      <c r="AP27" s="98"/>
-      <c r="AQ27" s="98"/>
-      <c r="AR27" s="98"/>
-      <c r="AS27" s="98"/>
-      <c r="AT27" s="98"/>
-      <c r="AU27" s="98"/>
-      <c r="AV27" s="98"/>
-      <c r="AW27" s="98"/>
-      <c r="AX27" s="98"/>
-      <c r="AY27" s="98"/>
-      <c r="AZ27" s="98"/>
-      <c r="BA27" s="98"/>
-      <c r="BB27" s="98"/>
-      <c r="BC27" s="98"/>
-      <c r="BD27" s="98"/>
-      <c r="BE27" s="98"/>
-      <c r="BF27" s="98"/>
-      <c r="BG27" s="98"/>
-      <c r="BH27" s="98"/>
-      <c r="BI27" s="98"/>
-      <c r="BJ27" s="98"/>
-      <c r="BK27" s="98"/>
-      <c r="BL27" s="98"/>
-      <c r="BM27" s="98"/>
-      <c r="BN27" s="98"/>
-      <c r="BO27" s="98"/>
-      <c r="BP27" s="98"/>
-      <c r="BQ27" s="98"/>
-      <c r="BR27" s="98"/>
-      <c r="BS27" s="98"/>
-      <c r="BT27" s="98"/>
-      <c r="BU27" s="98"/>
-      <c r="BV27" s="98"/>
-      <c r="BW27" s="98"/>
-      <c r="BX27" s="98"/>
-      <c r="BY27" s="98"/>
-      <c r="BZ27" s="98"/>
-      <c r="CA27" s="98"/>
-      <c r="CB27" s="98"/>
-      <c r="CC27" s="98"/>
-      <c r="CD27" s="98"/>
-      <c r="CE27" s="98"/>
-      <c r="CF27" s="98"/>
-      <c r="CG27" s="98"/>
-      <c r="CH27" s="98"/>
-      <c r="CI27" s="98"/>
-      <c r="CJ27" s="98"/>
-      <c r="CK27" s="98"/>
-      <c r="CL27" s="98"/>
-      <c r="CM27" s="98"/>
-      <c r="CN27" s="98"/>
-      <c r="CO27" s="99"/>
-      <c r="CP27" s="97"/>
-      <c r="CQ27" s="98"/>
-      <c r="CR27" s="98"/>
-      <c r="CS27" s="98"/>
-      <c r="CT27" s="98"/>
-      <c r="CU27" s="98"/>
-      <c r="CV27" s="98"/>
-      <c r="CW27" s="98"/>
-      <c r="CX27" s="98"/>
-      <c r="CY27" s="98"/>
-      <c r="CZ27" s="98"/>
-      <c r="DA27" s="99"/>
-      <c r="DB27" s="97"/>
-      <c r="DC27" s="98"/>
-      <c r="DD27" s="98"/>
-      <c r="DE27" s="98"/>
-      <c r="DF27" s="98"/>
-      <c r="DG27" s="98"/>
-      <c r="DH27" s="98"/>
-      <c r="DI27" s="98"/>
-      <c r="DJ27" s="98"/>
-      <c r="DK27" s="98"/>
-      <c r="DL27" s="98"/>
-      <c r="DM27" s="99"/>
-      <c r="DN27" s="89" t="s">
+      <c r="J27" s="47"/>
+      <c r="K27" s="47"/>
+      <c r="L27" s="47"/>
+      <c r="M27" s="47"/>
+      <c r="N27" s="47"/>
+      <c r="O27" s="47"/>
+      <c r="P27" s="47"/>
+      <c r="Q27" s="48"/>
+      <c r="R27" s="54"/>
+      <c r="S27" s="38"/>
+      <c r="T27" s="38"/>
+      <c r="U27" s="38"/>
+      <c r="V27" s="38"/>
+      <c r="W27" s="38"/>
+      <c r="X27" s="38"/>
+      <c r="Y27" s="38"/>
+      <c r="Z27" s="38"/>
+      <c r="AA27" s="38"/>
+      <c r="AB27" s="38"/>
+      <c r="AC27" s="38"/>
+      <c r="AD27" s="38"/>
+      <c r="AE27" s="38"/>
+      <c r="AF27" s="38"/>
+      <c r="AG27" s="38"/>
+      <c r="AH27" s="38"/>
+      <c r="AI27" s="38"/>
+      <c r="AJ27" s="38"/>
+      <c r="AK27" s="38"/>
+      <c r="AL27" s="38"/>
+      <c r="AM27" s="38"/>
+      <c r="AN27" s="38"/>
+      <c r="AO27" s="38"/>
+      <c r="AP27" s="38"/>
+      <c r="AQ27" s="38"/>
+      <c r="AR27" s="38"/>
+      <c r="AS27" s="38"/>
+      <c r="AT27" s="38"/>
+      <c r="AU27" s="38"/>
+      <c r="AV27" s="38"/>
+      <c r="AW27" s="38"/>
+      <c r="AX27" s="38"/>
+      <c r="AY27" s="38"/>
+      <c r="AZ27" s="38"/>
+      <c r="BA27" s="38"/>
+      <c r="BB27" s="38"/>
+      <c r="BC27" s="38"/>
+      <c r="BD27" s="38"/>
+      <c r="BE27" s="38"/>
+      <c r="BF27" s="38"/>
+      <c r="BG27" s="38"/>
+      <c r="BH27" s="38"/>
+      <c r="BI27" s="38"/>
+      <c r="BJ27" s="38"/>
+      <c r="BK27" s="38"/>
+      <c r="BL27" s="38"/>
+      <c r="BM27" s="38"/>
+      <c r="BN27" s="38"/>
+      <c r="BO27" s="38"/>
+      <c r="BP27" s="38"/>
+      <c r="BQ27" s="38"/>
+      <c r="BR27" s="38"/>
+      <c r="BS27" s="38"/>
+      <c r="BT27" s="38"/>
+      <c r="BU27" s="38"/>
+      <c r="BV27" s="38"/>
+      <c r="BW27" s="38"/>
+      <c r="BX27" s="38"/>
+      <c r="BY27" s="38"/>
+      <c r="BZ27" s="38"/>
+      <c r="CA27" s="38"/>
+      <c r="CB27" s="38"/>
+      <c r="CC27" s="38"/>
+      <c r="CD27" s="38"/>
+      <c r="CE27" s="38"/>
+      <c r="CF27" s="38"/>
+      <c r="CG27" s="38"/>
+      <c r="CH27" s="38"/>
+      <c r="CI27" s="38"/>
+      <c r="CJ27" s="38"/>
+      <c r="CK27" s="38"/>
+      <c r="CL27" s="38"/>
+      <c r="CM27" s="38"/>
+      <c r="CN27" s="38"/>
+      <c r="CO27" s="55"/>
+      <c r="CP27" s="54"/>
+      <c r="CQ27" s="38"/>
+      <c r="CR27" s="38"/>
+      <c r="CS27" s="38"/>
+      <c r="CT27" s="38"/>
+      <c r="CU27" s="38"/>
+      <c r="CV27" s="38"/>
+      <c r="CW27" s="38"/>
+      <c r="CX27" s="38"/>
+      <c r="CY27" s="38"/>
+      <c r="CZ27" s="38"/>
+      <c r="DA27" s="55"/>
+      <c r="DB27" s="54"/>
+      <c r="DC27" s="38"/>
+      <c r="DD27" s="38"/>
+      <c r="DE27" s="38"/>
+      <c r="DF27" s="38"/>
+      <c r="DG27" s="38"/>
+      <c r="DH27" s="38"/>
+      <c r="DI27" s="38"/>
+      <c r="DJ27" s="38"/>
+      <c r="DK27" s="38"/>
+      <c r="DL27" s="38"/>
+      <c r="DM27" s="55"/>
+      <c r="DN27" s="46" t="s">
         <v>38</v>
       </c>
-      <c r="DO27" s="90"/>
-      <c r="DP27" s="90"/>
-      <c r="DQ27" s="90"/>
-      <c r="DR27" s="90"/>
-      <c r="DS27" s="90"/>
-      <c r="DT27" s="90"/>
-      <c r="DU27" s="90"/>
-      <c r="DV27" s="90"/>
-      <c r="DW27" s="90"/>
-      <c r="DX27" s="90"/>
-      <c r="DY27" s="90"/>
-      <c r="DZ27" s="90"/>
-      <c r="EA27" s="90"/>
-      <c r="EB27" s="90"/>
-      <c r="EC27" s="91"/>
-      <c r="ED27" s="89" t="s">
+      <c r="DO27" s="47"/>
+      <c r="DP27" s="47"/>
+      <c r="DQ27" s="47"/>
+      <c r="DR27" s="47"/>
+      <c r="DS27" s="47"/>
+      <c r="DT27" s="47"/>
+      <c r="DU27" s="47"/>
+      <c r="DV27" s="47"/>
+      <c r="DW27" s="47"/>
+      <c r="DX27" s="47"/>
+      <c r="DY27" s="47"/>
+      <c r="DZ27" s="47"/>
+      <c r="EA27" s="47"/>
+      <c r="EB27" s="47"/>
+      <c r="EC27" s="48"/>
+      <c r="ED27" s="46" t="s">
         <v>39</v>
       </c>
-      <c r="EE27" s="90"/>
-      <c r="EF27" s="90"/>
-      <c r="EG27" s="90"/>
-      <c r="EH27" s="90"/>
-      <c r="EI27" s="90"/>
-      <c r="EJ27" s="90"/>
-      <c r="EK27" s="90"/>
-      <c r="EL27" s="90"/>
-      <c r="EM27" s="90"/>
-      <c r="EN27" s="90"/>
-      <c r="EO27" s="90"/>
-      <c r="EP27" s="90"/>
-      <c r="EQ27" s="90"/>
-      <c r="ER27" s="90"/>
-      <c r="ES27" s="91"/>
-      <c r="ET27" s="89" t="s">
+      <c r="EE27" s="47"/>
+      <c r="EF27" s="47"/>
+      <c r="EG27" s="47"/>
+      <c r="EH27" s="47"/>
+      <c r="EI27" s="47"/>
+      <c r="EJ27" s="47"/>
+      <c r="EK27" s="47"/>
+      <c r="EL27" s="47"/>
+      <c r="EM27" s="47"/>
+      <c r="EN27" s="47"/>
+      <c r="EO27" s="47"/>
+      <c r="EP27" s="47"/>
+      <c r="EQ27" s="47"/>
+      <c r="ER27" s="47"/>
+      <c r="ES27" s="48"/>
+      <c r="ET27" s="46" t="s">
         <v>40</v>
       </c>
-      <c r="EU27" s="90"/>
-      <c r="EV27" s="90"/>
-      <c r="EW27" s="90"/>
-      <c r="EX27" s="90"/>
-      <c r="EY27" s="90"/>
-      <c r="EZ27" s="90"/>
-      <c r="FA27" s="90"/>
-      <c r="FB27" s="90"/>
-      <c r="FC27" s="90"/>
-      <c r="FD27" s="90"/>
-      <c r="FE27" s="90"/>
-      <c r="FF27" s="90"/>
-      <c r="FG27" s="90"/>
-      <c r="FH27" s="90"/>
-      <c r="FI27" s="91"/>
+      <c r="EU27" s="47"/>
+      <c r="EV27" s="47"/>
+      <c r="EW27" s="47"/>
+      <c r="EX27" s="47"/>
+      <c r="EY27" s="47"/>
+      <c r="EZ27" s="47"/>
+      <c r="FA27" s="47"/>
+      <c r="FB27" s="47"/>
+      <c r="FC27" s="47"/>
+      <c r="FD27" s="47"/>
+      <c r="FE27" s="47"/>
+      <c r="FF27" s="47"/>
+      <c r="FG27" s="47"/>
+      <c r="FH27" s="47"/>
+      <c r="FI27" s="48"/>
     </row>
     <row r="28" spans="1:702" x14ac:dyDescent="0.2">
-      <c r="A28" s="92"/>
-      <c r="B28" s="47"/>
-      <c r="C28" s="47"/>
-      <c r="D28" s="47"/>
-      <c r="E28" s="47"/>
-      <c r="F28" s="47"/>
-      <c r="G28" s="47"/>
-      <c r="H28" s="93"/>
-      <c r="I28" s="92"/>
-      <c r="J28" s="47"/>
-      <c r="K28" s="47"/>
-      <c r="L28" s="47"/>
-      <c r="M28" s="47"/>
-      <c r="N28" s="47"/>
-      <c r="O28" s="47"/>
-      <c r="P28" s="47"/>
-      <c r="Q28" s="93"/>
-      <c r="R28" s="92"/>
-      <c r="S28" s="47"/>
-      <c r="T28" s="47"/>
-      <c r="U28" s="47"/>
-      <c r="V28" s="47"/>
-      <c r="W28" s="47"/>
-      <c r="X28" s="47"/>
-      <c r="Y28" s="47"/>
-      <c r="Z28" s="47"/>
-      <c r="AA28" s="47"/>
-      <c r="AB28" s="47"/>
-      <c r="AC28" s="47"/>
-      <c r="AD28" s="47"/>
-      <c r="AE28" s="47"/>
-      <c r="AF28" s="47"/>
-      <c r="AG28" s="47"/>
-      <c r="AH28" s="47"/>
-      <c r="AI28" s="47"/>
-      <c r="AJ28" s="47"/>
-      <c r="AK28" s="47"/>
-      <c r="AL28" s="47"/>
-      <c r="AM28" s="47"/>
-      <c r="AN28" s="47"/>
-      <c r="AO28" s="47"/>
-      <c r="AP28" s="47"/>
-      <c r="AQ28" s="47"/>
-      <c r="AR28" s="47"/>
-      <c r="AS28" s="47"/>
-      <c r="AT28" s="47"/>
-      <c r="AU28" s="47"/>
-      <c r="AV28" s="47"/>
-      <c r="AW28" s="47"/>
-      <c r="AX28" s="47"/>
-      <c r="AY28" s="47"/>
-      <c r="AZ28" s="47"/>
-      <c r="BA28" s="47"/>
-      <c r="BB28" s="47"/>
-      <c r="BC28" s="47"/>
-      <c r="BD28" s="47"/>
-      <c r="BE28" s="47"/>
-      <c r="BF28" s="47"/>
-      <c r="BG28" s="47"/>
-      <c r="BH28" s="47"/>
-      <c r="BI28" s="47"/>
-      <c r="BJ28" s="47"/>
-      <c r="BK28" s="47"/>
-      <c r="BL28" s="47"/>
-      <c r="BM28" s="47"/>
-      <c r="BN28" s="47"/>
-      <c r="BO28" s="47"/>
-      <c r="BP28" s="47"/>
-      <c r="BQ28" s="47"/>
-      <c r="BR28" s="47"/>
-      <c r="BS28" s="47"/>
-      <c r="BT28" s="47"/>
-      <c r="BU28" s="47"/>
-      <c r="BV28" s="47"/>
-      <c r="BW28" s="47"/>
-      <c r="BX28" s="47"/>
-      <c r="BY28" s="47"/>
-      <c r="BZ28" s="47"/>
-      <c r="CA28" s="47"/>
-      <c r="CB28" s="47"/>
-      <c r="CC28" s="47"/>
-      <c r="CD28" s="47"/>
-      <c r="CE28" s="47"/>
-      <c r="CF28" s="47"/>
-      <c r="CG28" s="47"/>
-      <c r="CH28" s="47"/>
-      <c r="CI28" s="47"/>
-      <c r="CJ28" s="47"/>
-      <c r="CK28" s="47"/>
-      <c r="CL28" s="47"/>
-      <c r="CM28" s="47"/>
-      <c r="CN28" s="47"/>
-      <c r="CO28" s="93"/>
-      <c r="CP28" s="92"/>
-      <c r="CQ28" s="47"/>
-      <c r="CR28" s="47"/>
-      <c r="CS28" s="47"/>
-      <c r="CT28" s="47"/>
-      <c r="CU28" s="47"/>
-      <c r="CV28" s="47"/>
-      <c r="CW28" s="47"/>
-      <c r="CX28" s="47"/>
-      <c r="CY28" s="47"/>
-      <c r="CZ28" s="47"/>
-      <c r="DA28" s="93"/>
-      <c r="DB28" s="92"/>
-      <c r="DC28" s="47"/>
-      <c r="DD28" s="47"/>
-      <c r="DE28" s="47"/>
-      <c r="DF28" s="47"/>
-      <c r="DG28" s="47"/>
-      <c r="DH28" s="47"/>
-      <c r="DI28" s="47"/>
-      <c r="DJ28" s="47"/>
-      <c r="DK28" s="47"/>
-      <c r="DL28" s="47"/>
-      <c r="DM28" s="93"/>
-      <c r="DN28" s="92"/>
-      <c r="DO28" s="47"/>
-      <c r="DP28" s="47"/>
-      <c r="DQ28" s="47"/>
-      <c r="DR28" s="47"/>
-      <c r="DS28" s="47"/>
-      <c r="DT28" s="47"/>
-      <c r="DU28" s="47"/>
-      <c r="DV28" s="47"/>
-      <c r="DW28" s="47"/>
-      <c r="DX28" s="47"/>
-      <c r="DY28" s="47"/>
-      <c r="DZ28" s="47"/>
-      <c r="EA28" s="47"/>
-      <c r="EB28" s="47"/>
-      <c r="EC28" s="93"/>
-      <c r="ED28" s="92"/>
-      <c r="EE28" s="47"/>
-      <c r="EF28" s="47"/>
-      <c r="EG28" s="47"/>
-      <c r="EH28" s="47"/>
-      <c r="EI28" s="47"/>
-      <c r="EJ28" s="47"/>
-      <c r="EK28" s="47"/>
-      <c r="EL28" s="47"/>
-      <c r="EM28" s="47"/>
-      <c r="EN28" s="47"/>
-      <c r="EO28" s="47"/>
-      <c r="EP28" s="47"/>
-      <c r="EQ28" s="47"/>
-      <c r="ER28" s="47"/>
-      <c r="ES28" s="93"/>
-      <c r="ET28" s="92"/>
-      <c r="EU28" s="47"/>
-      <c r="EV28" s="47"/>
-      <c r="EW28" s="47"/>
-      <c r="EX28" s="47"/>
-      <c r="EY28" s="47"/>
-      <c r="EZ28" s="47"/>
-      <c r="FA28" s="47"/>
-      <c r="FB28" s="47"/>
-      <c r="FC28" s="47"/>
-      <c r="FD28" s="47"/>
-      <c r="FE28" s="47"/>
-      <c r="FF28" s="47"/>
-      <c r="FG28" s="47"/>
-      <c r="FH28" s="47"/>
-      <c r="FI28" s="93"/>
+      <c r="A28" s="49"/>
+      <c r="B28" s="44"/>
+      <c r="C28" s="44"/>
+      <c r="D28" s="44"/>
+      <c r="E28" s="44"/>
+      <c r="F28" s="44"/>
+      <c r="G28" s="44"/>
+      <c r="H28" s="50"/>
+      <c r="I28" s="49"/>
+      <c r="J28" s="44"/>
+      <c r="K28" s="44"/>
+      <c r="L28" s="44"/>
+      <c r="M28" s="44"/>
+      <c r="N28" s="44"/>
+      <c r="O28" s="44"/>
+      <c r="P28" s="44"/>
+      <c r="Q28" s="50"/>
+      <c r="R28" s="49"/>
+      <c r="S28" s="44"/>
+      <c r="T28" s="44"/>
+      <c r="U28" s="44"/>
+      <c r="V28" s="44"/>
+      <c r="W28" s="44"/>
+      <c r="X28" s="44"/>
+      <c r="Y28" s="44"/>
+      <c r="Z28" s="44"/>
+      <c r="AA28" s="44"/>
+      <c r="AB28" s="44"/>
+      <c r="AC28" s="44"/>
+      <c r="AD28" s="44"/>
+      <c r="AE28" s="44"/>
+      <c r="AF28" s="44"/>
+      <c r="AG28" s="44"/>
+      <c r="AH28" s="44"/>
+      <c r="AI28" s="44"/>
+      <c r="AJ28" s="44"/>
+      <c r="AK28" s="44"/>
+      <c r="AL28" s="44"/>
+      <c r="AM28" s="44"/>
+      <c r="AN28" s="44"/>
+      <c r="AO28" s="44"/>
+      <c r="AP28" s="44"/>
+      <c r="AQ28" s="44"/>
+      <c r="AR28" s="44"/>
+      <c r="AS28" s="44"/>
+      <c r="AT28" s="44"/>
+      <c r="AU28" s="44"/>
+      <c r="AV28" s="44"/>
+      <c r="AW28" s="44"/>
+      <c r="AX28" s="44"/>
+      <c r="AY28" s="44"/>
+      <c r="AZ28" s="44"/>
+      <c r="BA28" s="44"/>
+      <c r="BB28" s="44"/>
+      <c r="BC28" s="44"/>
+      <c r="BD28" s="44"/>
+      <c r="BE28" s="44"/>
+      <c r="BF28" s="44"/>
+      <c r="BG28" s="44"/>
+      <c r="BH28" s="44"/>
+      <c r="BI28" s="44"/>
+      <c r="BJ28" s="44"/>
+      <c r="BK28" s="44"/>
+      <c r="BL28" s="44"/>
+      <c r="BM28" s="44"/>
+      <c r="BN28" s="44"/>
+      <c r="BO28" s="44"/>
+      <c r="BP28" s="44"/>
+      <c r="BQ28" s="44"/>
+      <c r="BR28" s="44"/>
+      <c r="BS28" s="44"/>
+      <c r="BT28" s="44"/>
+      <c r="BU28" s="44"/>
+      <c r="BV28" s="44"/>
+      <c r="BW28" s="44"/>
+      <c r="BX28" s="44"/>
+      <c r="BY28" s="44"/>
+      <c r="BZ28" s="44"/>
+      <c r="CA28" s="44"/>
+      <c r="CB28" s="44"/>
+      <c r="CC28" s="44"/>
+      <c r="CD28" s="44"/>
+      <c r="CE28" s="44"/>
+      <c r="CF28" s="44"/>
+      <c r="CG28" s="44"/>
+      <c r="CH28" s="44"/>
+      <c r="CI28" s="44"/>
+      <c r="CJ28" s="44"/>
+      <c r="CK28" s="44"/>
+      <c r="CL28" s="44"/>
+      <c r="CM28" s="44"/>
+      <c r="CN28" s="44"/>
+      <c r="CO28" s="50"/>
+      <c r="CP28" s="49"/>
+      <c r="CQ28" s="44"/>
+      <c r="CR28" s="44"/>
+      <c r="CS28" s="44"/>
+      <c r="CT28" s="44"/>
+      <c r="CU28" s="44"/>
+      <c r="CV28" s="44"/>
+      <c r="CW28" s="44"/>
+      <c r="CX28" s="44"/>
+      <c r="CY28" s="44"/>
+      <c r="CZ28" s="44"/>
+      <c r="DA28" s="50"/>
+      <c r="DB28" s="49"/>
+      <c r="DC28" s="44"/>
+      <c r="DD28" s="44"/>
+      <c r="DE28" s="44"/>
+      <c r="DF28" s="44"/>
+      <c r="DG28" s="44"/>
+      <c r="DH28" s="44"/>
+      <c r="DI28" s="44"/>
+      <c r="DJ28" s="44"/>
+      <c r="DK28" s="44"/>
+      <c r="DL28" s="44"/>
+      <c r="DM28" s="50"/>
+      <c r="DN28" s="49"/>
+      <c r="DO28" s="44"/>
+      <c r="DP28" s="44"/>
+      <c r="DQ28" s="44"/>
+      <c r="DR28" s="44"/>
+      <c r="DS28" s="44"/>
+      <c r="DT28" s="44"/>
+      <c r="DU28" s="44"/>
+      <c r="DV28" s="44"/>
+      <c r="DW28" s="44"/>
+      <c r="DX28" s="44"/>
+      <c r="DY28" s="44"/>
+      <c r="DZ28" s="44"/>
+      <c r="EA28" s="44"/>
+      <c r="EB28" s="44"/>
+      <c r="EC28" s="50"/>
+      <c r="ED28" s="49"/>
+      <c r="EE28" s="44"/>
+      <c r="EF28" s="44"/>
+      <c r="EG28" s="44"/>
+      <c r="EH28" s="44"/>
+      <c r="EI28" s="44"/>
+      <c r="EJ28" s="44"/>
+      <c r="EK28" s="44"/>
+      <c r="EL28" s="44"/>
+      <c r="EM28" s="44"/>
+      <c r="EN28" s="44"/>
+      <c r="EO28" s="44"/>
+      <c r="EP28" s="44"/>
+      <c r="EQ28" s="44"/>
+      <c r="ER28" s="44"/>
+      <c r="ES28" s="50"/>
+      <c r="ET28" s="49"/>
+      <c r="EU28" s="44"/>
+      <c r="EV28" s="44"/>
+      <c r="EW28" s="44"/>
+      <c r="EX28" s="44"/>
+      <c r="EY28" s="44"/>
+      <c r="EZ28" s="44"/>
+      <c r="FA28" s="44"/>
+      <c r="FB28" s="44"/>
+      <c r="FC28" s="44"/>
+      <c r="FD28" s="44"/>
+      <c r="FE28" s="44"/>
+      <c r="FF28" s="44"/>
+      <c r="FG28" s="44"/>
+      <c r="FH28" s="44"/>
+      <c r="FI28" s="50"/>
     </row>
     <row r="29" spans="1:702" x14ac:dyDescent="0.2">
-      <c r="A29" s="94">
+      <c r="A29" s="51">
         <v>1</v>
       </c>
-      <c r="B29" s="95"/>
-      <c r="C29" s="95"/>
-      <c r="D29" s="95"/>
-      <c r="E29" s="95"/>
-      <c r="F29" s="95"/>
-      <c r="G29" s="95"/>
-      <c r="H29" s="96"/>
-      <c r="I29" s="94">
+      <c r="B29" s="52"/>
+      <c r="C29" s="52"/>
+      <c r="D29" s="52"/>
+      <c r="E29" s="52"/>
+      <c r="F29" s="52"/>
+      <c r="G29" s="52"/>
+      <c r="H29" s="53"/>
+      <c r="I29" s="51">
         <v>2</v>
       </c>
-      <c r="J29" s="95"/>
-      <c r="K29" s="95"/>
-      <c r="L29" s="95"/>
-      <c r="M29" s="95"/>
-      <c r="N29" s="95"/>
-      <c r="O29" s="95"/>
-      <c r="P29" s="95"/>
-      <c r="Q29" s="96"/>
-      <c r="R29" s="94">
+      <c r="J29" s="52"/>
+      <c r="K29" s="52"/>
+      <c r="L29" s="52"/>
+      <c r="M29" s="52"/>
+      <c r="N29" s="52"/>
+      <c r="O29" s="52"/>
+      <c r="P29" s="52"/>
+      <c r="Q29" s="53"/>
+      <c r="R29" s="51">
         <v>3</v>
       </c>
-      <c r="S29" s="95"/>
-      <c r="T29" s="95"/>
-      <c r="U29" s="95"/>
-      <c r="V29" s="95"/>
-      <c r="W29" s="95"/>
-      <c r="X29" s="95"/>
-      <c r="Y29" s="95"/>
-      <c r="Z29" s="95"/>
-      <c r="AA29" s="95"/>
-      <c r="AB29" s="95"/>
-      <c r="AC29" s="95"/>
-      <c r="AD29" s="95"/>
-      <c r="AE29" s="95"/>
-      <c r="AF29" s="95"/>
-      <c r="AG29" s="95"/>
-      <c r="AH29" s="95"/>
-      <c r="AI29" s="95"/>
-      <c r="AJ29" s="95"/>
-      <c r="AK29" s="95"/>
-      <c r="AL29" s="95"/>
-      <c r="AM29" s="95"/>
-      <c r="AN29" s="95"/>
-      <c r="AO29" s="95"/>
-      <c r="AP29" s="95"/>
-      <c r="AQ29" s="95"/>
-      <c r="AR29" s="95"/>
-      <c r="AS29" s="95"/>
-      <c r="AT29" s="95"/>
-      <c r="AU29" s="95"/>
-      <c r="AV29" s="95"/>
-      <c r="AW29" s="95"/>
-      <c r="AX29" s="95"/>
-      <c r="AY29" s="95"/>
-      <c r="AZ29" s="95"/>
-      <c r="BA29" s="95"/>
-      <c r="BB29" s="95"/>
-      <c r="BC29" s="95"/>
-      <c r="BD29" s="95"/>
-      <c r="BE29" s="95"/>
-      <c r="BF29" s="95"/>
-      <c r="BG29" s="95"/>
-      <c r="BH29" s="95"/>
-      <c r="BI29" s="95"/>
-      <c r="BJ29" s="95"/>
-      <c r="BK29" s="95"/>
-      <c r="BL29" s="95"/>
-      <c r="BM29" s="95"/>
-      <c r="BN29" s="95"/>
-      <c r="BO29" s="95"/>
-      <c r="BP29" s="95"/>
-      <c r="BQ29" s="95"/>
-      <c r="BR29" s="95"/>
-      <c r="BS29" s="95"/>
-      <c r="BT29" s="95"/>
-      <c r="BU29" s="95"/>
-      <c r="BV29" s="95"/>
-      <c r="BW29" s="95"/>
-      <c r="BX29" s="95"/>
-      <c r="BY29" s="95"/>
-      <c r="BZ29" s="95"/>
-      <c r="CA29" s="95"/>
-      <c r="CB29" s="95"/>
-      <c r="CC29" s="95"/>
-      <c r="CD29" s="95"/>
-      <c r="CE29" s="95"/>
-      <c r="CF29" s="95"/>
-      <c r="CG29" s="95"/>
-      <c r="CH29" s="95"/>
-      <c r="CI29" s="95"/>
-      <c r="CJ29" s="95"/>
-      <c r="CK29" s="95"/>
-      <c r="CL29" s="95"/>
-      <c r="CM29" s="95"/>
-      <c r="CN29" s="95"/>
-      <c r="CO29" s="96"/>
-      <c r="CP29" s="94">
+      <c r="S29" s="52"/>
+      <c r="T29" s="52"/>
+      <c r="U29" s="52"/>
+      <c r="V29" s="52"/>
+      <c r="W29" s="52"/>
+      <c r="X29" s="52"/>
+      <c r="Y29" s="52"/>
+      <c r="Z29" s="52"/>
+      <c r="AA29" s="52"/>
+      <c r="AB29" s="52"/>
+      <c r="AC29" s="52"/>
+      <c r="AD29" s="52"/>
+      <c r="AE29" s="52"/>
+      <c r="AF29" s="52"/>
+      <c r="AG29" s="52"/>
+      <c r="AH29" s="52"/>
+      <c r="AI29" s="52"/>
+      <c r="AJ29" s="52"/>
+      <c r="AK29" s="52"/>
+      <c r="AL29" s="52"/>
+      <c r="AM29" s="52"/>
+      <c r="AN29" s="52"/>
+      <c r="AO29" s="52"/>
+      <c r="AP29" s="52"/>
+      <c r="AQ29" s="52"/>
+      <c r="AR29" s="52"/>
+      <c r="AS29" s="52"/>
+      <c r="AT29" s="52"/>
+      <c r="AU29" s="52"/>
+      <c r="AV29" s="52"/>
+      <c r="AW29" s="52"/>
+      <c r="AX29" s="52"/>
+      <c r="AY29" s="52"/>
+      <c r="AZ29" s="52"/>
+      <c r="BA29" s="52"/>
+      <c r="BB29" s="52"/>
+      <c r="BC29" s="52"/>
+      <c r="BD29" s="52"/>
+      <c r="BE29" s="52"/>
+      <c r="BF29" s="52"/>
+      <c r="BG29" s="52"/>
+      <c r="BH29" s="52"/>
+      <c r="BI29" s="52"/>
+      <c r="BJ29" s="52"/>
+      <c r="BK29" s="52"/>
+      <c r="BL29" s="52"/>
+      <c r="BM29" s="52"/>
+      <c r="BN29" s="52"/>
+      <c r="BO29" s="52"/>
+      <c r="BP29" s="52"/>
+      <c r="BQ29" s="52"/>
+      <c r="BR29" s="52"/>
+      <c r="BS29" s="52"/>
+      <c r="BT29" s="52"/>
+      <c r="BU29" s="52"/>
+      <c r="BV29" s="52"/>
+      <c r="BW29" s="52"/>
+      <c r="BX29" s="52"/>
+      <c r="BY29" s="52"/>
+      <c r="BZ29" s="52"/>
+      <c r="CA29" s="52"/>
+      <c r="CB29" s="52"/>
+      <c r="CC29" s="52"/>
+      <c r="CD29" s="52"/>
+      <c r="CE29" s="52"/>
+      <c r="CF29" s="52"/>
+      <c r="CG29" s="52"/>
+      <c r="CH29" s="52"/>
+      <c r="CI29" s="52"/>
+      <c r="CJ29" s="52"/>
+      <c r="CK29" s="52"/>
+      <c r="CL29" s="52"/>
+      <c r="CM29" s="52"/>
+      <c r="CN29" s="52"/>
+      <c r="CO29" s="53"/>
+      <c r="CP29" s="51">
         <v>4</v>
       </c>
-      <c r="CQ29" s="95"/>
-      <c r="CR29" s="95"/>
-      <c r="CS29" s="95"/>
-      <c r="CT29" s="95"/>
-      <c r="CU29" s="95"/>
-      <c r="CV29" s="95"/>
-      <c r="CW29" s="95"/>
-      <c r="CX29" s="95"/>
-      <c r="CY29" s="95"/>
-      <c r="CZ29" s="95"/>
-      <c r="DA29" s="96"/>
-      <c r="DB29" s="94">
+      <c r="CQ29" s="52"/>
+      <c r="CR29" s="52"/>
+      <c r="CS29" s="52"/>
+      <c r="CT29" s="52"/>
+      <c r="CU29" s="52"/>
+      <c r="CV29" s="52"/>
+      <c r="CW29" s="52"/>
+      <c r="CX29" s="52"/>
+      <c r="CY29" s="52"/>
+      <c r="CZ29" s="52"/>
+      <c r="DA29" s="53"/>
+      <c r="DB29" s="51">
         <v>5</v>
       </c>
-      <c r="DC29" s="95"/>
-      <c r="DD29" s="95"/>
-      <c r="DE29" s="95"/>
-      <c r="DF29" s="95"/>
-      <c r="DG29" s="95"/>
-      <c r="DH29" s="95"/>
-      <c r="DI29" s="95"/>
-      <c r="DJ29" s="95"/>
-      <c r="DK29" s="95"/>
-      <c r="DL29" s="95"/>
-      <c r="DM29" s="96"/>
-      <c r="DN29" s="94">
+      <c r="DC29" s="52"/>
+      <c r="DD29" s="52"/>
+      <c r="DE29" s="52"/>
+      <c r="DF29" s="52"/>
+      <c r="DG29" s="52"/>
+      <c r="DH29" s="52"/>
+      <c r="DI29" s="52"/>
+      <c r="DJ29" s="52"/>
+      <c r="DK29" s="52"/>
+      <c r="DL29" s="52"/>
+      <c r="DM29" s="53"/>
+      <c r="DN29" s="51">
         <v>6</v>
       </c>
-      <c r="DO29" s="95"/>
-      <c r="DP29" s="95"/>
-      <c r="DQ29" s="95"/>
-      <c r="DR29" s="95"/>
-      <c r="DS29" s="95"/>
-      <c r="DT29" s="95"/>
-      <c r="DU29" s="95"/>
-      <c r="DV29" s="95"/>
-      <c r="DW29" s="95"/>
-      <c r="DX29" s="95"/>
-      <c r="DY29" s="95"/>
-      <c r="DZ29" s="95"/>
-      <c r="EA29" s="95"/>
-      <c r="EB29" s="95"/>
-      <c r="EC29" s="96"/>
-      <c r="ED29" s="94">
+      <c r="DO29" s="52"/>
+      <c r="DP29" s="52"/>
+      <c r="DQ29" s="52"/>
+      <c r="DR29" s="52"/>
+      <c r="DS29" s="52"/>
+      <c r="DT29" s="52"/>
+      <c r="DU29" s="52"/>
+      <c r="DV29" s="52"/>
+      <c r="DW29" s="52"/>
+      <c r="DX29" s="52"/>
+      <c r="DY29" s="52"/>
+      <c r="DZ29" s="52"/>
+      <c r="EA29" s="52"/>
+      <c r="EB29" s="52"/>
+      <c r="EC29" s="53"/>
+      <c r="ED29" s="51">
         <v>7</v>
       </c>
-      <c r="EE29" s="95"/>
-      <c r="EF29" s="95"/>
-      <c r="EG29" s="95"/>
-      <c r="EH29" s="95"/>
-      <c r="EI29" s="95"/>
-      <c r="EJ29" s="95"/>
-      <c r="EK29" s="95"/>
-      <c r="EL29" s="95"/>
-      <c r="EM29" s="95"/>
-      <c r="EN29" s="95"/>
-      <c r="EO29" s="95"/>
-      <c r="EP29" s="95"/>
-      <c r="EQ29" s="95"/>
-      <c r="ER29" s="95"/>
-      <c r="ES29" s="96"/>
-      <c r="ET29" s="94">
+      <c r="EE29" s="52"/>
+      <c r="EF29" s="52"/>
+      <c r="EG29" s="52"/>
+      <c r="EH29" s="52"/>
+      <c r="EI29" s="52"/>
+      <c r="EJ29" s="52"/>
+      <c r="EK29" s="52"/>
+      <c r="EL29" s="52"/>
+      <c r="EM29" s="52"/>
+      <c r="EN29" s="52"/>
+      <c r="EO29" s="52"/>
+      <c r="EP29" s="52"/>
+      <c r="EQ29" s="52"/>
+      <c r="ER29" s="52"/>
+      <c r="ES29" s="53"/>
+      <c r="ET29" s="51">
         <v>8</v>
       </c>
-      <c r="EU29" s="95"/>
-      <c r="EV29" s="95"/>
-      <c r="EW29" s="95"/>
-      <c r="EX29" s="95"/>
-      <c r="EY29" s="95"/>
-      <c r="EZ29" s="95"/>
-      <c r="FA29" s="95"/>
-      <c r="FB29" s="95"/>
-      <c r="FC29" s="95"/>
-      <c r="FD29" s="95"/>
-      <c r="FE29" s="95"/>
-      <c r="FF29" s="95"/>
-      <c r="FG29" s="95"/>
-      <c r="FH29" s="95"/>
-      <c r="FI29" s="96"/>
+      <c r="EU29" s="52"/>
+      <c r="EV29" s="52"/>
+      <c r="EW29" s="52"/>
+      <c r="EX29" s="52"/>
+      <c r="EY29" s="52"/>
+      <c r="EZ29" s="52"/>
+      <c r="FA29" s="52"/>
+      <c r="FB29" s="52"/>
+      <c r="FC29" s="52"/>
+      <c r="FD29" s="52"/>
+      <c r="FE29" s="52"/>
+      <c r="FF29" s="52"/>
+      <c r="FG29" s="52"/>
+      <c r="FH29" s="52"/>
+      <c r="FI29" s="53"/>
     </row>
     <row r="30" spans="1:702" x14ac:dyDescent="0.2">
       <c r="A30" s="27" t="s">
@@ -5201,7 +5216,7 @@
       <c r="P33" s="9"/>
       <c r="Q33" s="10"/>
       <c r="R33" s="14" t="s">
-        <v>91</v>
+        <v>155</v>
       </c>
       <c r="S33" s="23"/>
       <c r="T33" s="23"/>
@@ -5321,7 +5336,7 @@
       <c r="EB33" s="25"/>
       <c r="EC33" s="26"/>
       <c r="ED33" s="20" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="EE33" s="25"/>
       <c r="EF33" s="25"/>
@@ -5339,7 +5354,7 @@
       <c r="ER33" s="25"/>
       <c r="ES33" s="26"/>
       <c r="ET33" s="20" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="EU33" s="25"/>
       <c r="EV33" s="25"/>
@@ -6100,7 +6115,7 @@
       <c r="P38" s="9"/>
       <c r="Q38" s="10"/>
       <c r="R38" s="14" t="s">
-        <v>91</v>
+        <v>156</v>
       </c>
       <c r="S38" s="23"/>
       <c r="T38" s="23"/>
@@ -6220,7 +6235,7 @@
       <c r="EB38" s="25"/>
       <c r="EC38" s="26"/>
       <c r="ED38" s="20" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="EE38" s="25"/>
       <c r="EF38" s="25"/>
@@ -6238,7 +6253,7 @@
       <c r="ER38" s="25"/>
       <c r="ES38" s="26"/>
       <c r="ET38" s="20" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="EU38" s="25"/>
       <c r="EV38" s="25"/>
@@ -6437,7 +6452,7 @@
     </row>
     <row r="40" spans="1:702" x14ac:dyDescent="0.2">
       <c r="A40" s="27" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B40" s="28"/>
       <c r="C40" s="28"/>
@@ -6610,7 +6625,7 @@
     </row>
     <row r="41" spans="1:702" x14ac:dyDescent="0.2">
       <c r="A41" s="8" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B41" s="9"/>
       <c r="C41" s="9"/>
@@ -6620,7 +6635,7 @@
       <c r="G41" s="9"/>
       <c r="H41" s="10"/>
       <c r="I41" s="11" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="J41" s="12"/>
       <c r="K41" s="12"/>
@@ -6631,7 +6646,7 @@
       <c r="P41" s="12"/>
       <c r="Q41" s="13"/>
       <c r="R41" s="14" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="S41" s="15"/>
       <c r="T41" s="15"/>
@@ -6721,7 +6736,7 @@
       <c r="CZ41" s="18"/>
       <c r="DA41" s="19"/>
       <c r="DB41" s="17" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="DC41" s="18"/>
       <c r="DD41" s="18"/>
@@ -6735,7 +6750,7 @@
       <c r="DL41" s="18"/>
       <c r="DM41" s="19"/>
       <c r="DN41" s="20" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="DO41" s="21"/>
       <c r="DP41" s="21"/>
@@ -6753,7 +6768,7 @@
       <c r="EB41" s="21"/>
       <c r="EC41" s="22"/>
       <c r="ED41" s="20" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="EE41" s="21"/>
       <c r="EF41" s="21"/>
@@ -6771,7 +6786,7 @@
       <c r="ER41" s="21"/>
       <c r="ES41" s="22"/>
       <c r="ET41" s="20" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="EU41" s="21"/>
       <c r="EV41" s="21"/>
@@ -6795,7 +6810,7 @@
     </row>
     <row r="42" spans="1:702" x14ac:dyDescent="0.2">
       <c r="A42" s="8" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B42" s="9"/>
       <c r="C42" s="9"/>
@@ -6805,7 +6820,7 @@
       <c r="G42" s="9"/>
       <c r="H42" s="10"/>
       <c r="I42" s="11" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="J42" s="12"/>
       <c r="K42" s="12"/>
@@ -6816,7 +6831,7 @@
       <c r="P42" s="12"/>
       <c r="Q42" s="13"/>
       <c r="R42" s="14" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="S42" s="15"/>
       <c r="T42" s="15"/>
@@ -6906,7 +6921,7 @@
       <c r="CZ42" s="18"/>
       <c r="DA42" s="19"/>
       <c r="DB42" s="17" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="DC42" s="18"/>
       <c r="DD42" s="18"/>
@@ -6920,7 +6935,7 @@
       <c r="DL42" s="18"/>
       <c r="DM42" s="19"/>
       <c r="DN42" s="20" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="DO42" s="21"/>
       <c r="DP42" s="21"/>
@@ -6938,7 +6953,7 @@
       <c r="EB42" s="21"/>
       <c r="EC42" s="22"/>
       <c r="ED42" s="20" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="EE42" s="21"/>
       <c r="EF42" s="21"/>
@@ -6956,7 +6971,7 @@
       <c r="ER42" s="21"/>
       <c r="ES42" s="22"/>
       <c r="ET42" s="20" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="EU42" s="21"/>
       <c r="EV42" s="21"/>
@@ -6997,7 +7012,7 @@
       <c r="P43" s="9"/>
       <c r="Q43" s="10"/>
       <c r="R43" s="14" t="s">
-        <v>91</v>
+        <v>157</v>
       </c>
       <c r="S43" s="23"/>
       <c r="T43" s="23"/>
@@ -7117,7 +7132,7 @@
       <c r="EB43" s="25"/>
       <c r="EC43" s="26"/>
       <c r="ED43" s="20" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="EE43" s="25"/>
       <c r="EF43" s="25"/>
@@ -7135,7 +7150,7 @@
       <c r="ER43" s="25"/>
       <c r="ES43" s="26"/>
       <c r="ET43" s="20" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="EU43" s="25"/>
       <c r="EV43" s="25"/>
@@ -7310,7 +7325,7 @@
       <c r="ER44" s="5"/>
       <c r="ES44" s="6"/>
       <c r="ET44" s="7" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="EU44" s="5"/>
       <c r="EV44" s="5"/>
@@ -7334,7 +7349,7 @@
     </row>
     <row r="45" spans="1:702" x14ac:dyDescent="0.2">
       <c r="A45" s="27" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B45" s="28"/>
       <c r="C45" s="28"/>
@@ -7507,7 +7522,7 @@
     </row>
     <row r="46" spans="1:702" x14ac:dyDescent="0.2">
       <c r="A46" s="8" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B46" s="9"/>
       <c r="C46" s="9"/>
@@ -7517,7 +7532,7 @@
       <c r="G46" s="9"/>
       <c r="H46" s="10"/>
       <c r="I46" s="11" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="J46" s="12"/>
       <c r="K46" s="12"/>
@@ -7528,7 +7543,7 @@
       <c r="P46" s="12"/>
       <c r="Q46" s="13"/>
       <c r="R46" s="14" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="S46" s="15"/>
       <c r="T46" s="15"/>
@@ -7618,7 +7633,7 @@
       <c r="CZ46" s="18"/>
       <c r="DA46" s="19"/>
       <c r="DB46" s="17" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="DC46" s="18"/>
       <c r="DD46" s="18"/>
@@ -7632,7 +7647,7 @@
       <c r="DL46" s="18"/>
       <c r="DM46" s="19"/>
       <c r="DN46" s="20" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="DO46" s="21"/>
       <c r="DP46" s="21"/>
@@ -7650,7 +7665,7 @@
       <c r="EB46" s="21"/>
       <c r="EC46" s="22"/>
       <c r="ED46" s="20" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="EE46" s="21"/>
       <c r="EF46" s="21"/>
@@ -7668,7 +7683,7 @@
       <c r="ER46" s="21"/>
       <c r="ES46" s="22"/>
       <c r="ET46" s="20" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="EU46" s="21"/>
       <c r="EV46" s="21"/>
@@ -7692,7 +7707,7 @@
     </row>
     <row r="47" spans="1:702" x14ac:dyDescent="0.2">
       <c r="A47" s="8" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B47" s="9"/>
       <c r="C47" s="9"/>
@@ -7702,7 +7717,7 @@
       <c r="G47" s="9"/>
       <c r="H47" s="10"/>
       <c r="I47" s="11" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="J47" s="12"/>
       <c r="K47" s="12"/>
@@ -7713,7 +7728,7 @@
       <c r="P47" s="12"/>
       <c r="Q47" s="13"/>
       <c r="R47" s="14" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="S47" s="15"/>
       <c r="T47" s="15"/>
@@ -7803,7 +7818,7 @@
       <c r="CZ47" s="18"/>
       <c r="DA47" s="19"/>
       <c r="DB47" s="17" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="DC47" s="18"/>
       <c r="DD47" s="18"/>
@@ -7817,7 +7832,7 @@
       <c r="DL47" s="18"/>
       <c r="DM47" s="19"/>
       <c r="DN47" s="20" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="DO47" s="21"/>
       <c r="DP47" s="21"/>
@@ -7835,7 +7850,7 @@
       <c r="EB47" s="21"/>
       <c r="EC47" s="22"/>
       <c r="ED47" s="20" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="EE47" s="21"/>
       <c r="EF47" s="21"/>
@@ -7853,7 +7868,7 @@
       <c r="ER47" s="21"/>
       <c r="ES47" s="22"/>
       <c r="ET47" s="20" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="EU47" s="21"/>
       <c r="EV47" s="21"/>
@@ -7894,7 +7909,7 @@
       <c r="P48" s="9"/>
       <c r="Q48" s="10"/>
       <c r="R48" s="14" t="s">
-        <v>91</v>
+        <v>158</v>
       </c>
       <c r="S48" s="23"/>
       <c r="T48" s="23"/>
@@ -8014,7 +8029,7 @@
       <c r="EB48" s="25"/>
       <c r="EC48" s="26"/>
       <c r="ED48" s="20" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="EE48" s="25"/>
       <c r="EF48" s="25"/>
@@ -8032,7 +8047,7 @@
       <c r="ER48" s="25"/>
       <c r="ES48" s="26"/>
       <c r="ET48" s="20" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="EU48" s="25"/>
       <c r="EV48" s="25"/>
@@ -8207,7 +8222,7 @@
       <c r="ER49" s="5"/>
       <c r="ES49" s="6"/>
       <c r="ET49" s="7" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="EU49" s="5"/>
       <c r="EV49" s="5"/>
@@ -8231,7 +8246,7 @@
     </row>
     <row r="50" spans="1:702" x14ac:dyDescent="0.2">
       <c r="A50" s="27" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B50" s="28"/>
       <c r="C50" s="28"/>
@@ -8404,7 +8419,7 @@
     </row>
     <row r="51" spans="1:702" x14ac:dyDescent="0.2">
       <c r="A51" s="8" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B51" s="9"/>
       <c r="C51" s="9"/>
@@ -8414,7 +8429,7 @@
       <c r="G51" s="9"/>
       <c r="H51" s="10"/>
       <c r="I51" s="11" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="J51" s="12"/>
       <c r="K51" s="12"/>
@@ -8425,7 +8440,7 @@
       <c r="P51" s="12"/>
       <c r="Q51" s="13"/>
       <c r="R51" s="14" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="S51" s="15"/>
       <c r="T51" s="15"/>
@@ -8515,7 +8530,7 @@
       <c r="CZ51" s="18"/>
       <c r="DA51" s="19"/>
       <c r="DB51" s="17" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="DC51" s="18"/>
       <c r="DD51" s="18"/>
@@ -8529,7 +8544,7 @@
       <c r="DL51" s="18"/>
       <c r="DM51" s="19"/>
       <c r="DN51" s="20" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="DO51" s="21"/>
       <c r="DP51" s="21"/>
@@ -8547,7 +8562,7 @@
       <c r="EB51" s="21"/>
       <c r="EC51" s="22"/>
       <c r="ED51" s="20" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="EE51" s="21"/>
       <c r="EF51" s="21"/>
@@ -8565,7 +8580,7 @@
       <c r="ER51" s="21"/>
       <c r="ES51" s="22"/>
       <c r="ET51" s="20" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="EU51" s="21"/>
       <c r="EV51" s="21"/>
@@ -8589,7 +8604,7 @@
     </row>
     <row r="52" spans="1:702" x14ac:dyDescent="0.2">
       <c r="A52" s="8" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B52" s="9"/>
       <c r="C52" s="9"/>
@@ -8599,7 +8614,7 @@
       <c r="G52" s="9"/>
       <c r="H52" s="10"/>
       <c r="I52" s="11" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="J52" s="12"/>
       <c r="K52" s="12"/>
@@ -8610,7 +8625,7 @@
       <c r="P52" s="12"/>
       <c r="Q52" s="13"/>
       <c r="R52" s="14" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="S52" s="15"/>
       <c r="T52" s="15"/>
@@ -8700,7 +8715,7 @@
       <c r="CZ52" s="18"/>
       <c r="DA52" s="19"/>
       <c r="DB52" s="17" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="DC52" s="18"/>
       <c r="DD52" s="18"/>
@@ -8714,7 +8729,7 @@
       <c r="DL52" s="18"/>
       <c r="DM52" s="19"/>
       <c r="DN52" s="20" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="DO52" s="21"/>
       <c r="DP52" s="21"/>
@@ -8732,7 +8747,7 @@
       <c r="EB52" s="21"/>
       <c r="EC52" s="22"/>
       <c r="ED52" s="20" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="EE52" s="21"/>
       <c r="EF52" s="21"/>
@@ -8750,7 +8765,7 @@
       <c r="ER52" s="21"/>
       <c r="ES52" s="22"/>
       <c r="ET52" s="20" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="EU52" s="21"/>
       <c r="EV52" s="21"/>
@@ -8791,7 +8806,7 @@
       <c r="P53" s="9"/>
       <c r="Q53" s="10"/>
       <c r="R53" s="14" t="s">
-        <v>91</v>
+        <v>159</v>
       </c>
       <c r="S53" s="23"/>
       <c r="T53" s="23"/>
@@ -8911,7 +8926,7 @@
       <c r="EB53" s="25"/>
       <c r="EC53" s="26"/>
       <c r="ED53" s="20" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="EE53" s="25"/>
       <c r="EF53" s="25"/>
@@ -8929,7 +8944,7 @@
       <c r="ER53" s="25"/>
       <c r="ES53" s="26"/>
       <c r="ET53" s="20" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="EU53" s="25"/>
       <c r="EV53" s="25"/>
@@ -9104,7 +9119,7 @@
       <c r="ER54" s="5"/>
       <c r="ES54" s="6"/>
       <c r="ET54" s="7" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="EU54" s="5"/>
       <c r="EV54" s="5"/>
@@ -9128,7 +9143,7 @@
     </row>
     <row r="55" spans="1:702" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A55" s="27" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B55" s="28"/>
       <c r="C55" s="28"/>
@@ -9301,7 +9316,7 @@
     </row>
     <row r="56" spans="1:702" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A56" s="8" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B56" s="9"/>
       <c r="C56" s="9"/>
@@ -9311,7 +9326,7 @@
       <c r="G56" s="9"/>
       <c r="H56" s="10"/>
       <c r="I56" s="11" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="J56" s="12"/>
       <c r="K56" s="12"/>
@@ -9322,7 +9337,7 @@
       <c r="P56" s="12"/>
       <c r="Q56" s="13"/>
       <c r="R56" s="14" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="S56" s="15"/>
       <c r="T56" s="15"/>
@@ -9412,7 +9427,7 @@
       <c r="CZ56" s="18"/>
       <c r="DA56" s="19"/>
       <c r="DB56" s="17" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="DC56" s="18"/>
       <c r="DD56" s="18"/>
@@ -9426,7 +9441,7 @@
       <c r="DL56" s="18"/>
       <c r="DM56" s="19"/>
       <c r="DN56" s="20" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="DO56" s="21"/>
       <c r="DP56" s="21"/>
@@ -9444,7 +9459,7 @@
       <c r="EB56" s="21"/>
       <c r="EC56" s="22"/>
       <c r="ED56" s="20" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="EE56" s="21"/>
       <c r="EF56" s="21"/>
@@ -9462,7 +9477,7 @@
       <c r="ER56" s="21"/>
       <c r="ES56" s="22"/>
       <c r="ET56" s="20" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="EU56" s="21"/>
       <c r="EV56" s="21"/>
@@ -9486,7 +9501,7 @@
     </row>
     <row r="57" spans="1:702" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A57" s="8" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B57" s="9"/>
       <c r="C57" s="9"/>
@@ -9496,7 +9511,7 @@
       <c r="G57" s="9"/>
       <c r="H57" s="10"/>
       <c r="I57" s="11" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="J57" s="12"/>
       <c r="K57" s="12"/>
@@ -9507,7 +9522,7 @@
       <c r="P57" s="12"/>
       <c r="Q57" s="13"/>
       <c r="R57" s="14" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="S57" s="15"/>
       <c r="T57" s="15"/>
@@ -9597,7 +9612,7 @@
       <c r="CZ57" s="18"/>
       <c r="DA57" s="19"/>
       <c r="DB57" s="17" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="DC57" s="18"/>
       <c r="DD57" s="18"/>
@@ -9611,7 +9626,7 @@
       <c r="DL57" s="18"/>
       <c r="DM57" s="19"/>
       <c r="DN57" s="20" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="DO57" s="21"/>
       <c r="DP57" s="21"/>
@@ -9629,7 +9644,7 @@
       <c r="EB57" s="21"/>
       <c r="EC57" s="22"/>
       <c r="ED57" s="20" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="EE57" s="21"/>
       <c r="EF57" s="21"/>
@@ -9647,7 +9662,7 @@
       <c r="ER57" s="21"/>
       <c r="ES57" s="22"/>
       <c r="ET57" s="20" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="EU57" s="21"/>
       <c r="EV57" s="21"/>
@@ -9688,7 +9703,7 @@
       <c r="P58" s="9"/>
       <c r="Q58" s="10"/>
       <c r="R58" s="14" t="s">
-        <v>91</v>
+        <v>160</v>
       </c>
       <c r="S58" s="23"/>
       <c r="T58" s="23"/>
@@ -9808,7 +9823,7 @@
       <c r="EB58" s="25"/>
       <c r="EC58" s="26"/>
       <c r="ED58" s="20" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="EE58" s="25"/>
       <c r="EF58" s="25"/>
@@ -9826,7 +9841,7 @@
       <c r="ER58" s="25"/>
       <c r="ES58" s="26"/>
       <c r="ET58" s="20" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="EU58" s="25"/>
       <c r="EV58" s="25"/>
@@ -10001,7 +10016,7 @@
       <c r="ER59" s="5"/>
       <c r="ES59" s="6"/>
       <c r="ET59" s="7" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="EU59" s="5"/>
       <c r="EV59" s="5"/>
@@ -10113,86 +10128,86 @@
       <c r="CM60" s="3"/>
       <c r="CN60" s="3"/>
       <c r="CO60" s="3"/>
-      <c r="CP60" s="105" t="s">
+      <c r="CP60" s="31" t="s">
         <v>47</v>
       </c>
-      <c r="CQ60" s="105"/>
-      <c r="CR60" s="105"/>
-      <c r="CS60" s="105"/>
-      <c r="CT60" s="105"/>
-      <c r="CU60" s="105"/>
-      <c r="CV60" s="105"/>
-      <c r="CW60" s="105"/>
-      <c r="CX60" s="105"/>
-      <c r="CY60" s="105"/>
-      <c r="CZ60" s="105"/>
-      <c r="DA60" s="105"/>
-      <c r="DB60" s="105"/>
-      <c r="DC60" s="105"/>
-      <c r="DD60" s="105"/>
-      <c r="DE60" s="105"/>
-      <c r="DF60" s="105"/>
-      <c r="DG60" s="105"/>
-      <c r="DH60" s="105"/>
-      <c r="DI60" s="105"/>
-      <c r="DJ60" s="105"/>
-      <c r="DK60" s="105"/>
-      <c r="DL60" s="105"/>
-      <c r="DM60" s="105"/>
-      <c r="DN60" s="106" t="s">
+      <c r="CQ60" s="31"/>
+      <c r="CR60" s="31"/>
+      <c r="CS60" s="31"/>
+      <c r="CT60" s="31"/>
+      <c r="CU60" s="31"/>
+      <c r="CV60" s="31"/>
+      <c r="CW60" s="31"/>
+      <c r="CX60" s="31"/>
+      <c r="CY60" s="31"/>
+      <c r="CZ60" s="31"/>
+      <c r="DA60" s="31"/>
+      <c r="DB60" s="31"/>
+      <c r="DC60" s="31"/>
+      <c r="DD60" s="31"/>
+      <c r="DE60" s="31"/>
+      <c r="DF60" s="31"/>
+      <c r="DG60" s="31"/>
+      <c r="DH60" s="31"/>
+      <c r="DI60" s="31"/>
+      <c r="DJ60" s="31"/>
+      <c r="DK60" s="31"/>
+      <c r="DL60" s="31"/>
+      <c r="DM60" s="31"/>
+      <c r="DN60" s="32" t="s">
         <v>48</v>
       </c>
-      <c r="DO60" s="107"/>
-      <c r="DP60" s="107"/>
-      <c r="DQ60" s="107"/>
-      <c r="DR60" s="107"/>
-      <c r="DS60" s="107"/>
-      <c r="DT60" s="107"/>
-      <c r="DU60" s="107"/>
-      <c r="DV60" s="107"/>
-      <c r="DW60" s="107"/>
-      <c r="DX60" s="107"/>
-      <c r="DY60" s="107"/>
-      <c r="DZ60" s="107"/>
-      <c r="EA60" s="107"/>
-      <c r="EB60" s="107"/>
-      <c r="EC60" s="108"/>
-      <c r="ED60" s="106" t="s">
+      <c r="DO60" s="33"/>
+      <c r="DP60" s="33"/>
+      <c r="DQ60" s="33"/>
+      <c r="DR60" s="33"/>
+      <c r="DS60" s="33"/>
+      <c r="DT60" s="33"/>
+      <c r="DU60" s="33"/>
+      <c r="DV60" s="33"/>
+      <c r="DW60" s="33"/>
+      <c r="DX60" s="33"/>
+      <c r="DY60" s="33"/>
+      <c r="DZ60" s="33"/>
+      <c r="EA60" s="33"/>
+      <c r="EB60" s="33"/>
+      <c r="EC60" s="34"/>
+      <c r="ED60" s="32" t="s">
         <v>48</v>
       </c>
-      <c r="EE60" s="107"/>
-      <c r="EF60" s="107"/>
-      <c r="EG60" s="107"/>
-      <c r="EH60" s="107"/>
-      <c r="EI60" s="107"/>
-      <c r="EJ60" s="107"/>
-      <c r="EK60" s="107"/>
-      <c r="EL60" s="107"/>
-      <c r="EM60" s="107"/>
-      <c r="EN60" s="107"/>
-      <c r="EO60" s="107"/>
-      <c r="EP60" s="107"/>
-      <c r="EQ60" s="107"/>
-      <c r="ER60" s="107"/>
-      <c r="ES60" s="108"/>
-      <c r="ET60" s="109" t="s">
-        <v>92</v>
-      </c>
-      <c r="EU60" s="110"/>
-      <c r="EV60" s="110"/>
-      <c r="EW60" s="110"/>
-      <c r="EX60" s="110"/>
-      <c r="EY60" s="110"/>
-      <c r="EZ60" s="110"/>
-      <c r="FA60" s="110"/>
-      <c r="FB60" s="110"/>
-      <c r="FC60" s="110"/>
-      <c r="FD60" s="110"/>
-      <c r="FE60" s="110"/>
-      <c r="FF60" s="110"/>
-      <c r="FG60" s="110"/>
-      <c r="FH60" s="110"/>
-      <c r="FI60" s="111"/>
+      <c r="EE60" s="33"/>
+      <c r="EF60" s="33"/>
+      <c r="EG60" s="33"/>
+      <c r="EH60" s="33"/>
+      <c r="EI60" s="33"/>
+      <c r="EJ60" s="33"/>
+      <c r="EK60" s="33"/>
+      <c r="EL60" s="33"/>
+      <c r="EM60" s="33"/>
+      <c r="EN60" s="33"/>
+      <c r="EO60" s="33"/>
+      <c r="EP60" s="33"/>
+      <c r="EQ60" s="33"/>
+      <c r="ER60" s="33"/>
+      <c r="ES60" s="34"/>
+      <c r="ET60" s="35" t="s">
+        <v>91</v>
+      </c>
+      <c r="EU60" s="36"/>
+      <c r="EV60" s="36"/>
+      <c r="EW60" s="36"/>
+      <c r="EX60" s="36"/>
+      <c r="EY60" s="36"/>
+      <c r="EZ60" s="36"/>
+      <c r="FA60" s="36"/>
+      <c r="FB60" s="36"/>
+      <c r="FC60" s="36"/>
+      <c r="FD60" s="36"/>
+      <c r="FE60" s="36"/>
+      <c r="FF60" s="36"/>
+      <c r="FG60" s="36"/>
+      <c r="FH60" s="36"/>
+      <c r="FI60" s="37"/>
     </row>
     <row r="61" spans="1:702" x14ac:dyDescent="0.2">
       <c r="A61" s="3"/>
@@ -10288,250 +10303,250 @@
       <c r="CM61" s="3"/>
       <c r="CN61" s="3"/>
       <c r="CO61" s="3"/>
-      <c r="CP61" s="105" t="s">
+      <c r="CP61" s="31" t="s">
         <v>49</v>
       </c>
-      <c r="CQ61" s="105"/>
-      <c r="CR61" s="105"/>
-      <c r="CS61" s="105"/>
-      <c r="CT61" s="105"/>
-      <c r="CU61" s="105"/>
-      <c r="CV61" s="105"/>
-      <c r="CW61" s="105"/>
-      <c r="CX61" s="105"/>
-      <c r="CY61" s="105"/>
-      <c r="CZ61" s="105"/>
-      <c r="DA61" s="105"/>
-      <c r="DB61" s="105"/>
-      <c r="DC61" s="105"/>
-      <c r="DD61" s="105"/>
-      <c r="DE61" s="105"/>
-      <c r="DF61" s="105"/>
-      <c r="DG61" s="105"/>
-      <c r="DH61" s="105"/>
-      <c r="DI61" s="105"/>
-      <c r="DJ61" s="105"/>
-      <c r="DK61" s="105"/>
-      <c r="DL61" s="105"/>
-      <c r="DM61" s="105"/>
-      <c r="DN61" s="109" t="s">
-        <v>93</v>
-      </c>
-      <c r="DO61" s="110"/>
-      <c r="DP61" s="110"/>
-      <c r="DQ61" s="110"/>
-      <c r="DR61" s="110"/>
-      <c r="DS61" s="110"/>
-      <c r="DT61" s="110"/>
-      <c r="DU61" s="110"/>
-      <c r="DV61" s="110"/>
-      <c r="DW61" s="110"/>
-      <c r="DX61" s="110"/>
-      <c r="DY61" s="110"/>
-      <c r="DZ61" s="110"/>
-      <c r="EA61" s="110"/>
-      <c r="EB61" s="110"/>
-      <c r="EC61" s="111"/>
-      <c r="ED61" s="106" t="s">
+      <c r="CQ61" s="31"/>
+      <c r="CR61" s="31"/>
+      <c r="CS61" s="31"/>
+      <c r="CT61" s="31"/>
+      <c r="CU61" s="31"/>
+      <c r="CV61" s="31"/>
+      <c r="CW61" s="31"/>
+      <c r="CX61" s="31"/>
+      <c r="CY61" s="31"/>
+      <c r="CZ61" s="31"/>
+      <c r="DA61" s="31"/>
+      <c r="DB61" s="31"/>
+      <c r="DC61" s="31"/>
+      <c r="DD61" s="31"/>
+      <c r="DE61" s="31"/>
+      <c r="DF61" s="31"/>
+      <c r="DG61" s="31"/>
+      <c r="DH61" s="31"/>
+      <c r="DI61" s="31"/>
+      <c r="DJ61" s="31"/>
+      <c r="DK61" s="31"/>
+      <c r="DL61" s="31"/>
+      <c r="DM61" s="31"/>
+      <c r="DN61" s="35" t="s">
+        <v>92</v>
+      </c>
+      <c r="DO61" s="36"/>
+      <c r="DP61" s="36"/>
+      <c r="DQ61" s="36"/>
+      <c r="DR61" s="36"/>
+      <c r="DS61" s="36"/>
+      <c r="DT61" s="36"/>
+      <c r="DU61" s="36"/>
+      <c r="DV61" s="36"/>
+      <c r="DW61" s="36"/>
+      <c r="DX61" s="36"/>
+      <c r="DY61" s="36"/>
+      <c r="DZ61" s="36"/>
+      <c r="EA61" s="36"/>
+      <c r="EB61" s="36"/>
+      <c r="EC61" s="37"/>
+      <c r="ED61" s="32" t="s">
         <v>48</v>
       </c>
-      <c r="EE61" s="107"/>
-      <c r="EF61" s="107"/>
-      <c r="EG61" s="107"/>
-      <c r="EH61" s="107"/>
-      <c r="EI61" s="107"/>
-      <c r="EJ61" s="107"/>
-      <c r="EK61" s="107"/>
-      <c r="EL61" s="107"/>
-      <c r="EM61" s="107"/>
-      <c r="EN61" s="107"/>
-      <c r="EO61" s="107"/>
-      <c r="EP61" s="107"/>
-      <c r="EQ61" s="107"/>
-      <c r="ER61" s="107"/>
-      <c r="ES61" s="108"/>
-      <c r="ET61" s="109" t="s">
+      <c r="EE61" s="33"/>
+      <c r="EF61" s="33"/>
+      <c r="EG61" s="33"/>
+      <c r="EH61" s="33"/>
+      <c r="EI61" s="33"/>
+      <c r="EJ61" s="33"/>
+      <c r="EK61" s="33"/>
+      <c r="EL61" s="33"/>
+      <c r="EM61" s="33"/>
+      <c r="EN61" s="33"/>
+      <c r="EO61" s="33"/>
+      <c r="EP61" s="33"/>
+      <c r="EQ61" s="33"/>
+      <c r="ER61" s="33"/>
+      <c r="ES61" s="34"/>
+      <c r="ET61" s="35" t="s">
         <v>74</v>
       </c>
-      <c r="EU61" s="110"/>
-      <c r="EV61" s="110"/>
-      <c r="EW61" s="110"/>
-      <c r="EX61" s="110"/>
-      <c r="EY61" s="110"/>
-      <c r="EZ61" s="110"/>
-      <c r="FA61" s="110"/>
-      <c r="FB61" s="110"/>
-      <c r="FC61" s="110"/>
-      <c r="FD61" s="110"/>
-      <c r="FE61" s="110"/>
-      <c r="FF61" s="110"/>
-      <c r="FG61" s="110"/>
-      <c r="FH61" s="110"/>
-      <c r="FI61" s="111"/>
+      <c r="EU61" s="36"/>
+      <c r="EV61" s="36"/>
+      <c r="EW61" s="36"/>
+      <c r="EX61" s="36"/>
+      <c r="EY61" s="36"/>
+      <c r="EZ61" s="36"/>
+      <c r="FA61" s="36"/>
+      <c r="FB61" s="36"/>
+      <c r="FC61" s="36"/>
+      <c r="FD61" s="36"/>
+      <c r="FE61" s="36"/>
+      <c r="FF61" s="36"/>
+      <c r="FG61" s="36"/>
+      <c r="FH61" s="36"/>
+      <c r="FI61" s="37"/>
     </row>
     <row r="62" spans="1:702" ht="8.1" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="63" spans="1:702" x14ac:dyDescent="0.2">
-      <c r="I63" s="45" t="s">
+      <c r="I63" s="39" t="s">
         <v>50</v>
       </c>
-      <c r="J63" s="45"/>
-      <c r="K63" s="45"/>
-      <c r="L63" s="45"/>
-      <c r="M63" s="45"/>
-      <c r="N63" s="45"/>
-      <c r="O63" s="45"/>
-      <c r="P63" s="45"/>
-      <c r="Q63" s="103" t="s">
+      <c r="J63" s="39"/>
+      <c r="K63" s="39"/>
+      <c r="L63" s="39"/>
+      <c r="M63" s="39"/>
+      <c r="N63" s="39"/>
+      <c r="O63" s="39"/>
+      <c r="P63" s="39"/>
+      <c r="Q63" s="43" t="s">
         <v>51</v>
       </c>
-      <c r="R63" s="47"/>
-      <c r="S63" s="47"/>
-      <c r="T63" s="47"/>
-      <c r="U63" s="47"/>
-      <c r="V63" s="47"/>
-      <c r="W63" s="47"/>
-      <c r="X63" s="47"/>
-      <c r="Y63" s="47"/>
-      <c r="Z63" s="47"/>
-      <c r="AA63" s="47"/>
-      <c r="AB63" s="47"/>
-      <c r="AC63" s="47"/>
-      <c r="AD63" s="47"/>
-      <c r="AE63" s="47"/>
-      <c r="AF63" s="47"/>
-      <c r="AG63" s="47"/>
-      <c r="AH63" s="47"/>
-      <c r="AI63" s="47"/>
-      <c r="AJ63" s="47"/>
-      <c r="AK63" s="47"/>
-      <c r="AL63" s="47"/>
-      <c r="AM63" s="47"/>
-      <c r="AN63" s="47"/>
-      <c r="AO63" s="47"/>
-      <c r="AP63" s="47"/>
-      <c r="AQ63" s="47"/>
-      <c r="AR63" s="47"/>
-      <c r="AS63" s="47"/>
-      <c r="AT63" s="47"/>
-      <c r="AU63" s="47"/>
-      <c r="AV63" s="47"/>
-      <c r="AW63" s="47"/>
-      <c r="AX63" s="47"/>
-      <c r="AY63" s="47"/>
-      <c r="AZ63" s="47"/>
-      <c r="BA63" s="47"/>
-      <c r="BC63" s="104"/>
-      <c r="BD63" s="104"/>
-      <c r="BE63" s="104"/>
-      <c r="BF63" s="104"/>
-      <c r="BG63" s="104"/>
-      <c r="BH63" s="104"/>
-      <c r="BI63" s="104"/>
-      <c r="BJ63" s="104"/>
-      <c r="BK63" s="104"/>
-      <c r="BL63" s="104"/>
-      <c r="BM63" s="104"/>
-      <c r="BN63" s="104"/>
-      <c r="BO63" s="104"/>
-      <c r="BP63" s="104"/>
-      <c r="BQ63" s="104"/>
-      <c r="BR63" s="104"/>
-      <c r="BS63" s="104"/>
-      <c r="BT63" s="104"/>
-      <c r="BU63" s="104"/>
-      <c r="BV63" s="104"/>
-      <c r="BW63" s="104"/>
-      <c r="BX63" s="104"/>
-      <c r="BY63" s="104"/>
-      <c r="BZ63" s="104"/>
-      <c r="CA63" s="104"/>
-      <c r="CB63" s="104"/>
-      <c r="CC63" s="104"/>
-      <c r="CD63" s="104"/>
-      <c r="CE63" s="104"/>
-      <c r="CF63" s="104"/>
-      <c r="CG63" s="104"/>
-      <c r="CH63" s="104"/>
-      <c r="CI63" s="104"/>
-      <c r="CK63" s="103" t="s">
+      <c r="R63" s="44"/>
+      <c r="S63" s="44"/>
+      <c r="T63" s="44"/>
+      <c r="U63" s="44"/>
+      <c r="V63" s="44"/>
+      <c r="W63" s="44"/>
+      <c r="X63" s="44"/>
+      <c r="Y63" s="44"/>
+      <c r="Z63" s="44"/>
+      <c r="AA63" s="44"/>
+      <c r="AB63" s="44"/>
+      <c r="AC63" s="44"/>
+      <c r="AD63" s="44"/>
+      <c r="AE63" s="44"/>
+      <c r="AF63" s="44"/>
+      <c r="AG63" s="44"/>
+      <c r="AH63" s="44"/>
+      <c r="AI63" s="44"/>
+      <c r="AJ63" s="44"/>
+      <c r="AK63" s="44"/>
+      <c r="AL63" s="44"/>
+      <c r="AM63" s="44"/>
+      <c r="AN63" s="44"/>
+      <c r="AO63" s="44"/>
+      <c r="AP63" s="44"/>
+      <c r="AQ63" s="44"/>
+      <c r="AR63" s="44"/>
+      <c r="AS63" s="44"/>
+      <c r="AT63" s="44"/>
+      <c r="AU63" s="44"/>
+      <c r="AV63" s="44"/>
+      <c r="AW63" s="44"/>
+      <c r="AX63" s="44"/>
+      <c r="AY63" s="44"/>
+      <c r="AZ63" s="44"/>
+      <c r="BA63" s="44"/>
+      <c r="BC63" s="45"/>
+      <c r="BD63" s="45"/>
+      <c r="BE63" s="45"/>
+      <c r="BF63" s="45"/>
+      <c r="BG63" s="45"/>
+      <c r="BH63" s="45"/>
+      <c r="BI63" s="45"/>
+      <c r="BJ63" s="45"/>
+      <c r="BK63" s="45"/>
+      <c r="BL63" s="45"/>
+      <c r="BM63" s="45"/>
+      <c r="BN63" s="45"/>
+      <c r="BO63" s="45"/>
+      <c r="BP63" s="45"/>
+      <c r="BQ63" s="45"/>
+      <c r="BR63" s="45"/>
+      <c r="BS63" s="45"/>
+      <c r="BT63" s="45"/>
+      <c r="BU63" s="45"/>
+      <c r="BV63" s="45"/>
+      <c r="BW63" s="45"/>
+      <c r="BX63" s="45"/>
+      <c r="BY63" s="45"/>
+      <c r="BZ63" s="45"/>
+      <c r="CA63" s="45"/>
+      <c r="CB63" s="45"/>
+      <c r="CC63" s="45"/>
+      <c r="CD63" s="45"/>
+      <c r="CE63" s="45"/>
+      <c r="CF63" s="45"/>
+      <c r="CG63" s="45"/>
+      <c r="CH63" s="45"/>
+      <c r="CI63" s="45"/>
+      <c r="CK63" s="43" t="s">
         <v>52</v>
       </c>
-      <c r="CL63" s="47"/>
-      <c r="CM63" s="47"/>
-      <c r="CN63" s="47"/>
-      <c r="CO63" s="47"/>
-      <c r="CP63" s="47"/>
-      <c r="CQ63" s="47"/>
-      <c r="CR63" s="47"/>
-      <c r="CS63" s="47"/>
-      <c r="CT63" s="47"/>
-      <c r="CU63" s="47"/>
-      <c r="CV63" s="47"/>
-      <c r="CW63" s="47"/>
-      <c r="CX63" s="47"/>
-      <c r="CY63" s="47"/>
-      <c r="CZ63" s="47"/>
-      <c r="DA63" s="47"/>
-      <c r="DB63" s="47"/>
-      <c r="DC63" s="47"/>
-      <c r="DD63" s="47"/>
-      <c r="DE63" s="47"/>
-      <c r="DF63" s="47"/>
-      <c r="DG63" s="47"/>
-      <c r="DH63" s="47"/>
-      <c r="DI63" s="47"/>
-      <c r="DJ63" s="47"/>
-      <c r="DK63" s="47"/>
-      <c r="DL63" s="47"/>
-      <c r="DM63" s="47"/>
-      <c r="DN63" s="47"/>
-      <c r="DO63" s="47"/>
-      <c r="DP63" s="47"/>
-      <c r="DQ63" s="47"/>
-      <c r="DR63" s="47"/>
-      <c r="DS63" s="47"/>
-      <c r="DT63" s="47"/>
-      <c r="DU63" s="47"/>
-      <c r="DV63" s="47"/>
-      <c r="DW63" s="47"/>
-      <c r="DX63" s="47"/>
-      <c r="DY63" s="47"/>
-      <c r="DZ63" s="47"/>
-      <c r="EA63" s="47"/>
-      <c r="EB63" s="47"/>
-      <c r="EC63" s="47"/>
-      <c r="ED63" s="47"/>
-      <c r="EE63" s="47"/>
-      <c r="EF63" s="47"/>
-      <c r="EG63" s="47"/>
-      <c r="EH63" s="47"/>
-      <c r="EI63" s="47"/>
-      <c r="EJ63" s="47"/>
-      <c r="EK63" s="47"/>
-      <c r="EL63" s="47"/>
-      <c r="EM63" s="47"/>
-      <c r="EN63" s="47"/>
-      <c r="EO63" s="47"/>
-      <c r="EP63" s="47"/>
-      <c r="EQ63" s="47"/>
-      <c r="ER63" s="47"/>
-      <c r="ES63" s="47"/>
-      <c r="ET63" s="47"/>
-      <c r="EU63" s="47"/>
-      <c r="EV63" s="47"/>
-      <c r="EW63" s="47"/>
-      <c r="EX63" s="47"/>
-      <c r="EY63" s="47"/>
-      <c r="EZ63" s="47"/>
-      <c r="FA63" s="47"/>
-      <c r="FB63" s="47"/>
-      <c r="FC63" s="47"/>
-      <c r="FD63" s="47"/>
-      <c r="FE63" s="47"/>
-      <c r="FF63" s="47"/>
-      <c r="FG63" s="47"/>
-      <c r="FH63" s="47"/>
-      <c r="FI63" s="47"/>
+      <c r="CL63" s="44"/>
+      <c r="CM63" s="44"/>
+      <c r="CN63" s="44"/>
+      <c r="CO63" s="44"/>
+      <c r="CP63" s="44"/>
+      <c r="CQ63" s="44"/>
+      <c r="CR63" s="44"/>
+      <c r="CS63" s="44"/>
+      <c r="CT63" s="44"/>
+      <c r="CU63" s="44"/>
+      <c r="CV63" s="44"/>
+      <c r="CW63" s="44"/>
+      <c r="CX63" s="44"/>
+      <c r="CY63" s="44"/>
+      <c r="CZ63" s="44"/>
+      <c r="DA63" s="44"/>
+      <c r="DB63" s="44"/>
+      <c r="DC63" s="44"/>
+      <c r="DD63" s="44"/>
+      <c r="DE63" s="44"/>
+      <c r="DF63" s="44"/>
+      <c r="DG63" s="44"/>
+      <c r="DH63" s="44"/>
+      <c r="DI63" s="44"/>
+      <c r="DJ63" s="44"/>
+      <c r="DK63" s="44"/>
+      <c r="DL63" s="44"/>
+      <c r="DM63" s="44"/>
+      <c r="DN63" s="44"/>
+      <c r="DO63" s="44"/>
+      <c r="DP63" s="44"/>
+      <c r="DQ63" s="44"/>
+      <c r="DR63" s="44"/>
+      <c r="DS63" s="44"/>
+      <c r="DT63" s="44"/>
+      <c r="DU63" s="44"/>
+      <c r="DV63" s="44"/>
+      <c r="DW63" s="44"/>
+      <c r="DX63" s="44"/>
+      <c r="DY63" s="44"/>
+      <c r="DZ63" s="44"/>
+      <c r="EA63" s="44"/>
+      <c r="EB63" s="44"/>
+      <c r="EC63" s="44"/>
+      <c r="ED63" s="44"/>
+      <c r="EE63" s="44"/>
+      <c r="EF63" s="44"/>
+      <c r="EG63" s="44"/>
+      <c r="EH63" s="44"/>
+      <c r="EI63" s="44"/>
+      <c r="EJ63" s="44"/>
+      <c r="EK63" s="44"/>
+      <c r="EL63" s="44"/>
+      <c r="EM63" s="44"/>
+      <c r="EN63" s="44"/>
+      <c r="EO63" s="44"/>
+      <c r="EP63" s="44"/>
+      <c r="EQ63" s="44"/>
+      <c r="ER63" s="44"/>
+      <c r="ES63" s="44"/>
+      <c r="ET63" s="44"/>
+      <c r="EU63" s="44"/>
+      <c r="EV63" s="44"/>
+      <c r="EW63" s="44"/>
+      <c r="EX63" s="44"/>
+      <c r="EY63" s="44"/>
+      <c r="EZ63" s="44"/>
+      <c r="FA63" s="44"/>
+      <c r="FB63" s="44"/>
+      <c r="FC63" s="44"/>
+      <c r="FD63" s="44"/>
+      <c r="FE63" s="44"/>
+      <c r="FF63" s="44"/>
+      <c r="FG63" s="44"/>
+      <c r="FH63" s="44"/>
+      <c r="FI63" s="44"/>
     </row>
     <row r="64" spans="1:702" ht="6.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="Q64" s="30" t="s">
@@ -10689,180 +10704,180 @@
       <c r="FI64" s="30"/>
     </row>
     <row r="65" spans="9:165" x14ac:dyDescent="0.2">
-      <c r="U65" s="98" t="s">
+      <c r="U65" s="38" t="s">
         <v>56</v>
       </c>
-      <c r="V65" s="98"/>
-      <c r="W65" s="98"/>
-      <c r="X65" s="98"/>
-      <c r="Y65" s="98"/>
-      <c r="Z65" s="98"/>
+      <c r="V65" s="38"/>
+      <c r="W65" s="38"/>
+      <c r="X65" s="38"/>
+      <c r="Y65" s="38"/>
+      <c r="Z65" s="38"/>
     </row>
     <row r="66" spans="9:165" ht="6.9" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="67" spans="9:165" x14ac:dyDescent="0.2">
-      <c r="I67" s="45" t="s">
+      <c r="I67" s="39" t="s">
         <v>57</v>
       </c>
-      <c r="J67" s="45"/>
-      <c r="K67" s="45"/>
-      <c r="L67" s="45"/>
-      <c r="M67" s="45"/>
-      <c r="N67" s="45"/>
-      <c r="O67" s="45"/>
-      <c r="P67" s="45"/>
-      <c r="Q67" s="100" t="s">
+      <c r="J67" s="39"/>
+      <c r="K67" s="39"/>
+      <c r="L67" s="39"/>
+      <c r="M67" s="39"/>
+      <c r="N67" s="39"/>
+      <c r="O67" s="39"/>
+      <c r="P67" s="39"/>
+      <c r="Q67" s="40" t="s">
         <v>51</v>
       </c>
-      <c r="R67" s="101"/>
-      <c r="S67" s="101"/>
-      <c r="T67" s="101"/>
-      <c r="U67" s="101"/>
-      <c r="V67" s="101"/>
-      <c r="W67" s="101"/>
-      <c r="X67" s="101"/>
-      <c r="Y67" s="101"/>
-      <c r="Z67" s="101"/>
-      <c r="AA67" s="101"/>
-      <c r="AB67" s="101"/>
-      <c r="AC67" s="101"/>
-      <c r="AD67" s="101"/>
-      <c r="AE67" s="101"/>
-      <c r="AF67" s="101"/>
-      <c r="AG67" s="101"/>
-      <c r="AH67" s="101"/>
-      <c r="AI67" s="101"/>
-      <c r="AJ67" s="101"/>
-      <c r="AK67" s="101"/>
-      <c r="AL67" s="101"/>
-      <c r="AM67" s="101"/>
-      <c r="AN67" s="101"/>
-      <c r="AO67" s="101"/>
-      <c r="AP67" s="101"/>
-      <c r="AQ67" s="101"/>
-      <c r="AR67" s="101"/>
-      <c r="AS67" s="101"/>
-      <c r="AT67" s="101"/>
-      <c r="AU67" s="101"/>
-      <c r="AV67" s="101"/>
-      <c r="AW67" s="101"/>
-      <c r="AX67" s="101"/>
-      <c r="AY67" s="101"/>
-      <c r="AZ67" s="101"/>
-      <c r="BA67" s="101"/>
+      <c r="R67" s="41"/>
+      <c r="S67" s="41"/>
+      <c r="T67" s="41"/>
+      <c r="U67" s="41"/>
+      <c r="V67" s="41"/>
+      <c r="W67" s="41"/>
+      <c r="X67" s="41"/>
+      <c r="Y67" s="41"/>
+      <c r="Z67" s="41"/>
+      <c r="AA67" s="41"/>
+      <c r="AB67" s="41"/>
+      <c r="AC67" s="41"/>
+      <c r="AD67" s="41"/>
+      <c r="AE67" s="41"/>
+      <c r="AF67" s="41"/>
+      <c r="AG67" s="41"/>
+      <c r="AH67" s="41"/>
+      <c r="AI67" s="41"/>
+      <c r="AJ67" s="41"/>
+      <c r="AK67" s="41"/>
+      <c r="AL67" s="41"/>
+      <c r="AM67" s="41"/>
+      <c r="AN67" s="41"/>
+      <c r="AO67" s="41"/>
+      <c r="AP67" s="41"/>
+      <c r="AQ67" s="41"/>
+      <c r="AR67" s="41"/>
+      <c r="AS67" s="41"/>
+      <c r="AT67" s="41"/>
+      <c r="AU67" s="41"/>
+      <c r="AV67" s="41"/>
+      <c r="AW67" s="41"/>
+      <c r="AX67" s="41"/>
+      <c r="AY67" s="41"/>
+      <c r="AZ67" s="41"/>
+      <c r="BA67" s="41"/>
       <c r="BB67" s="2"/>
-      <c r="BC67" s="102"/>
-      <c r="BD67" s="102"/>
-      <c r="BE67" s="102"/>
-      <c r="BF67" s="102"/>
-      <c r="BG67" s="102"/>
-      <c r="BH67" s="102"/>
-      <c r="BI67" s="102"/>
-      <c r="BJ67" s="102"/>
-      <c r="BK67" s="102"/>
-      <c r="BL67" s="102"/>
-      <c r="BM67" s="102"/>
-      <c r="BN67" s="102"/>
-      <c r="BO67" s="102"/>
-      <c r="BP67" s="102"/>
-      <c r="BQ67" s="102"/>
-      <c r="BR67" s="102"/>
-      <c r="BS67" s="102"/>
-      <c r="BT67" s="102"/>
-      <c r="BU67" s="102"/>
-      <c r="BV67" s="102"/>
-      <c r="BW67" s="102"/>
-      <c r="BX67" s="102"/>
-      <c r="BY67" s="102"/>
-      <c r="BZ67" s="102"/>
-      <c r="CA67" s="102"/>
-      <c r="CB67" s="102"/>
-      <c r="CC67" s="102"/>
-      <c r="CD67" s="102"/>
-      <c r="CE67" s="102"/>
-      <c r="CF67" s="102"/>
-      <c r="CG67" s="102"/>
-      <c r="CH67" s="102"/>
-      <c r="CI67" s="102"/>
+      <c r="BC67" s="42"/>
+      <c r="BD67" s="42"/>
+      <c r="BE67" s="42"/>
+      <c r="BF67" s="42"/>
+      <c r="BG67" s="42"/>
+      <c r="BH67" s="42"/>
+      <c r="BI67" s="42"/>
+      <c r="BJ67" s="42"/>
+      <c r="BK67" s="42"/>
+      <c r="BL67" s="42"/>
+      <c r="BM67" s="42"/>
+      <c r="BN67" s="42"/>
+      <c r="BO67" s="42"/>
+      <c r="BP67" s="42"/>
+      <c r="BQ67" s="42"/>
+      <c r="BR67" s="42"/>
+      <c r="BS67" s="42"/>
+      <c r="BT67" s="42"/>
+      <c r="BU67" s="42"/>
+      <c r="BV67" s="42"/>
+      <c r="BW67" s="42"/>
+      <c r="BX67" s="42"/>
+      <c r="BY67" s="42"/>
+      <c r="BZ67" s="42"/>
+      <c r="CA67" s="42"/>
+      <c r="CB67" s="42"/>
+      <c r="CC67" s="42"/>
+      <c r="CD67" s="42"/>
+      <c r="CE67" s="42"/>
+      <c r="CF67" s="42"/>
+      <c r="CG67" s="42"/>
+      <c r="CH67" s="42"/>
+      <c r="CI67" s="42"/>
       <c r="CJ67" s="2"/>
-      <c r="CK67" s="100" t="s">
+      <c r="CK67" s="40" t="s">
         <v>75</v>
       </c>
-      <c r="CL67" s="101"/>
-      <c r="CM67" s="101"/>
-      <c r="CN67" s="101"/>
-      <c r="CO67" s="101"/>
-      <c r="CP67" s="101"/>
-      <c r="CQ67" s="101"/>
-      <c r="CR67" s="101"/>
-      <c r="CS67" s="101"/>
-      <c r="CT67" s="101"/>
-      <c r="CU67" s="101"/>
-      <c r="CV67" s="101"/>
-      <c r="CW67" s="101"/>
-      <c r="CX67" s="101"/>
-      <c r="CY67" s="101"/>
-      <c r="CZ67" s="101"/>
-      <c r="DA67" s="101"/>
-      <c r="DB67" s="101"/>
-      <c r="DC67" s="101"/>
-      <c r="DD67" s="101"/>
-      <c r="DE67" s="101"/>
-      <c r="DF67" s="101"/>
-      <c r="DG67" s="101"/>
-      <c r="DH67" s="101"/>
-      <c r="DI67" s="101"/>
-      <c r="DJ67" s="101"/>
-      <c r="DK67" s="101"/>
-      <c r="DL67" s="101"/>
-      <c r="DM67" s="101"/>
-      <c r="DN67" s="101"/>
-      <c r="DO67" s="101"/>
-      <c r="DP67" s="101"/>
-      <c r="DQ67" s="101"/>
-      <c r="DR67" s="101"/>
-      <c r="DS67" s="101"/>
-      <c r="DT67" s="101"/>
-      <c r="DU67" s="101"/>
-      <c r="DV67" s="101"/>
-      <c r="DW67" s="101"/>
-      <c r="DX67" s="101"/>
-      <c r="DY67" s="101"/>
-      <c r="DZ67" s="101"/>
-      <c r="EA67" s="101"/>
-      <c r="EB67" s="101"/>
-      <c r="EC67" s="101"/>
-      <c r="ED67" s="101"/>
-      <c r="EE67" s="101"/>
-      <c r="EF67" s="101"/>
-      <c r="EG67" s="101"/>
-      <c r="EH67" s="101"/>
-      <c r="EI67" s="101"/>
-      <c r="EJ67" s="101"/>
-      <c r="EK67" s="101"/>
-      <c r="EL67" s="101"/>
-      <c r="EM67" s="101"/>
-      <c r="EN67" s="101"/>
-      <c r="EO67" s="101"/>
-      <c r="EP67" s="101"/>
-      <c r="EQ67" s="101"/>
-      <c r="ER67" s="101"/>
-      <c r="ES67" s="101"/>
-      <c r="ET67" s="101"/>
-      <c r="EU67" s="101"/>
-      <c r="EV67" s="101"/>
-      <c r="EW67" s="101"/>
-      <c r="EX67" s="101"/>
-      <c r="EY67" s="101"/>
-      <c r="EZ67" s="101"/>
-      <c r="FA67" s="101"/>
-      <c r="FB67" s="101"/>
-      <c r="FC67" s="101"/>
-      <c r="FD67" s="101"/>
-      <c r="FE67" s="101"/>
-      <c r="FF67" s="101"/>
-      <c r="FG67" s="101"/>
-      <c r="FH67" s="101"/>
-      <c r="FI67" s="101"/>
+      <c r="CL67" s="41"/>
+      <c r="CM67" s="41"/>
+      <c r="CN67" s="41"/>
+      <c r="CO67" s="41"/>
+      <c r="CP67" s="41"/>
+      <c r="CQ67" s="41"/>
+      <c r="CR67" s="41"/>
+      <c r="CS67" s="41"/>
+      <c r="CT67" s="41"/>
+      <c r="CU67" s="41"/>
+      <c r="CV67" s="41"/>
+      <c r="CW67" s="41"/>
+      <c r="CX67" s="41"/>
+      <c r="CY67" s="41"/>
+      <c r="CZ67" s="41"/>
+      <c r="DA67" s="41"/>
+      <c r="DB67" s="41"/>
+      <c r="DC67" s="41"/>
+      <c r="DD67" s="41"/>
+      <c r="DE67" s="41"/>
+      <c r="DF67" s="41"/>
+      <c r="DG67" s="41"/>
+      <c r="DH67" s="41"/>
+      <c r="DI67" s="41"/>
+      <c r="DJ67" s="41"/>
+      <c r="DK67" s="41"/>
+      <c r="DL67" s="41"/>
+      <c r="DM67" s="41"/>
+      <c r="DN67" s="41"/>
+      <c r="DO67" s="41"/>
+      <c r="DP67" s="41"/>
+      <c r="DQ67" s="41"/>
+      <c r="DR67" s="41"/>
+      <c r="DS67" s="41"/>
+      <c r="DT67" s="41"/>
+      <c r="DU67" s="41"/>
+      <c r="DV67" s="41"/>
+      <c r="DW67" s="41"/>
+      <c r="DX67" s="41"/>
+      <c r="DY67" s="41"/>
+      <c r="DZ67" s="41"/>
+      <c r="EA67" s="41"/>
+      <c r="EB67" s="41"/>
+      <c r="EC67" s="41"/>
+      <c r="ED67" s="41"/>
+      <c r="EE67" s="41"/>
+      <c r="EF67" s="41"/>
+      <c r="EG67" s="41"/>
+      <c r="EH67" s="41"/>
+      <c r="EI67" s="41"/>
+      <c r="EJ67" s="41"/>
+      <c r="EK67" s="41"/>
+      <c r="EL67" s="41"/>
+      <c r="EM67" s="41"/>
+      <c r="EN67" s="41"/>
+      <c r="EO67" s="41"/>
+      <c r="EP67" s="41"/>
+      <c r="EQ67" s="41"/>
+      <c r="ER67" s="41"/>
+      <c r="ES67" s="41"/>
+      <c r="ET67" s="41"/>
+      <c r="EU67" s="41"/>
+      <c r="EV67" s="41"/>
+      <c r="EW67" s="41"/>
+      <c r="EX67" s="41"/>
+      <c r="EY67" s="41"/>
+      <c r="EZ67" s="41"/>
+      <c r="FA67" s="41"/>
+      <c r="FB67" s="41"/>
+      <c r="FC67" s="41"/>
+      <c r="FD67" s="41"/>
+      <c r="FE67" s="41"/>
+      <c r="FF67" s="41"/>
+      <c r="FG67" s="41"/>
+      <c r="FH67" s="41"/>
+      <c r="FI67" s="41"/>
     </row>
     <row r="68" spans="9:165" ht="6.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="Q68" s="30" t="s">
@@ -11020,72 +11035,196 @@
       <c r="FI68" s="30"/>
     </row>
     <row r="69" spans="9:165" x14ac:dyDescent="0.2">
-      <c r="U69" s="98" t="s">
+      <c r="U69" s="38" t="s">
         <v>56</v>
       </c>
-      <c r="V69" s="98"/>
-      <c r="W69" s="98"/>
-      <c r="X69" s="98"/>
-      <c r="Y69" s="98"/>
-      <c r="Z69" s="98"/>
+      <c r="V69" s="38"/>
+      <c r="W69" s="38"/>
+      <c r="X69" s="38"/>
+      <c r="Y69" s="38"/>
+      <c r="Z69" s="38"/>
     </row>
   </sheetData>
   <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
   <mergeCells count="256">
-    <mergeCell ref="A54:ES54"/>
-    <mergeCell ref="ET54:FI54"/>
-    <mergeCell ref="A52:H52"/>
-    <mergeCell ref="I52:Q52"/>
-    <mergeCell ref="R52:CO52"/>
-    <mergeCell ref="CP52:DA52"/>
-    <mergeCell ref="DB52:DM52"/>
-    <mergeCell ref="DN52:EC52"/>
-    <mergeCell ref="ED52:ES52"/>
-    <mergeCell ref="ET52:FI52"/>
-    <mergeCell ref="A53:H53"/>
-    <mergeCell ref="I53:Q53"/>
-    <mergeCell ref="R53:CO53"/>
-    <mergeCell ref="CP53:DA53"/>
-    <mergeCell ref="DB53:DM53"/>
-    <mergeCell ref="DN53:EC53"/>
-    <mergeCell ref="ED53:ES53"/>
-    <mergeCell ref="ET53:FI53"/>
-    <mergeCell ref="A50:FI50"/>
-    <mergeCell ref="A51:H51"/>
-    <mergeCell ref="I51:Q51"/>
-    <mergeCell ref="R51:CO51"/>
-    <mergeCell ref="CP51:DA51"/>
-    <mergeCell ref="DB51:DM51"/>
-    <mergeCell ref="DN51:EC51"/>
-    <mergeCell ref="ED51:ES51"/>
-    <mergeCell ref="ET51:FI51"/>
-    <mergeCell ref="A44:ES44"/>
-    <mergeCell ref="ET44:FI44"/>
-    <mergeCell ref="A42:H42"/>
-    <mergeCell ref="I42:Q42"/>
-    <mergeCell ref="R42:CO42"/>
-    <mergeCell ref="CP42:DA42"/>
-    <mergeCell ref="DB42:DM42"/>
-    <mergeCell ref="DN42:EC42"/>
-    <mergeCell ref="ED42:ES42"/>
-    <mergeCell ref="ET42:FI42"/>
-    <mergeCell ref="A43:H43"/>
-    <mergeCell ref="I43:Q43"/>
-    <mergeCell ref="R43:CO43"/>
-    <mergeCell ref="CP43:DA43"/>
-    <mergeCell ref="DB43:DM43"/>
-    <mergeCell ref="DN43:EC43"/>
-    <mergeCell ref="ED43:ES43"/>
-    <mergeCell ref="ET43:FI43"/>
-    <mergeCell ref="A40:FI40"/>
-    <mergeCell ref="A41:H41"/>
-    <mergeCell ref="I41:Q41"/>
-    <mergeCell ref="R41:CO41"/>
-    <mergeCell ref="CP41:DA41"/>
-    <mergeCell ref="DB41:DM41"/>
-    <mergeCell ref="DN41:EC41"/>
-    <mergeCell ref="ED41:ES41"/>
-    <mergeCell ref="ET41:FI41"/>
+    <mergeCell ref="A49:ES49"/>
+    <mergeCell ref="ET49:FI49"/>
+    <mergeCell ref="A47:H47"/>
+    <mergeCell ref="I47:Q47"/>
+    <mergeCell ref="R47:CO47"/>
+    <mergeCell ref="CP47:DA47"/>
+    <mergeCell ref="DB47:DM47"/>
+    <mergeCell ref="DN47:EC47"/>
+    <mergeCell ref="ED47:ES47"/>
+    <mergeCell ref="ET47:FI47"/>
+    <mergeCell ref="A48:H48"/>
+    <mergeCell ref="I48:Q48"/>
+    <mergeCell ref="R48:CO48"/>
+    <mergeCell ref="CP48:DA48"/>
+    <mergeCell ref="DB48:DM48"/>
+    <mergeCell ref="DN48:EC48"/>
+    <mergeCell ref="ED48:ES48"/>
+    <mergeCell ref="ET48:FI48"/>
+    <mergeCell ref="A45:FI45"/>
+    <mergeCell ref="A46:H46"/>
+    <mergeCell ref="I46:Q46"/>
+    <mergeCell ref="R46:CO46"/>
+    <mergeCell ref="CP46:DA46"/>
+    <mergeCell ref="DB46:DM46"/>
+    <mergeCell ref="DN46:EC46"/>
+    <mergeCell ref="ED46:ES46"/>
+    <mergeCell ref="ET46:FI46"/>
+    <mergeCell ref="A39:ES39"/>
+    <mergeCell ref="ET39:FI39"/>
+    <mergeCell ref="DB37:DM37"/>
+    <mergeCell ref="DN37:EC37"/>
+    <mergeCell ref="ED37:ES37"/>
+    <mergeCell ref="ET37:FI37"/>
+    <mergeCell ref="A38:H38"/>
+    <mergeCell ref="I38:Q38"/>
+    <mergeCell ref="R38:CO38"/>
+    <mergeCell ref="CP38:DA38"/>
+    <mergeCell ref="DB38:DM38"/>
+    <mergeCell ref="DN38:EC38"/>
+    <mergeCell ref="ED38:ES38"/>
+    <mergeCell ref="ET38:FI38"/>
+    <mergeCell ref="A58:H58"/>
+    <mergeCell ref="I58:Q58"/>
+    <mergeCell ref="R58:CO58"/>
+    <mergeCell ref="CP58:DA58"/>
+    <mergeCell ref="DB58:DM58"/>
+    <mergeCell ref="DN58:EC58"/>
+    <mergeCell ref="ED58:ES58"/>
+    <mergeCell ref="ET58:FI58"/>
+    <mergeCell ref="A57:H57"/>
+    <mergeCell ref="I57:Q57"/>
+    <mergeCell ref="R57:CO57"/>
+    <mergeCell ref="CP57:DA57"/>
+    <mergeCell ref="DB57:DM57"/>
+    <mergeCell ref="DN57:EC57"/>
+    <mergeCell ref="ED57:ES57"/>
+    <mergeCell ref="ET57:FI57"/>
+    <mergeCell ref="A34:ES34"/>
+    <mergeCell ref="ET34:FI34"/>
+    <mergeCell ref="A55:FI55"/>
+    <mergeCell ref="A56:H56"/>
+    <mergeCell ref="I56:Q56"/>
+    <mergeCell ref="R56:CO56"/>
+    <mergeCell ref="CP56:DA56"/>
+    <mergeCell ref="DB56:DM56"/>
+    <mergeCell ref="DN56:EC56"/>
+    <mergeCell ref="ED56:ES56"/>
+    <mergeCell ref="ET56:FI56"/>
+    <mergeCell ref="A35:FI35"/>
+    <mergeCell ref="A36:H36"/>
+    <mergeCell ref="I36:Q36"/>
+    <mergeCell ref="R36:CO36"/>
+    <mergeCell ref="CP36:DA36"/>
+    <mergeCell ref="DB36:DM36"/>
+    <mergeCell ref="DN36:EC36"/>
+    <mergeCell ref="ED36:ES36"/>
+    <mergeCell ref="ET36:FI36"/>
+    <mergeCell ref="A37:H37"/>
+    <mergeCell ref="I37:Q37"/>
+    <mergeCell ref="R37:CO37"/>
+    <mergeCell ref="CP37:DA37"/>
+    <mergeCell ref="A6:EL6"/>
+    <mergeCell ref="A7:X7"/>
+    <mergeCell ref="Y7:EL7"/>
+    <mergeCell ref="EM7:EV7"/>
+    <mergeCell ref="EW6:FI7"/>
+    <mergeCell ref="DB1:FI2"/>
+    <mergeCell ref="EW3:FI3"/>
+    <mergeCell ref="EG4:EV4"/>
+    <mergeCell ref="EW4:FI4"/>
+    <mergeCell ref="A5:J5"/>
+    <mergeCell ref="K5:EL5"/>
+    <mergeCell ref="EM5:EV5"/>
+    <mergeCell ref="EW5:FI5"/>
+    <mergeCell ref="A10:EL10"/>
+    <mergeCell ref="A11:J11"/>
+    <mergeCell ref="K11:EV11"/>
+    <mergeCell ref="EW10:FI11"/>
+    <mergeCell ref="A12:BX12"/>
+    <mergeCell ref="A8:EL8"/>
+    <mergeCell ref="A9:X9"/>
+    <mergeCell ref="Y9:EL9"/>
+    <mergeCell ref="EM9:EV9"/>
+    <mergeCell ref="EW8:FI9"/>
+    <mergeCell ref="DH16:EL16"/>
+    <mergeCell ref="EM16:EV16"/>
+    <mergeCell ref="EW16:FI16"/>
+    <mergeCell ref="EM17:EV17"/>
+    <mergeCell ref="EW17:EZ17"/>
+    <mergeCell ref="FA17:FE17"/>
+    <mergeCell ref="FF17:FI17"/>
+    <mergeCell ref="A13:J13"/>
+    <mergeCell ref="K13:EV13"/>
+    <mergeCell ref="EW12:FI13"/>
+    <mergeCell ref="A14:BV14"/>
+    <mergeCell ref="DS14:EV15"/>
+    <mergeCell ref="EW14:FI15"/>
+    <mergeCell ref="AB22:DB22"/>
+    <mergeCell ref="A24:BW24"/>
+    <mergeCell ref="BX24:FB24"/>
+    <mergeCell ref="FC24:FI24"/>
+    <mergeCell ref="A26:Q26"/>
+    <mergeCell ref="DN26:FI26"/>
+    <mergeCell ref="EI18:EV18"/>
+    <mergeCell ref="EW18:FI18"/>
+    <mergeCell ref="BD20:BI20"/>
+    <mergeCell ref="BJ20:CA20"/>
+    <mergeCell ref="CB20:CT20"/>
+    <mergeCell ref="DA20:DM20"/>
+    <mergeCell ref="DN20:DZ20"/>
+    <mergeCell ref="BJ18:CA19"/>
+    <mergeCell ref="CB18:CT19"/>
+    <mergeCell ref="DA18:DZ18"/>
+    <mergeCell ref="DA19:DM19"/>
+    <mergeCell ref="DN19:DZ19"/>
+    <mergeCell ref="A30:FI30"/>
+    <mergeCell ref="DN27:EC28"/>
+    <mergeCell ref="ED27:ES28"/>
+    <mergeCell ref="ET27:FI28"/>
+    <mergeCell ref="A29:H29"/>
+    <mergeCell ref="I29:Q29"/>
+    <mergeCell ref="R29:CO29"/>
+    <mergeCell ref="CP29:DA29"/>
+    <mergeCell ref="DB29:DM29"/>
+    <mergeCell ref="DN29:EC29"/>
+    <mergeCell ref="ED29:ES29"/>
+    <mergeCell ref="ET29:FI29"/>
+    <mergeCell ref="A27:H28"/>
+    <mergeCell ref="I27:Q28"/>
+    <mergeCell ref="R26:CO28"/>
+    <mergeCell ref="CP26:DA28"/>
+    <mergeCell ref="DB26:DM28"/>
+    <mergeCell ref="A33:H33"/>
+    <mergeCell ref="I33:Q33"/>
+    <mergeCell ref="R33:CO33"/>
+    <mergeCell ref="CP33:DA33"/>
+    <mergeCell ref="DB33:DM33"/>
+    <mergeCell ref="DN32:EC32"/>
+    <mergeCell ref="ED32:ES32"/>
+    <mergeCell ref="ET32:FI32"/>
+    <mergeCell ref="A32:H32"/>
+    <mergeCell ref="I32:Q32"/>
+    <mergeCell ref="R32:CO32"/>
+    <mergeCell ref="CP32:DA32"/>
+    <mergeCell ref="DB32:DM32"/>
+    <mergeCell ref="U69:Z69"/>
+    <mergeCell ref="U65:Z65"/>
+    <mergeCell ref="I67:P67"/>
+    <mergeCell ref="Q67:BA67"/>
+    <mergeCell ref="BC67:CI67"/>
+    <mergeCell ref="CK67:FI67"/>
+    <mergeCell ref="I63:P63"/>
+    <mergeCell ref="Q63:BA63"/>
+    <mergeCell ref="BC63:CI63"/>
+    <mergeCell ref="CK63:FI63"/>
+    <mergeCell ref="Q64:BA64"/>
+    <mergeCell ref="BC64:CI64"/>
+    <mergeCell ref="CK64:FI64"/>
     <mergeCell ref="ET31:FI31"/>
     <mergeCell ref="ED31:ES31"/>
     <mergeCell ref="DN31:EC31"/>
@@ -11110,184 +11249,60 @@
     <mergeCell ref="ET33:FI33"/>
     <mergeCell ref="A59:ES59"/>
     <mergeCell ref="ET59:FI59"/>
-    <mergeCell ref="U69:Z69"/>
-    <mergeCell ref="U65:Z65"/>
-    <mergeCell ref="I67:P67"/>
-    <mergeCell ref="Q67:BA67"/>
-    <mergeCell ref="BC67:CI67"/>
-    <mergeCell ref="CK67:FI67"/>
-    <mergeCell ref="I63:P63"/>
-    <mergeCell ref="Q63:BA63"/>
-    <mergeCell ref="BC63:CI63"/>
-    <mergeCell ref="CK63:FI63"/>
-    <mergeCell ref="Q64:BA64"/>
-    <mergeCell ref="BC64:CI64"/>
-    <mergeCell ref="CK64:FI64"/>
-    <mergeCell ref="A33:H33"/>
-    <mergeCell ref="I33:Q33"/>
-    <mergeCell ref="R33:CO33"/>
-    <mergeCell ref="CP33:DA33"/>
-    <mergeCell ref="DB33:DM33"/>
-    <mergeCell ref="DN32:EC32"/>
-    <mergeCell ref="ED32:ES32"/>
-    <mergeCell ref="ET32:FI32"/>
-    <mergeCell ref="A32:H32"/>
-    <mergeCell ref="I32:Q32"/>
-    <mergeCell ref="R32:CO32"/>
-    <mergeCell ref="CP32:DA32"/>
-    <mergeCell ref="DB32:DM32"/>
-    <mergeCell ref="A30:FI30"/>
-    <mergeCell ref="DN27:EC28"/>
-    <mergeCell ref="ED27:ES28"/>
-    <mergeCell ref="ET27:FI28"/>
-    <mergeCell ref="A29:H29"/>
-    <mergeCell ref="I29:Q29"/>
-    <mergeCell ref="R29:CO29"/>
-    <mergeCell ref="CP29:DA29"/>
-    <mergeCell ref="DB29:DM29"/>
-    <mergeCell ref="DN29:EC29"/>
-    <mergeCell ref="ED29:ES29"/>
-    <mergeCell ref="ET29:FI29"/>
-    <mergeCell ref="A27:H28"/>
-    <mergeCell ref="I27:Q28"/>
-    <mergeCell ref="R26:CO28"/>
-    <mergeCell ref="CP26:DA28"/>
-    <mergeCell ref="DB26:DM28"/>
-    <mergeCell ref="AB22:DB22"/>
-    <mergeCell ref="A24:BW24"/>
-    <mergeCell ref="BX24:FB24"/>
-    <mergeCell ref="FC24:FI24"/>
-    <mergeCell ref="A26:Q26"/>
-    <mergeCell ref="DN26:FI26"/>
-    <mergeCell ref="EI18:EV18"/>
-    <mergeCell ref="EW18:FI18"/>
-    <mergeCell ref="BD20:BI20"/>
-    <mergeCell ref="BJ20:CA20"/>
-    <mergeCell ref="CB20:CT20"/>
-    <mergeCell ref="DA20:DM20"/>
-    <mergeCell ref="DN20:DZ20"/>
-    <mergeCell ref="BJ18:CA19"/>
-    <mergeCell ref="CB18:CT19"/>
-    <mergeCell ref="DA18:DZ18"/>
-    <mergeCell ref="DA19:DM19"/>
-    <mergeCell ref="DN19:DZ19"/>
-    <mergeCell ref="DH16:EL16"/>
-    <mergeCell ref="EM16:EV16"/>
-    <mergeCell ref="EW16:FI16"/>
-    <mergeCell ref="EM17:EV17"/>
-    <mergeCell ref="EW17:EZ17"/>
-    <mergeCell ref="FA17:FE17"/>
-    <mergeCell ref="FF17:FI17"/>
-    <mergeCell ref="A13:J13"/>
-    <mergeCell ref="K13:EV13"/>
-    <mergeCell ref="EW12:FI13"/>
-    <mergeCell ref="A14:BV14"/>
-    <mergeCell ref="DS14:EV15"/>
-    <mergeCell ref="EW14:FI15"/>
-    <mergeCell ref="A10:EL10"/>
-    <mergeCell ref="A11:J11"/>
-    <mergeCell ref="K11:EV11"/>
-    <mergeCell ref="EW10:FI11"/>
-    <mergeCell ref="A12:BX12"/>
-    <mergeCell ref="A8:EL8"/>
-    <mergeCell ref="A9:X9"/>
-    <mergeCell ref="Y9:EL9"/>
-    <mergeCell ref="EM9:EV9"/>
-    <mergeCell ref="EW8:FI9"/>
-    <mergeCell ref="A6:EL6"/>
-    <mergeCell ref="A7:X7"/>
-    <mergeCell ref="Y7:EL7"/>
-    <mergeCell ref="EM7:EV7"/>
-    <mergeCell ref="EW6:FI7"/>
-    <mergeCell ref="DB1:FI2"/>
-    <mergeCell ref="EW3:FI3"/>
-    <mergeCell ref="EG4:EV4"/>
-    <mergeCell ref="EW4:FI4"/>
-    <mergeCell ref="A5:J5"/>
-    <mergeCell ref="K5:EL5"/>
-    <mergeCell ref="EM5:EV5"/>
-    <mergeCell ref="EW5:FI5"/>
-    <mergeCell ref="A34:ES34"/>
-    <mergeCell ref="ET34:FI34"/>
-    <mergeCell ref="A55:FI55"/>
-    <mergeCell ref="A56:H56"/>
-    <mergeCell ref="I56:Q56"/>
-    <mergeCell ref="R56:CO56"/>
-    <mergeCell ref="CP56:DA56"/>
-    <mergeCell ref="DB56:DM56"/>
-    <mergeCell ref="DN56:EC56"/>
-    <mergeCell ref="ED56:ES56"/>
-    <mergeCell ref="ET56:FI56"/>
-    <mergeCell ref="A35:FI35"/>
-    <mergeCell ref="A36:H36"/>
-    <mergeCell ref="I36:Q36"/>
-    <mergeCell ref="R36:CO36"/>
-    <mergeCell ref="CP36:DA36"/>
-    <mergeCell ref="DB36:DM36"/>
-    <mergeCell ref="DN36:EC36"/>
-    <mergeCell ref="ED36:ES36"/>
-    <mergeCell ref="ET36:FI36"/>
-    <mergeCell ref="A37:H37"/>
-    <mergeCell ref="I37:Q37"/>
-    <mergeCell ref="R37:CO37"/>
-    <mergeCell ref="CP37:DA37"/>
-    <mergeCell ref="A58:H58"/>
-    <mergeCell ref="I58:Q58"/>
-    <mergeCell ref="R58:CO58"/>
-    <mergeCell ref="CP58:DA58"/>
-    <mergeCell ref="DB58:DM58"/>
-    <mergeCell ref="DN58:EC58"/>
-    <mergeCell ref="ED58:ES58"/>
-    <mergeCell ref="ET58:FI58"/>
-    <mergeCell ref="A57:H57"/>
-    <mergeCell ref="I57:Q57"/>
-    <mergeCell ref="R57:CO57"/>
-    <mergeCell ref="CP57:DA57"/>
-    <mergeCell ref="DB57:DM57"/>
-    <mergeCell ref="DN57:EC57"/>
-    <mergeCell ref="ED57:ES57"/>
-    <mergeCell ref="ET57:FI57"/>
-    <mergeCell ref="A39:ES39"/>
-    <mergeCell ref="ET39:FI39"/>
-    <mergeCell ref="DB37:DM37"/>
-    <mergeCell ref="DN37:EC37"/>
-    <mergeCell ref="ED37:ES37"/>
-    <mergeCell ref="ET37:FI37"/>
-    <mergeCell ref="A38:H38"/>
-    <mergeCell ref="I38:Q38"/>
-    <mergeCell ref="R38:CO38"/>
-    <mergeCell ref="CP38:DA38"/>
-    <mergeCell ref="DB38:DM38"/>
-    <mergeCell ref="DN38:EC38"/>
-    <mergeCell ref="ED38:ES38"/>
-    <mergeCell ref="ET38:FI38"/>
-    <mergeCell ref="A45:FI45"/>
-    <mergeCell ref="A46:H46"/>
-    <mergeCell ref="I46:Q46"/>
-    <mergeCell ref="R46:CO46"/>
-    <mergeCell ref="CP46:DA46"/>
-    <mergeCell ref="DB46:DM46"/>
-    <mergeCell ref="DN46:EC46"/>
-    <mergeCell ref="ED46:ES46"/>
-    <mergeCell ref="ET46:FI46"/>
-    <mergeCell ref="A49:ES49"/>
-    <mergeCell ref="ET49:FI49"/>
-    <mergeCell ref="A47:H47"/>
-    <mergeCell ref="I47:Q47"/>
-    <mergeCell ref="R47:CO47"/>
-    <mergeCell ref="CP47:DA47"/>
-    <mergeCell ref="DB47:DM47"/>
-    <mergeCell ref="DN47:EC47"/>
-    <mergeCell ref="ED47:ES47"/>
-    <mergeCell ref="ET47:FI47"/>
-    <mergeCell ref="A48:H48"/>
-    <mergeCell ref="I48:Q48"/>
-    <mergeCell ref="R48:CO48"/>
-    <mergeCell ref="CP48:DA48"/>
-    <mergeCell ref="DB48:DM48"/>
-    <mergeCell ref="DN48:EC48"/>
-    <mergeCell ref="ED48:ES48"/>
-    <mergeCell ref="ET48:FI48"/>
+    <mergeCell ref="A40:FI40"/>
+    <mergeCell ref="A41:H41"/>
+    <mergeCell ref="I41:Q41"/>
+    <mergeCell ref="R41:CO41"/>
+    <mergeCell ref="CP41:DA41"/>
+    <mergeCell ref="DB41:DM41"/>
+    <mergeCell ref="DN41:EC41"/>
+    <mergeCell ref="ED41:ES41"/>
+    <mergeCell ref="ET41:FI41"/>
+    <mergeCell ref="A44:ES44"/>
+    <mergeCell ref="ET44:FI44"/>
+    <mergeCell ref="A42:H42"/>
+    <mergeCell ref="I42:Q42"/>
+    <mergeCell ref="R42:CO42"/>
+    <mergeCell ref="CP42:DA42"/>
+    <mergeCell ref="DB42:DM42"/>
+    <mergeCell ref="DN42:EC42"/>
+    <mergeCell ref="ED42:ES42"/>
+    <mergeCell ref="ET42:FI42"/>
+    <mergeCell ref="A43:H43"/>
+    <mergeCell ref="I43:Q43"/>
+    <mergeCell ref="R43:CO43"/>
+    <mergeCell ref="CP43:DA43"/>
+    <mergeCell ref="DB43:DM43"/>
+    <mergeCell ref="DN43:EC43"/>
+    <mergeCell ref="ED43:ES43"/>
+    <mergeCell ref="ET43:FI43"/>
+    <mergeCell ref="A50:FI50"/>
+    <mergeCell ref="A51:H51"/>
+    <mergeCell ref="I51:Q51"/>
+    <mergeCell ref="R51:CO51"/>
+    <mergeCell ref="CP51:DA51"/>
+    <mergeCell ref="DB51:DM51"/>
+    <mergeCell ref="DN51:EC51"/>
+    <mergeCell ref="ED51:ES51"/>
+    <mergeCell ref="ET51:FI51"/>
+    <mergeCell ref="A54:ES54"/>
+    <mergeCell ref="ET54:FI54"/>
+    <mergeCell ref="A52:H52"/>
+    <mergeCell ref="I52:Q52"/>
+    <mergeCell ref="R52:CO52"/>
+    <mergeCell ref="CP52:DA52"/>
+    <mergeCell ref="DB52:DM52"/>
+    <mergeCell ref="DN52:EC52"/>
+    <mergeCell ref="ED52:ES52"/>
+    <mergeCell ref="ET52:FI52"/>
+    <mergeCell ref="A53:H53"/>
+    <mergeCell ref="I53:Q53"/>
+    <mergeCell ref="R53:CO53"/>
+    <mergeCell ref="CP53:DA53"/>
+    <mergeCell ref="DB53:DM53"/>
+    <mergeCell ref="DN53:EC53"/>
+    <mergeCell ref="ED53:ES53"/>
+    <mergeCell ref="ET53:FI53"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.75" right="0.75" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
